--- a/downloads/ds.xlsx
+++ b/downloads/ds.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="27">
   <si>
     <t>რიგითი №</t>
   </si>
@@ -73,13 +73,36 @@
   <si>
     <t>გასვლები "B" პუნქტიდან</t>
   </si>
+  <si>
+    <t>MAN A-47</t>
+  </si>
+  <si>
+    <t>12:20:00</t>
+  </si>
+  <si>
+    <t>BMC Procity</t>
+  </si>
+  <si>
+    <t>Isuzu Novociti Life</t>
+  </si>
+  <si>
+    <t>MAN A-21</t>
+  </si>
+  <si>
+    <t>ბოგდან А092, A093</t>
+  </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -87,8 +110,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +152,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEECE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEECE1"/>
       </patternFill>
     </fill>
   </fills>
@@ -146,47 +195,163 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="90" wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment textRotation="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment textRotation="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.515625" customWidth="true"/>
-    <col min="2" max="2" width="3.515625" customWidth="true"/>
-    <col min="3" max="3" width="3.515625" customWidth="true"/>
-    <col min="4" max="4" width="35.15625" customWidth="true"/>
-    <col min="5" max="5" width="5.078125" customWidth="true"/>
-    <col min="6" max="6" width="5.078125" customWidth="true"/>
-    <col min="7" max="7" width="5.078125" customWidth="true"/>
-    <col min="8" max="8" width="5.078125" customWidth="true"/>
-    <col min="9" max="9" width="5.078125" customWidth="true"/>
-    <col min="10" max="10" width="5.078125" customWidth="true"/>
-    <col min="11" max="11" width="5.078125" customWidth="true"/>
-    <col min="12" max="12" width="5.078125" customWidth="true"/>
-    <col min="13" max="13" width="5.078125" customWidth="true"/>
-    <col min="14" max="14" width="5.078125" customWidth="true"/>
-    <col min="20" max="20" width="5.078125" customWidth="true"/>
-    <col min="15" max="15" width="5.078125" customWidth="true"/>
-    <col min="17" max="17" width="5.078125" customWidth="true"/>
-    <col min="18" max="18" width="5.078125" customWidth="true"/>
+    <col min="1" max="1" width="4.6875" customWidth="true"/>
+    <col min="2" max="2" width="4.6875" customWidth="true"/>
+    <col min="3" max="3" width="7.421875" customWidth="true"/>
+    <col min="4" max="4" width="27.34375" customWidth="true"/>
+    <col min="5" max="5" width="13.671875" customWidth="true"/>
+    <col min="6" max="6" width="17.578125" customWidth="true"/>
+    <col min="7" max="7" width="8.203125" customWidth="true"/>
+    <col min="8" max="8" width="8.203125" customWidth="true"/>
+    <col min="9" max="9" width="8.203125" customWidth="true"/>
+    <col min="10" max="10" width="8.203125" customWidth="true"/>
+    <col min="11" max="11" width="8.203125" customWidth="true"/>
+    <col min="12" max="12" width="8.203125" customWidth="true"/>
+    <col min="13" max="13" width="8.203125" customWidth="true"/>
+    <col min="14" max="14" width="27.34375" customWidth="true"/>
+    <col min="15" max="15" width="8.203125" customWidth="true"/>
+    <col min="16" max="16" width="8.203125" customWidth="true"/>
+    <col min="17" max="17" width="27.34375" customWidth="true"/>
+    <col min="18" max="18" width="8.203125" customWidth="true"/>
+    <col min="19" max="19" width="8.203125" customWidth="true"/>
+    <col min="20" max="20" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.0" customHeight="true">
@@ -295,8 +460,2228 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="n" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="n" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="n" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O23" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O27" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O29" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O30" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O31" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O32" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O33" s="34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O34" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O35" s="36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O36" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O37" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O38" s="39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O39" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O40" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O41" s="42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O42" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O43" s="44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O44" s="45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>45.099998474121094</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O45" s="46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>45.20000076293945</v>
+      </c>
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O46" s="47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O47" s="48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O48" s="49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O49" s="50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O50" s="51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" t="n" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="O51" s="52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O52" s="53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O53" s="54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O54" s="55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O55" s="56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O56" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O57" s="58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O58" s="59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O59" s="60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O60" s="61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O61" s="62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O62" s="63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O63" s="64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O64" s="65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O65" s="66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O66" s="67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O67" s="68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O68" s="69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O69" s="70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O70" s="71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O71" s="72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O72" s="73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O73" s="74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O74" s="75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O75" s="76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O76" s="77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O77" s="78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O78" s="79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O79" s="80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O80" s="81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O81" s="82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O82" s="83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O83" s="84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O84" s="85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O85" s="86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O86" s="87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O87" s="88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O88" s="89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O89" s="90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O90" s="91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O91" s="92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O92" s="93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O93" s="94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O94" s="95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O95" s="96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O96" s="97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O97" s="98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O98" s="99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O99" s="100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O100" s="101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O101" s="102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="F102" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" t="n" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="O102" s="103" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O103" s="104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O104" s="105" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="F105" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O105" s="106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="F106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O106" s="107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O107" s="108" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O108" s="109" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" t="n" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="O109" s="110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>346.0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O110" s="111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>23</v>
+      </c>
+      <c r="G111" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O111" s="112" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>383.0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>23</v>
+      </c>
+      <c r="G112" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O112" s="113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>385.0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>22</v>
+      </c>
+      <c r="G113" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O113" s="114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>387.0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O114" s="115" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -312,6 +2697,8 @@
     <mergeCell ref="N1:S2"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:S3"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/downloads/ds.xlsx
+++ b/downloads/ds.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="26">
   <si>
     <t>რიგითი №</t>
   </si>
@@ -77,9 +77,6 @@
     <t>MAN A-47</t>
   </si>
   <si>
-    <t>12:20:00</t>
-  </si>
-  <si>
     <t>BMC Procity</t>
   </si>
   <si>
@@ -99,10 +96,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="hh:mm"/>
-  </numFmts>
-  <fonts count="5">
+  <numFmts count="0"/>
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -125,6 +120,37 @@
     <font>
       <name val="Sylfaen"/>
       <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
   </fonts>
   <fills count="8">
@@ -156,12 +182,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="EEECE1"/>
+        <fgColor rgb="FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="EEECE1"/>
+        <fgColor rgb="FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -195,131 +221,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment textRotation="90" wrapText="true" horizontal="center" vertical="center"/>
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -364,7 +297,7 @@
       <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
@@ -394,7 +327,7 @@
       <c r="M1" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" t="s" s="4">
         <v>13</v>
       </c>
       <c r="O1"/>
@@ -402,7 +335,7 @@
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
-      <c r="T1" t="s" s="2">
+      <c r="T1" t="s" s="4">
         <v>14</v>
       </c>
     </row>
@@ -444,24 +377,24 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" t="s" s="2">
+      <c r="N3" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="O3" t="s" s="2">
+      <c r="O3" t="s" s="4">
         <v>17</v>
       </c>
       <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
+      <c r="Q3" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="R3" t="s" s="2">
+      <c r="R3" t="s" s="4">
         <v>19</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="n" s="7">
         <v>0.0</v>
       </c>
       <c r="B4" t="n">
@@ -473,55 +406,91 @@
       <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="n" s="4">
+      <c r="G4" t="n" s="8">
         <v>8.0</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="H4" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O4" t="n" s="10">
+        <v>0.925</v>
+      </c>
+      <c r="P4" t="n" s="10">
+        <v>0.9423611111111111</v>
+      </c>
+      <c r="R4" t="n" s="10">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="S4" t="n" s="10">
+        <v>0.9409722222222222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="n" s="4">
+      <c r="G5" t="n" s="8">
         <v>11.0</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="H5" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O5" t="n" s="10">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="P5" t="n" s="10">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R5" t="n" s="10">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S5" t="n" s="10">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="n" s="4">
+      <c r="G6" t="n" s="8">
         <v>6.0</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>21</v>
+      <c r="H6" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O6" t="n" s="10">
+        <v>0.9180555555555555</v>
+      </c>
+      <c r="P6" t="n" s="10">
+        <v>0.9402777777777778</v>
+      </c>
+      <c r="R6" t="n" s="10">
+        <v>0.9180555555555555</v>
+      </c>
+      <c r="S6" t="n" s="10">
+        <v>0.9402777777777778</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="n" s="7">
         <v>3.0</v>
       </c>
       <c r="B7" t="n">
@@ -531,17 +500,29 @@
         <v>4.0</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G7" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H7" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O7" t="n" s="10">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="P7" t="n" s="10">
+        <v>0.9423611111111111</v>
+      </c>
+      <c r="R7" t="n" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="S7" t="n" s="10">
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="n" s="7">
         <v>4.0</v>
       </c>
       <c r="B8" t="n">
@@ -551,17 +532,29 @@
         <v>5.0</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G8" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H8" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O8" t="n" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="P8" t="n" s="10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="R8" t="n" s="10">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="S8" t="n" s="10">
+        <v>0.875</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="n" s="7">
         <v>5.0</v>
       </c>
       <c r="B9" t="n">
@@ -571,17 +564,29 @@
         <v>6.0</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G9" t="n" s="8">
         <v>7.0</v>
       </c>
-      <c r="O9" s="10" t="s">
-        <v>21</v>
+      <c r="H9" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O9" t="n" s="10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P9" t="n" s="10">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R9" t="n" s="10">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="S9" t="n" s="10">
+        <v>0.9493055555555555</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="n" s="7">
         <v>6.0</v>
       </c>
       <c r="B10" t="n">
@@ -591,17 +596,29 @@
         <v>7.0</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G10" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H10" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O10" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="P10" t="n" s="10">
+        <v>0.9513888888888888</v>
+      </c>
+      <c r="R10" t="n" s="10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="S10" t="n" s="10">
+        <v>0.9340277777777778</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="n" s="7">
         <v>7.0</v>
       </c>
       <c r="B11" t="n">
@@ -611,17 +628,29 @@
         <v>9.0</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G11" t="n" s="8">
         <v>5.0</v>
       </c>
-      <c r="O11" s="12" t="s">
-        <v>21</v>
+      <c r="H11" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O11" t="n" s="10">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="P11" t="n" s="10">
+        <v>0.9423611111111111</v>
+      </c>
+      <c r="R11" t="n" s="10">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="S11" t="n" s="10">
+        <v>0.9479166666666666</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="n" s="7">
         <v>8.0</v>
       </c>
       <c r="B12" t="n">
@@ -631,17 +660,29 @@
         <v>10.0</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G12" t="n" s="8">
         <v>4.0</v>
       </c>
-      <c r="O12" s="13" t="s">
-        <v>21</v>
+      <c r="H12" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O12" t="n" s="10">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="P12" t="n" s="10">
+        <v>0.9368055555555556</v>
+      </c>
+      <c r="R12" t="n" s="10">
+        <v>0.8840277777777777</v>
+      </c>
+      <c r="S12" t="n" s="10">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="n" s="7">
         <v>9.0</v>
       </c>
       <c r="B13" t="n">
@@ -651,17 +692,29 @@
         <v>11.0</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G13" t="n" s="8">
         <v>7.0</v>
       </c>
-      <c r="O13" s="14" t="s">
-        <v>21</v>
+      <c r="H13" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O13" t="n" s="10">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="P13" t="n" s="10">
+        <v>0.9486111111111111</v>
+      </c>
+      <c r="R13" t="n" s="10">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="S13" t="n" s="10">
+        <v>0.9423611111111111</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="n" s="7">
         <v>10.0</v>
       </c>
       <c r="B14" t="n">
@@ -671,17 +724,29 @@
         <v>12.0</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G14" t="n" s="8">
         <v>4.0</v>
       </c>
-      <c r="O14" s="15" t="s">
-        <v>21</v>
+      <c r="H14" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O14" t="n" s="10">
+        <v>0.8986111111111111</v>
+      </c>
+      <c r="P14" t="n" s="10">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="R14" t="n" s="10">
+        <v>0.9347222222222222</v>
+      </c>
+      <c r="S14" t="n" s="10">
+        <v>0.9534722222222223</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="n" s="7">
         <v>11.0</v>
       </c>
       <c r="B15" t="n">
@@ -691,17 +756,29 @@
         <v>14.0</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G15" t="n" s="8">
         <v>11.0</v>
       </c>
-      <c r="O15" s="16" t="s">
-        <v>21</v>
+      <c r="H15" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O15" t="n" s="10">
+        <v>0.9055555555555556</v>
+      </c>
+      <c r="P15" t="n" s="10">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R15" t="n" s="10">
+        <v>0.9368055555555556</v>
+      </c>
+      <c r="S15" t="n" s="10">
+        <v>0.9458333333333333</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="n" s="7">
         <v>12.0</v>
       </c>
       <c r="B16" t="n">
@@ -711,17 +788,29 @@
         <v>15.0</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G16" t="n" s="8">
         <v>6.0</v>
       </c>
-      <c r="O16" s="17" t="s">
-        <v>21</v>
+      <c r="H16" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O16" t="n" s="10">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="P16" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="R16" t="n" s="10">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="S16" t="n" s="10">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="n" s="7">
         <v>13.0</v>
       </c>
       <c r="B17" t="n">
@@ -731,17 +820,29 @@
         <v>16.0</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O17" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G17" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H17" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O17" t="n" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="P17" t="n" s="10">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="R17" t="n" s="10">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="S17" t="n" s="10">
+        <v>0.8541666666666666</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" t="n" s="7">
         <v>14.0</v>
       </c>
       <c r="B18" t="n">
@@ -751,17 +852,29 @@
         <v>17.0</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G18" t="n" s="8">
         <v>7.0</v>
       </c>
-      <c r="O18" s="19" t="s">
-        <v>21</v>
+      <c r="H18" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O18" t="n" s="10">
+        <v>0.90625</v>
+      </c>
+      <c r="P18" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="R18" t="n" s="10">
+        <v>0.9201388888888888</v>
+      </c>
+      <c r="S18" t="n" s="10">
+        <v>0.9409722222222222</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" t="n" s="7">
         <v>15.0</v>
       </c>
       <c r="B19" t="n">
@@ -771,17 +884,29 @@
         <v>18.0</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G19" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H19" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O19" t="n" s="10">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="P19" t="n" s="10">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="R19" t="n" s="10">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S19" t="n" s="10">
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="n" s="7">
         <v>16.0</v>
       </c>
       <c r="B20" t="n">
@@ -793,15 +918,27 @@
       <c r="F20" t="s">
         <v>20</v>
       </c>
-      <c r="G20" t="n" s="4">
+      <c r="G20" t="n" s="8">
         <v>10.0</v>
       </c>
-      <c r="O20" s="21" t="s">
-        <v>21</v>
+      <c r="H20" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O20" t="n" s="10">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="P20" t="n" s="10">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R20" t="n" s="10">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="S20" t="n" s="10">
+        <v>0.9486111111111111</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" t="n" s="7">
         <v>17.0</v>
       </c>
       <c r="B21" t="n">
@@ -811,17 +948,29 @@
         <v>21.0</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G21" t="n" s="8">
         <v>11.0</v>
       </c>
-      <c r="O21" s="22" t="s">
-        <v>21</v>
+      <c r="H21" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O21" t="n" s="10">
+        <v>0.89375</v>
+      </c>
+      <c r="P21" t="n" s="10">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R21" t="n" s="10">
+        <v>0.9347222222222222</v>
+      </c>
+      <c r="S21" t="n" s="10">
+        <v>0.9465277777777777</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" t="n" s="7">
         <v>18.0</v>
       </c>
       <c r="B22" t="n">
@@ -831,17 +980,29 @@
         <v>22.0</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O22" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G22" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H22" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O22" t="n" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="P22" t="n" s="10">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="R22" t="n" s="10">
+        <v>0.9159722222222222</v>
+      </c>
+      <c r="S22" t="n" s="10">
+        <v>0.94375</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" t="n" s="7">
         <v>19.0</v>
       </c>
       <c r="B23" t="n">
@@ -851,17 +1012,29 @@
         <v>23.0</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G23" t="n" s="8">
         <v>9.0</v>
       </c>
-      <c r="O23" s="24" t="s">
-        <v>21</v>
+      <c r="H23" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O23" t="n" s="10">
+        <v>0.9152777777777777</v>
+      </c>
+      <c r="P23" t="n" s="10">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="R23" t="n" s="10">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S23" t="n" s="10">
+        <v>0.9402777777777778</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" t="n" s="7">
         <v>20.0</v>
       </c>
       <c r="B24" t="n">
@@ -871,17 +1044,29 @@
         <v>24.0</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G24" t="n" s="8">
         <v>10.0</v>
       </c>
-      <c r="O24" s="25" t="s">
-        <v>21</v>
+      <c r="H24" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O24" t="n" s="10">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="P24" t="n" s="10">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="R24" t="n" s="10">
+        <v>0.9319444444444445</v>
+      </c>
+      <c r="S24" t="n" s="10">
+        <v>0.9430555555555555</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" t="n" s="7">
         <v>21.0</v>
       </c>
       <c r="B25" t="n">
@@ -893,15 +1078,27 @@
       <c r="F25" t="s">
         <v>20</v>
       </c>
-      <c r="G25" t="n" s="4">
+      <c r="G25" t="n" s="8">
         <v>8.0</v>
       </c>
-      <c r="O25" s="26" t="s">
-        <v>21</v>
+      <c r="H25" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O25" t="n" s="10">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="P25" t="n" s="10">
+        <v>0.9423611111111111</v>
+      </c>
+      <c r="R25" t="n" s="10">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="S25" t="n" s="10">
+        <v>0.9423611111111111</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" t="n" s="7">
         <v>22.0</v>
       </c>
       <c r="B26" t="n">
@@ -911,17 +1108,29 @@
         <v>26.0</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O26" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G26" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H26" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O26" t="n" s="10">
+        <v>0.8402777777777778</v>
+      </c>
+      <c r="P26" t="n" s="10">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R26" t="n" s="10">
+        <v>0.8159722222222222</v>
+      </c>
+      <c r="S26" t="n" s="10">
+        <v>0.8645833333333334</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" t="n" s="7">
         <v>23.0</v>
       </c>
       <c r="B27" t="n">
@@ -931,17 +1140,29 @@
         <v>27.0</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G27" t="n" s="8">
         <v>6.0</v>
       </c>
-      <c r="O27" s="28" t="s">
-        <v>21</v>
+      <c r="H27" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O27" t="n" s="10">
+        <v>0.9256944444444445</v>
+      </c>
+      <c r="P27" t="n" s="10">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="R27" t="n" s="10">
+        <v>0.9347222222222222</v>
+      </c>
+      <c r="S27" t="n" s="10">
+        <v>0.9451388888888889</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" t="n" s="7">
         <v>24.0</v>
       </c>
       <c r="B28" t="n">
@@ -951,17 +1172,29 @@
         <v>28.0</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G28" t="n" s="8">
         <v>4.0</v>
       </c>
-      <c r="O28" s="29" t="s">
-        <v>21</v>
+      <c r="H28" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O28" t="n" s="10">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="P28" t="n" s="10">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="R28" t="n" s="10">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="S28" t="n" s="10">
+        <v>0.9479166666666666</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" t="n" s="7">
         <v>25.0</v>
       </c>
       <c r="B29" t="n">
@@ -971,17 +1204,29 @@
         <v>29.0</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O29" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G29" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H29" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O29" t="n" s="10">
+        <v>0.8986111111111111</v>
+      </c>
+      <c r="P29" t="n" s="10">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R29" t="n" s="10">
+        <v>0.9104166666666667</v>
+      </c>
+      <c r="S29" t="n" s="10">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" t="n" s="7">
         <v>26.0</v>
       </c>
       <c r="B30" t="n">
@@ -991,17 +1236,29 @@
         <v>30.0</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O30" s="31" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G30" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H30" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O30" t="n" s="10">
+        <v>0.90625</v>
+      </c>
+      <c r="P30" t="n" s="10">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R30" t="n" s="10">
+        <v>0.9131944444444444</v>
+      </c>
+      <c r="S30" t="n" s="10">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" t="n" s="7">
         <v>27.0</v>
       </c>
       <c r="B31" t="n">
@@ -1011,17 +1268,29 @@
         <v>31.0</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G31" t="n" s="8">
         <v>5.0</v>
       </c>
-      <c r="O31" s="32" t="s">
-        <v>21</v>
+      <c r="H31" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O31" t="n" s="10">
+        <v>0.9138888888888889</v>
+      </c>
+      <c r="P31" t="n" s="10">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R31" t="n" s="10">
+        <v>0.91875</v>
+      </c>
+      <c r="S31" t="n" s="10">
+        <v>0.9465277777777777</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" t="n" s="7">
         <v>28.0</v>
       </c>
       <c r="B32" t="n">
@@ -1031,17 +1300,29 @@
         <v>32.0</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G32" t="n" s="8">
         <v>4.0</v>
       </c>
-      <c r="O32" s="33" t="s">
-        <v>21</v>
+      <c r="H32" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O32" t="n" s="10">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="P32" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="R32" t="n" s="10">
+        <v>0.90625</v>
+      </c>
+      <c r="S32" t="n" s="10">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" t="n" s="7">
         <v>29.0</v>
       </c>
       <c r="B33" t="n">
@@ -1051,17 +1332,29 @@
         <v>33.0</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G33" t="n" s="8">
         <v>9.0</v>
       </c>
-      <c r="O33" s="34" t="s">
-        <v>21</v>
+      <c r="H33" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O33" t="n" s="10">
+        <v>0.8951388888888889</v>
+      </c>
+      <c r="P33" t="n" s="10">
+        <v>0.9395833333333333</v>
+      </c>
+      <c r="R33" t="n" s="10">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="S33" t="n" s="10">
+        <v>0.9451388888888889</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" t="n" s="7">
         <v>30.0</v>
       </c>
       <c r="B34" t="n">
@@ -1071,17 +1364,29 @@
         <v>34.0</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G34" t="n" s="8">
         <v>9.0</v>
       </c>
-      <c r="O34" s="35" t="s">
-        <v>21</v>
+      <c r="H34" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O34" t="n" s="10">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="P34" t="n" s="10">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R34" t="n" s="10">
+        <v>0.9263888888888889</v>
+      </c>
+      <c r="S34" t="n" s="10">
+        <v>0.9465277777777777</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" t="n" s="7">
         <v>31.0</v>
       </c>
       <c r="B35" t="n">
@@ -1091,17 +1396,29 @@
         <v>35.0</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O35" s="36" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G35" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H35" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O35" t="n" s="10">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="P35" t="n" s="10">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="R35" t="n" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="S35" t="n" s="10">
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" t="n" s="7">
         <v>32.0</v>
       </c>
       <c r="B36" t="n">
@@ -1111,17 +1428,29 @@
         <v>36.0</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G36" t="n" s="8">
         <v>6.0</v>
       </c>
-      <c r="O36" s="37" t="s">
-        <v>21</v>
+      <c r="H36" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O36" t="n" s="10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P36" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="R36" t="n" s="10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="S36" t="n" s="10">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" t="n" s="7">
         <v>33.0</v>
       </c>
       <c r="B37" t="n">
@@ -1131,17 +1460,29 @@
         <v>37.0</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G37" t="n" s="8">
         <v>10.0</v>
       </c>
-      <c r="O37" s="38" t="s">
-        <v>21</v>
+      <c r="H37" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O37" t="n" s="10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P37" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="R37" t="n" s="10">
+        <v>0.9368055555555556</v>
+      </c>
+      <c r="S37" t="n" s="10">
+        <v>0.9472222222222222</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" t="n" s="7">
         <v>34.0</v>
       </c>
       <c r="B38" t="n">
@@ -1151,17 +1492,29 @@
         <v>38.0</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G38" t="n" s="8">
         <v>6.0</v>
       </c>
-      <c r="O38" s="39" t="s">
-        <v>21</v>
+      <c r="H38" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O38" t="n" s="10">
+        <v>0.925</v>
+      </c>
+      <c r="P38" t="n" s="10">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R38" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="S38" t="s" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" t="n" s="7">
         <v>35.0</v>
       </c>
       <c r="B39" t="n">
@@ -1173,15 +1526,27 @@
       <c r="F39" t="s">
         <v>20</v>
       </c>
-      <c r="G39" t="n" s="4">
+      <c r="G39" t="n" s="8">
         <v>10.0</v>
       </c>
-      <c r="O39" s="40" t="s">
-        <v>21</v>
+      <c r="H39" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O39" t="n" s="10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P39" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="R39" t="n" s="10">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="S39" t="n" s="10">
+        <v>0.9381944444444444</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" t="n" s="7">
         <v>36.0</v>
       </c>
       <c r="B40" t="n">
@@ -1191,17 +1556,29 @@
         <v>40.0</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O40" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G40" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H40" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O40" t="n" s="10">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="P40" t="n" s="10">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="R40" t="n" s="10">
+        <v>0.9180555555555555</v>
+      </c>
+      <c r="S40" t="n" s="10">
+        <v>0.9340277777777778</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" t="n" s="7">
         <v>37.0</v>
       </c>
       <c r="B41" t="n">
@@ -1211,17 +1588,29 @@
         <v>41.0</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O41" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G41" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H41" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O41" t="n" s="10">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="P41" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="R41" t="n" s="10">
+        <v>0.9222222222222223</v>
+      </c>
+      <c r="S41" t="n" s="10">
+        <v>0.95</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" t="n" s="7">
         <v>38.0</v>
       </c>
       <c r="B42" t="n">
@@ -1231,17 +1620,29 @@
         <v>42.0</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G42" t="n" s="8">
         <v>4.0</v>
       </c>
-      <c r="O42" s="43" t="s">
-        <v>21</v>
+      <c r="H42" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O42" t="n" s="10">
+        <v>0.9208333333333333</v>
+      </c>
+      <c r="P42" t="n" s="10">
+        <v>0.9465277777777777</v>
+      </c>
+      <c r="R42" t="n" s="10">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="S42" t="n" s="10">
+        <v>0.9472222222222222</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" t="n" s="7">
         <v>39.0</v>
       </c>
       <c r="B43" t="n">
@@ -1253,15 +1654,27 @@
       <c r="F43" t="s">
         <v>20</v>
       </c>
-      <c r="G43" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O43" s="44" t="s">
-        <v>21</v>
+      <c r="G43" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H43" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O43" t="n" s="10">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="P43" t="n" s="10">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="R43" t="n" s="10">
+        <v>0.90625</v>
+      </c>
+      <c r="S43" t="n" s="10">
+        <v>0.9479166666666666</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" t="n" s="7">
         <v>40.0</v>
       </c>
       <c r="B44" t="n">
@@ -1271,17 +1684,29 @@
         <v>45.0</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O44" s="45" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G44" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H44" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O44" t="n" s="10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P44" t="n" s="10">
+        <v>0.9319444444444445</v>
+      </c>
+      <c r="R44" t="n" s="10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="S44" t="n" s="10">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" t="n" s="7">
         <v>41.0</v>
       </c>
       <c r="B45" t="n">
@@ -1291,17 +1716,29 @@
         <v>45.099998474121094</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O45" s="46" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G45" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H45" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O45" t="n" s="10">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="P45" t="n" s="10">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R45" t="n" s="10">
+        <v>0.8819444444444444</v>
+      </c>
+      <c r="S45" t="n" s="10">
+        <v>0.9236111111111112</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" t="n" s="7">
         <v>42.0</v>
       </c>
       <c r="B46" t="n">
@@ -1311,17 +1748,29 @@
         <v>45.20000076293945</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O46" s="47" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G46" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H46" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O46" t="n" s="10">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="P46" t="n" s="10">
+        <v>0.9513888888888888</v>
+      </c>
+      <c r="R46" t="n" s="10">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S46" t="n" s="10">
+        <v>0.9513888888888888</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" t="n" s="7">
         <v>43.0</v>
       </c>
       <c r="B47" t="n">
@@ -1331,17 +1780,29 @@
         <v>46.0</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G47" t="n" s="8">
         <v>8.0</v>
       </c>
-      <c r="O47" s="48" t="s">
-        <v>21</v>
+      <c r="H47" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O47" t="n" s="10">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="P47" t="n" s="10">
+        <v>0.9472222222222222</v>
+      </c>
+      <c r="R47" t="n" s="10">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="S47" t="n" s="10">
+        <v>0.9465277777777777</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" t="n" s="7">
         <v>44.0</v>
       </c>
       <c r="B48" t="n">
@@ -1351,17 +1812,29 @@
         <v>47.0</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G48" t="n" s="8">
         <v>4.0</v>
       </c>
-      <c r="O48" s="49" t="s">
-        <v>21</v>
+      <c r="H48" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O48" t="n" s="10">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="P48" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="R48" t="n" s="10">
+        <v>0.9201388888888888</v>
+      </c>
+      <c r="S48" t="n" s="10">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" t="n" s="7">
         <v>45.0</v>
       </c>
       <c r="B49" t="n">
@@ -1371,17 +1844,29 @@
         <v>49.0</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G49" t="n" s="8">
         <v>6.0</v>
       </c>
-      <c r="O49" s="50" t="s">
-        <v>21</v>
+      <c r="H49" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O49" t="n" s="10">
+        <v>0.9263888888888889</v>
+      </c>
+      <c r="P49" t="n" s="10">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="R49" t="n" s="10">
+        <v>0.9201388888888888</v>
+      </c>
+      <c r="S49" t="n" s="10">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" t="n" s="7">
         <v>46.0</v>
       </c>
       <c r="B50" t="n">
@@ -1393,15 +1878,27 @@
       <c r="F50" t="s">
         <v>20</v>
       </c>
-      <c r="G50" t="n" s="4">
+      <c r="G50" t="n" s="8">
         <v>8.0</v>
       </c>
-      <c r="O50" s="51" t="s">
-        <v>21</v>
+      <c r="H50" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O50" t="n" s="10">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="P50" t="n" s="10">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R50" t="n" s="10">
+        <v>0.9229166666666667</v>
+      </c>
+      <c r="S50" t="n" s="10">
+        <v>0.94375</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" t="n" s="7">
         <v>47.0</v>
       </c>
       <c r="B51" t="n">
@@ -1411,17 +1908,29 @@
         <v>51.0</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G51" t="n" s="8">
         <v>13.0</v>
       </c>
-      <c r="O51" s="52" t="s">
-        <v>21</v>
+      <c r="H51" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O51" t="n" s="10">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="P51" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="R51" t="n" s="10">
+        <v>0.9326388888888889</v>
+      </c>
+      <c r="S51" t="n" s="10">
+        <v>0.9430555555555555</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" t="n" s="7">
         <v>48.0</v>
       </c>
       <c r="B52" t="n">
@@ -1431,17 +1940,29 @@
         <v>52.0</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O52" s="53" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G52" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H52" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O52" t="n" s="10">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="P52" t="n" s="10">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R52" t="n" s="10">
+        <v>0.9208333333333333</v>
+      </c>
+      <c r="S52" t="n" s="10">
+        <v>0.9486111111111111</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" t="n" s="7">
         <v>49.0</v>
       </c>
       <c r="B53" t="n">
@@ -1451,17 +1972,29 @@
         <v>53.0</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O53" s="54" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G53" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H53" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O53" t="n" s="10">
+        <v>0.9194444444444444</v>
+      </c>
+      <c r="P53" t="n" s="10">
+        <v>0.9513888888888888</v>
+      </c>
+      <c r="R53" t="n" s="10">
+        <v>0.9277777777777778</v>
+      </c>
+      <c r="S53" t="n" s="10">
+        <v>0.94375</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" t="n" s="7">
         <v>50.0</v>
       </c>
       <c r="B54" t="n">
@@ -1471,17 +2004,29 @@
         <v>54.0</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G54" t="n" s="8">
         <v>6.0</v>
       </c>
-      <c r="O54" s="55" t="s">
-        <v>21</v>
+      <c r="H54" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O54" t="n" s="10">
+        <v>0.9020833333333333</v>
+      </c>
+      <c r="P54" t="n" s="10">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="R54" t="n" s="10">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="S54" t="n" s="10">
+        <v>0.9493055555555555</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" t="n" s="7">
         <v>51.0</v>
       </c>
       <c r="B55" t="n">
@@ -1493,15 +2038,27 @@
       <c r="F55" t="s">
         <v>20</v>
       </c>
-      <c r="G55" t="n" s="4">
+      <c r="G55" t="n" s="8">
         <v>5.0</v>
       </c>
-      <c r="O55" s="56" t="s">
-        <v>21</v>
+      <c r="H55" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O55" t="n" s="10">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="P55" t="n" s="10">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="R55" t="n" s="10">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="S55" t="n" s="10">
+        <v>0.9493055555555555</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" t="n" s="7">
         <v>52.0</v>
       </c>
       <c r="B56" t="n">
@@ -1511,17 +2068,29 @@
         <v>57.0</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O56" s="57" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G56" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H56" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O56" t="n" s="10">
+        <v>0.9131944444444444</v>
+      </c>
+      <c r="P56" t="n" s="10">
+        <v>0.9548611111111112</v>
+      </c>
+      <c r="R56" t="n" s="10">
+        <v>0.8923611111111112</v>
+      </c>
+      <c r="S56" t="n" s="10">
+        <v>0.9340277777777778</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" t="n" s="7">
         <v>53.0</v>
       </c>
       <c r="B57" t="n">
@@ -1531,17 +2100,29 @@
         <v>58.0</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="n" s="4">
+        <v>24</v>
+      </c>
+      <c r="G57" t="n" s="8">
         <v>4.0</v>
       </c>
-      <c r="O57" s="58" t="s">
-        <v>21</v>
+      <c r="H57" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O57" t="n" s="10">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="P57" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="R57" t="n" s="10">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="S57" t="n" s="10">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" t="n" s="7">
         <v>54.0</v>
       </c>
       <c r="B58" t="n">
@@ -1551,17 +2132,29 @@
         <v>59.0</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G58" t="n" s="8">
         <v>7.0</v>
       </c>
-      <c r="O58" s="59" t="s">
-        <v>21</v>
+      <c r="H58" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O58" t="n" s="10">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="P58" t="n" s="10">
+        <v>0.94375</v>
+      </c>
+      <c r="R58" t="n" s="10">
+        <v>0.9201388888888888</v>
+      </c>
+      <c r="S58" t="n" s="10">
+        <v>0.9395833333333333</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" t="n" s="7">
         <v>55.0</v>
       </c>
       <c r="B59" t="n">
@@ -1571,17 +2164,29 @@
         <v>60.0</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G59" t="n" s="8">
         <v>6.0</v>
       </c>
-      <c r="O59" s="60" t="s">
-        <v>21</v>
+      <c r="H59" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O59" t="n" s="10">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="P59" t="n" s="10">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="R59" t="n" s="10">
+        <v>0.9208333333333333</v>
+      </c>
+      <c r="S59" t="n" s="10">
+        <v>0.9458333333333333</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" t="n" s="7">
         <v>56.0</v>
       </c>
       <c r="B60" t="n">
@@ -1591,17 +2196,29 @@
         <v>62.0</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G60" t="n" s="8">
         <v>7.0</v>
       </c>
-      <c r="O60" s="61" t="s">
-        <v>21</v>
+      <c r="H60" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O60" t="n" s="10">
+        <v>0.9055555555555556</v>
+      </c>
+      <c r="P60" t="n" s="10">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R60" t="n" s="10">
+        <v>0.9347222222222222</v>
+      </c>
+      <c r="S60" t="n" s="10">
+        <v>0.9465277777777777</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" t="n" s="7">
         <v>57.0</v>
       </c>
       <c r="B61" t="n">
@@ -1611,17 +2228,29 @@
         <v>64.0</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O61" s="62" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G61" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H61" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O61" t="n" s="10">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="P61" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="R61" t="n" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="S61" t="n" s="10">
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" t="n" s="7">
         <v>58.0</v>
       </c>
       <c r="B62" t="n">
@@ -1631,17 +2260,29 @@
         <v>65.0</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O62" s="63" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G62" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H62" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O62" t="n" s="10">
+        <v>0.9125</v>
+      </c>
+      <c r="P62" t="n" s="10">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="R62" t="n" s="10">
+        <v>0.9125</v>
+      </c>
+      <c r="S62" t="n" s="10">
+        <v>0.9291666666666667</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" t="n" s="7">
         <v>59.0</v>
       </c>
       <c r="B63" t="n">
@@ -1651,17 +2292,29 @@
         <v>67.0</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O63" s="64" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G63" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H63" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O63" t="n" s="10">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="P63" t="n" s="10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="R63" t="n" s="10">
+        <v>0.8701388888888889</v>
+      </c>
+      <c r="S63" t="n" s="10">
+        <v>0.9013888888888889</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" t="n" s="7">
         <v>60.0</v>
       </c>
       <c r="B64" t="n">
@@ -1671,17 +2324,29 @@
         <v>68.0</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O64" s="65" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G64" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H64" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O64" t="n" s="10">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="P64" t="n" s="10">
+        <v>0.9451388888888889</v>
+      </c>
+      <c r="R64" t="n" s="10">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="S64" t="n" s="10">
+        <v>0.9388888888888889</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" t="n" s="7">
         <v>61.0</v>
       </c>
       <c r="B65" t="n">
@@ -1691,17 +2356,29 @@
         <v>70.0</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G65" t="n" s="8">
         <v>7.0</v>
       </c>
-      <c r="O65" s="66" t="s">
-        <v>21</v>
+      <c r="H65" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O65" t="n" s="10">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="P65" t="n" s="10">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="R65" t="n" s="10">
+        <v>0.9263888888888889</v>
+      </c>
+      <c r="S65" t="n" s="10">
+        <v>0.9381944444444444</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" t="n" s="7">
         <v>62.0</v>
       </c>
       <c r="B66" t="n">
@@ -1713,15 +2390,27 @@
       <c r="F66" t="s">
         <v>20</v>
       </c>
-      <c r="G66" t="n" s="4">
+      <c r="G66" t="n" s="8">
         <v>9.0</v>
       </c>
-      <c r="O66" s="67" t="s">
-        <v>21</v>
+      <c r="H66" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O66" t="n" s="10">
+        <v>0.9138888888888889</v>
+      </c>
+      <c r="P66" t="n" s="10">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="R66" t="n" s="10">
+        <v>0.9201388888888888</v>
+      </c>
+      <c r="S66" t="n" s="10">
+        <v>0.9395833333333333</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" t="n" s="7">
         <v>63.0</v>
       </c>
       <c r="B67" t="n">
@@ -1733,15 +2422,27 @@
       <c r="F67" t="s">
         <v>20</v>
       </c>
-      <c r="G67" t="n" s="4">
+      <c r="G67" t="n" s="8">
         <v>6.0</v>
       </c>
-      <c r="O67" s="68" t="s">
-        <v>21</v>
+      <c r="H67" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O67" t="n" s="10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P67" t="n" s="10">
+        <v>0.9381944444444444</v>
+      </c>
+      <c r="R67" t="n" s="10">
+        <v>0.9277777777777778</v>
+      </c>
+      <c r="S67" t="n" s="10">
+        <v>0.9381944444444444</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" t="n" s="7">
         <v>64.0</v>
       </c>
       <c r="B68" t="n">
@@ -1751,17 +2452,29 @@
         <v>73.0</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O68" s="69" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G68" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H68" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O68" t="n" s="10">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="P68" t="n" s="10">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="R68" t="n" s="10">
+        <v>0.9284722222222223</v>
+      </c>
+      <c r="S68" t="n" s="10">
+        <v>0.9479166666666666</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" t="n" s="7">
         <v>65.0</v>
       </c>
       <c r="B69" t="n">
@@ -1771,17 +2484,29 @@
         <v>74.0</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O69" s="70" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G69" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H69" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O69" t="n" s="10">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="P69" t="n" s="10">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="R69" t="n" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="S69" t="n" s="10">
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" t="n" s="7">
         <v>66.0</v>
       </c>
       <c r="B70" t="n">
@@ -1791,17 +2516,29 @@
         <v>75.0</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O70" s="71" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G70" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H70" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O70" t="n" s="10">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="P70" t="n" s="10">
+        <v>0.9513888888888888</v>
+      </c>
+      <c r="R70" t="n" s="10">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S70" t="n" s="10">
+        <v>0.9513888888888888</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" t="n" s="7">
         <v>67.0</v>
       </c>
       <c r="B71" t="n">
@@ -1811,17 +2548,29 @@
         <v>77.0</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O71" s="72" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G71" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H71" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O71" t="n" s="10">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="P71" t="n" s="10">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R71" t="n" s="10">
+        <v>0.8923611111111112</v>
+      </c>
+      <c r="S71" t="n" s="10">
+        <v>0.9270833333333334</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" t="n" s="7">
         <v>68.0</v>
       </c>
       <c r="B72" t="n">
@@ -1831,17 +2580,29 @@
         <v>78.0</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G72" t="n" s="8">
         <v>4.0</v>
       </c>
-      <c r="O72" s="73" t="s">
-        <v>21</v>
+      <c r="H72" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O72" t="n" s="10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P72" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="R72" t="n" s="10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="S72" t="n" s="10">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" t="n" s="7">
         <v>69.0</v>
       </c>
       <c r="B73" t="n">
@@ -1851,17 +2612,29 @@
         <v>79.0</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O73" s="74" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="G73" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H73" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O73" t="n" s="10">
+        <v>0.9361111111111111</v>
+      </c>
+      <c r="P73" t="n" s="10">
+        <v>0.9472222222222222</v>
+      </c>
+      <c r="R73" t="n" s="10">
+        <v>0.9361111111111111</v>
+      </c>
+      <c r="S73" t="n" s="10">
+        <v>0.9472222222222222</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" t="n" s="7">
         <v>70.0</v>
       </c>
       <c r="B74" t="n">
@@ -1871,17 +2644,29 @@
         <v>80.0</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O74" s="75" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="G74" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H74" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O74" t="n" s="10">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="P74" t="n" s="10">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="R74" t="n" s="10">
+        <v>0.8631944444444445</v>
+      </c>
+      <c r="S74" t="n" s="10">
+        <v>0.9118055555555555</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" t="n" s="7">
         <v>71.0</v>
       </c>
       <c r="B75" t="n">
@@ -1891,17 +2676,29 @@
         <v>81.0</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O75" s="76" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G75" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H75" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O75" t="n" s="10">
+        <v>0.8118055555555556</v>
+      </c>
+      <c r="P75" t="n" s="10">
+        <v>0.8743055555555556</v>
+      </c>
+      <c r="R75" t="n" s="10">
+        <v>0.7805555555555556</v>
+      </c>
+      <c r="S75" t="n" s="10">
+        <v>0.8430555555555556</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" t="n" s="7">
         <v>72.0</v>
       </c>
       <c r="B76" t="n">
@@ -1911,17 +2708,29 @@
         <v>82.0</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O76" s="77" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G76" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H76" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O76" t="n" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="P76" t="n" s="10">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="R76" t="n" s="10">
+        <v>0.8020833333333334</v>
+      </c>
+      <c r="S76" t="n" s="10">
+        <v>0.84375</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" t="n" s="7">
         <v>73.0</v>
       </c>
       <c r="B77" t="n">
@@ -1931,17 +2740,29 @@
         <v>84.0</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G77" t="n" s="8">
         <v>4.0</v>
       </c>
-      <c r="O77" s="78" t="s">
-        <v>21</v>
+      <c r="H77" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O77" t="n" s="10">
+        <v>0.9041666666666667</v>
+      </c>
+      <c r="P77" t="n" s="10">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R77" t="n" s="10">
+        <v>0.9090277777777778</v>
+      </c>
+      <c r="S77" t="n" s="10">
+        <v>0.9465277777777777</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" t="n" s="7">
         <v>74.0</v>
       </c>
       <c r="B78" t="n">
@@ -1951,17 +2772,29 @@
         <v>86.0</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G78" t="n" s="8">
         <v>8.0</v>
       </c>
-      <c r="O78" s="79" t="s">
-        <v>21</v>
+      <c r="H78" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O78" t="n" s="10">
+        <v>0.8951388888888889</v>
+      </c>
+      <c r="P78" t="n" s="10">
+        <v>0.9395833333333333</v>
+      </c>
+      <c r="R78" t="n" s="10">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="S78" t="n" s="10">
+        <v>0.9395833333333333</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" t="n" s="7">
         <v>75.0</v>
       </c>
       <c r="B79" t="n">
@@ -1971,17 +2804,29 @@
         <v>87.0</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O79" s="80" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="G79" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H79" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O79" t="n" s="10">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="P79" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="R79" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="S79" t="s" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" t="n" s="7">
         <v>76.0</v>
       </c>
       <c r="B80" t="n">
@@ -1991,17 +2836,29 @@
         <v>88.0</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G80" t="n" s="8">
         <v>10.0</v>
       </c>
-      <c r="O80" s="81" t="s">
-        <v>21</v>
+      <c r="H80" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O80" t="n" s="10">
+        <v>0.9111111111111111</v>
+      </c>
+      <c r="P80" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="R80" t="n" s="10">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="S80" t="n" s="10">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" t="n" s="7">
         <v>77.0</v>
       </c>
       <c r="B81" t="n">
@@ -2011,17 +2868,29 @@
         <v>89.0</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O81" s="82" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G81" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H81" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O81" t="n" s="10">
+        <v>0.9090277777777778</v>
+      </c>
+      <c r="P81" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="R81" t="n" s="10">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="S81" t="n" s="10">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" t="n" s="7">
         <v>78.0</v>
       </c>
       <c r="B82" t="n">
@@ -2031,17 +2900,29 @@
         <v>90.0</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G82" t="n" s="8">
         <v>5.0</v>
       </c>
-      <c r="O82" s="83" t="s">
-        <v>21</v>
+      <c r="H82" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O82" t="n" s="10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P82" t="n" s="10">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="R82" t="n" s="10">
+        <v>0.9229166666666667</v>
+      </c>
+      <c r="S82" t="n" s="10">
+        <v>0.94375</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" t="n" s="7">
         <v>79.0</v>
       </c>
       <c r="B83" t="n">
@@ -2051,17 +2932,29 @@
         <v>91.0</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O83" s="84" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G83" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H83" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O83" t="n" s="10">
+        <v>0.9020833333333333</v>
+      </c>
+      <c r="P83" t="n" s="10">
+        <v>0.9388888888888889</v>
+      </c>
+      <c r="R83" t="n" s="10">
+        <v>0.9111111111111111</v>
+      </c>
+      <c r="S83" t="n" s="10">
+        <v>0.9298611111111111</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" t="n" s="7">
         <v>80.0</v>
       </c>
       <c r="B84" t="n">
@@ -2071,17 +2964,29 @@
         <v>92.0</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84" t="n" s="4">
+        <v>24</v>
+      </c>
+      <c r="G84" t="n" s="8">
         <v>5.0</v>
       </c>
-      <c r="O84" s="85" t="s">
-        <v>21</v>
+      <c r="H84" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O84" t="n" s="10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P84" t="n" s="10">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R84" t="n" s="10">
+        <v>0.9229166666666667</v>
+      </c>
+      <c r="S84" t="n" s="10">
+        <v>0.9479166666666666</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" t="n" s="7">
         <v>81.0</v>
       </c>
       <c r="B85" t="n">
@@ -2091,17 +2996,29 @@
         <v>94.0</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G85" t="n" s="8">
         <v>4.0</v>
       </c>
-      <c r="O85" s="86" t="s">
-        <v>21</v>
+      <c r="H85" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O85" t="n" s="10">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="P85" t="n" s="10">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R85" t="n" s="10">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="S85" t="n" s="10">
+        <v>0.9409722222222222</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" t="n" s="7">
         <v>82.0</v>
       </c>
       <c r="B86" t="n">
@@ -2111,17 +3028,29 @@
         <v>95.0</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G86" t="n" s="8">
         <v>7.0</v>
       </c>
-      <c r="O86" s="87" t="s">
-        <v>21</v>
+      <c r="H86" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O86" t="n" s="10">
+        <v>0.8965277777777778</v>
+      </c>
+      <c r="P86" t="n" s="10">
+        <v>0.9388888888888889</v>
+      </c>
+      <c r="R86" t="n" s="10">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="S86" t="n" s="10">
+        <v>0.9458333333333333</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" t="n" s="7">
         <v>83.0</v>
       </c>
       <c r="B87" t="n">
@@ -2131,17 +3060,29 @@
         <v>99.0</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G87" t="n" s="8">
         <v>4.0</v>
       </c>
-      <c r="O87" s="88" t="s">
-        <v>21</v>
+      <c r="H87" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O87" t="n" s="10">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="P87" t="n" s="10">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R87" t="n" s="10">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="S87" t="n" s="10">
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" t="n" s="7">
         <v>84.0</v>
       </c>
       <c r="B88" t="n">
@@ -2151,17 +3092,29 @@
         <v>101.0</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G88" t="n" s="4">
+        <v>24</v>
+      </c>
+      <c r="G88" t="n" s="8">
         <v>5.0</v>
       </c>
-      <c r="O88" s="89" t="s">
-        <v>21</v>
+      <c r="H88" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O88" t="n" s="10">
+        <v>0.9159722222222222</v>
+      </c>
+      <c r="P88" t="n" s="10">
+        <v>0.9534722222222223</v>
+      </c>
+      <c r="R88" t="n" s="10">
+        <v>0.9069444444444444</v>
+      </c>
+      <c r="S88" t="n" s="10">
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" t="n" s="7">
         <v>85.0</v>
       </c>
       <c r="B89" t="n">
@@ -2171,17 +3124,29 @@
         <v>102.0</v>
       </c>
       <c r="F89" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" t="n" s="4">
+        <v>24</v>
+      </c>
+      <c r="G89" t="n" s="8">
         <v>5.0</v>
       </c>
-      <c r="O89" s="90" t="s">
-        <v>21</v>
+      <c r="H89" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O89" t="n" s="10">
+        <v>0.9055555555555556</v>
+      </c>
+      <c r="P89" t="n" s="10">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R89" t="n" s="10">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="S89" t="n" s="10">
+        <v>0.9506944444444444</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" t="n" s="7">
         <v>86.0</v>
       </c>
       <c r="B90" t="n">
@@ -2191,17 +3156,29 @@
         <v>103.0</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O90" s="91" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G90" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H90" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O90" t="n" s="10">
+        <v>0.9020833333333333</v>
+      </c>
+      <c r="P90" t="n" s="10">
+        <v>0.9298611111111111</v>
+      </c>
+      <c r="R90" t="n" s="10">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="S90" t="n" s="10">
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" t="n" s="7">
         <v>87.0</v>
       </c>
       <c r="B91" t="n">
@@ -2211,17 +3188,29 @@
         <v>104.0</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O91" s="92" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G91" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H91" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O91" t="n" s="10">
+        <v>0.8993055555555556</v>
+      </c>
+      <c r="P91" t="n" s="10">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="R91" t="n" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="S91" t="n" s="10">
+        <v>0.8993055555555556</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" t="n" s="7">
         <v>88.0</v>
       </c>
       <c r="B92" t="n">
@@ -2231,17 +3220,29 @@
         <v>106.0</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G92" t="n" s="8">
         <v>4.0</v>
       </c>
-      <c r="O92" s="93" t="s">
-        <v>21</v>
+      <c r="H92" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O92" t="n" s="10">
+        <v>0.8756944444444444</v>
+      </c>
+      <c r="P92" t="n" s="10">
+        <v>0.9104166666666667</v>
+      </c>
+      <c r="R92" t="n" s="10">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="S92" t="n" s="10">
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" t="n" s="7">
         <v>89.0</v>
       </c>
       <c r="B93" t="n">
@@ -2251,17 +3252,29 @@
         <v>107.0</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O93" s="94" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G93" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H93" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O93" t="n" s="10">
+        <v>0.8680555555555556</v>
+      </c>
+      <c r="P93" t="n" s="10">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R93" t="n" s="10">
+        <v>0.8298611111111112</v>
+      </c>
+      <c r="S93" t="n" s="10">
+        <v>0.90625</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" t="n" s="7">
         <v>90.0</v>
       </c>
       <c r="B94" t="n">
@@ -2271,17 +3284,29 @@
         <v>108.0</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G94" t="n" s="8">
         <v>4.0</v>
       </c>
-      <c r="O94" s="95" t="s">
-        <v>21</v>
+      <c r="H94" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O94" t="n" s="10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P94" t="n" s="10">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="R94" t="n" s="10">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="S94" t="n" s="10">
+        <v>0.9520833333333333</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" t="n" s="7">
         <v>91.0</v>
       </c>
       <c r="B95" t="n">
@@ -2291,17 +3316,29 @@
         <v>109.0</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
-      </c>
-      <c r="G95" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O95" s="96" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G95" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H95" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O95" t="n" s="10">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="P95" t="n" s="10">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R95" t="n" s="10">
+        <v>0.8694444444444445</v>
+      </c>
+      <c r="S95" t="n" s="10">
+        <v>0.9180555555555555</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" t="n" s="7">
         <v>92.0</v>
       </c>
       <c r="B96" t="n">
@@ -2311,17 +3348,29 @@
         <v>110.0</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O96" s="97" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G96" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H96" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O96" t="n" s="10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P96" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="R96" t="n" s="10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="S96" t="n" s="10">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" t="n" s="7">
         <v>93.0</v>
       </c>
       <c r="B97" t="n">
@@ -2331,17 +3380,29 @@
         <v>112.0</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O97" s="98" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G97" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H97" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O97" t="n" s="10">
+        <v>0.89375</v>
+      </c>
+      <c r="P97" t="n" s="10">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="R97" t="n" s="10">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="S97" t="n" s="10">
+        <v>0.8819444444444444</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" t="n" s="7">
         <v>94.0</v>
       </c>
       <c r="B98" t="n">
@@ -2351,17 +3412,29 @@
         <v>121.0</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G98" t="n" s="8">
         <v>5.0</v>
       </c>
-      <c r="O98" s="99" t="s">
-        <v>21</v>
+      <c r="H98" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O98" t="n" s="10">
+        <v>0.925</v>
+      </c>
+      <c r="P98" t="n" s="10">
+        <v>0.9472222222222222</v>
+      </c>
+      <c r="R98" t="n" s="10">
+        <v>0.93125</v>
+      </c>
+      <c r="S98" t="n" s="10">
+        <v>0.9423611111111111</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" t="n" s="7">
         <v>95.0</v>
       </c>
       <c r="B99" t="n">
@@ -2371,17 +3444,29 @@
         <v>122.0</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O99" s="100" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G99" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H99" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O99" t="n" s="10">
+        <v>0.8993055555555556</v>
+      </c>
+      <c r="P99" t="n" s="10">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="R99" t="n" s="10">
+        <v>0.8986111111111111</v>
+      </c>
+      <c r="S99" t="n" s="10">
+        <v>0.9229166666666667</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" t="n" s="7">
         <v>96.0</v>
       </c>
       <c r="B100" t="n">
@@ -2391,17 +3476,29 @@
         <v>124.0</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O100" s="101" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G100" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H100" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O100" t="n" s="10">
+        <v>0.9131944444444444</v>
+      </c>
+      <c r="P100" t="n" s="10">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="R100" t="n" s="10">
+        <v>0.9368055555555556</v>
+      </c>
+      <c r="S100" t="n" s="10">
+        <v>0.9527777777777777</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" t="n" s="7">
         <v>97.0</v>
       </c>
       <c r="B101" t="n">
@@ -2411,17 +3508,29 @@
         <v>150.0</v>
       </c>
       <c r="F101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G101" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G101" t="n" s="8">
         <v>10.0</v>
       </c>
-      <c r="O101" s="102" t="s">
-        <v>21</v>
+      <c r="H101" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O101" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="P101" t="n" s="10">
+        <v>0.9451388888888889</v>
+      </c>
+      <c r="R101" t="n" s="10">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="S101" t="n" s="10">
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" t="n" s="7">
         <v>98.0</v>
       </c>
       <c r="B102" t="n">
@@ -2431,17 +3540,29 @@
         <v>301.0</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G102" t="n" s="8">
         <v>16.0</v>
       </c>
-      <c r="O102" s="103" t="s">
-        <v>21</v>
+      <c r="H102" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O102" t="n" s="10">
+        <v>0.9354166666666667</v>
+      </c>
+      <c r="P102" t="n" s="10">
+        <v>0.9451388888888889</v>
+      </c>
+      <c r="R102" t="n" s="10">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S102" t="n" s="10">
+        <v>0.9409722222222222</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
+      <c r="A103" t="n" s="7">
         <v>99.0</v>
       </c>
       <c r="B103" t="n">
@@ -2451,17 +3572,29 @@
         <v>321.0</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G103" t="n" s="8">
         <v>4.0</v>
       </c>
-      <c r="O103" s="104" t="s">
-        <v>21</v>
+      <c r="H103" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O103" t="n" s="10">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="P103" t="n" s="10">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R103" t="n" s="10">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="S103" t="n" s="10">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" t="n" s="7">
         <v>100.0</v>
       </c>
       <c r="B104" t="n">
@@ -2471,17 +3604,29 @@
         <v>332.0</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G104" t="n" s="8">
         <v>8.0</v>
       </c>
-      <c r="O104" s="105" t="s">
-        <v>21</v>
+      <c r="H104" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O104" t="n" s="10">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="P104" t="n" s="10">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R104" t="n" s="10">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S104" t="n" s="10">
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" t="n" s="7">
         <v>101.0</v>
       </c>
       <c r="B105" t="n">
@@ -2493,15 +3638,27 @@
       <c r="F105" t="s">
         <v>20</v>
       </c>
-      <c r="G105" t="n" s="4">
+      <c r="G105" t="n" s="8">
         <v>8.0</v>
       </c>
-      <c r="O105" s="106" t="s">
-        <v>21</v>
+      <c r="H105" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O105" t="n" s="10">
+        <v>0.9256944444444445</v>
+      </c>
+      <c r="P105" t="n" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="R105" t="n" s="10">
+        <v>0.9256944444444445</v>
+      </c>
+      <c r="S105" t="n" s="10">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" t="n" s="7">
         <v>102.0</v>
       </c>
       <c r="B106" t="n">
@@ -2511,17 +3668,29 @@
         <v>339.0</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G106" t="n" s="8">
         <v>4.0</v>
       </c>
-      <c r="O106" s="107" t="s">
-        <v>21</v>
+      <c r="H106" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O106" t="n" s="10">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="P106" t="n" s="10">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="R106" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="S106" t="s" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" t="n" s="7">
         <v>103.0</v>
       </c>
       <c r="B107" t="n">
@@ -2531,17 +3700,29 @@
         <v>343.0</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G107" t="n" s="8">
         <v>9.0</v>
       </c>
-      <c r="O107" s="108" t="s">
-        <v>21</v>
+      <c r="H107" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O107" t="n" s="10">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="P107" t="n" s="10">
+        <v>0.9395833333333333</v>
+      </c>
+      <c r="R107" t="n" s="10">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="S107" t="n" s="10">
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" t="n" s="7">
         <v>104.0</v>
       </c>
       <c r="B108" t="n">
@@ -2551,17 +3732,29 @@
         <v>344.0</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G108" t="n" s="8">
         <v>9.0</v>
       </c>
-      <c r="O108" s="109" t="s">
-        <v>21</v>
+      <c r="H108" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O108" t="n" s="10">
+        <v>0.9347222222222222</v>
+      </c>
+      <c r="P108" t="n" s="10">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R108" t="n" s="10">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S108" t="n" s="10">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" t="n" s="7">
         <v>105.0</v>
       </c>
       <c r="B109" t="n">
@@ -2571,17 +3764,29 @@
         <v>345.0</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G109" t="n" s="8">
         <v>15.0</v>
       </c>
-      <c r="O109" s="110" t="s">
-        <v>21</v>
+      <c r="H109" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O109" t="n" s="10">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="P109" t="n" s="10">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R109" t="n" s="10">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S109" t="n" s="10">
+        <v>0.9409722222222222</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" t="n" s="7">
         <v>106.0</v>
       </c>
       <c r="B110" t="n">
@@ -2591,17 +3796,29 @@
         <v>346.0</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G110" t="n" s="8">
         <v>10.0</v>
       </c>
-      <c r="O110" s="111" t="s">
-        <v>21</v>
+      <c r="H110" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O110" t="n" s="10">
+        <v>0.9326388888888889</v>
+      </c>
+      <c r="P110" t="n" s="10">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R110" t="n" s="10">
+        <v>0.9326388888888889</v>
+      </c>
+      <c r="S110" t="n" s="10">
+        <v>0.9416666666666667</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" t="n" s="7">
         <v>107.0</v>
       </c>
       <c r="B111" t="n">
@@ -2611,17 +3828,29 @@
         <v>363.0</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G111" t="n" s="8">
         <v>8.0</v>
       </c>
-      <c r="O111" s="112" t="s">
-        <v>21</v>
+      <c r="H111" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O111" t="n" s="10">
+        <v>0.9263888888888889</v>
+      </c>
+      <c r="P111" t="n" s="10">
+        <v>0.9388888888888889</v>
+      </c>
+      <c r="R111" t="n" s="10">
+        <v>0.9263888888888889</v>
+      </c>
+      <c r="S111" t="n" s="10">
+        <v>0.9388888888888889</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" t="n" s="7">
         <v>108.0</v>
       </c>
       <c r="B112" t="n">
@@ -2631,17 +3860,29 @@
         <v>383.0</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G112" t="n" s="8">
         <v>8.0</v>
       </c>
-      <c r="O112" s="113" t="s">
-        <v>21</v>
+      <c r="H112" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O112" t="n" s="10">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="P112" t="n" s="10">
+        <v>0.9423611111111111</v>
+      </c>
+      <c r="R112" t="n" s="10">
+        <v>0.9326388888888889</v>
+      </c>
+      <c r="S112" t="n" s="10">
+        <v>0.9416666666666667</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
+      <c r="A113" t="n" s="7">
         <v>109.0</v>
       </c>
       <c r="B113" t="n">
@@ -2651,17 +3892,29 @@
         <v>385.0</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O113" s="114" t="s">
         <v>21</v>
       </c>
+      <c r="G113" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H113" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O113" t="n" s="10">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="P113" t="n" s="10">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="R113" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="S113" t="s" s="10">
+        <v>25</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" t="n" s="7">
         <v>110.0</v>
       </c>
       <c r="B114" t="n">
@@ -2671,13 +3924,25 @@
         <v>387.0</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G114" t="n" s="8">
         <v>4.0</v>
       </c>
-      <c r="O114" s="115" t="s">
-        <v>21</v>
+      <c r="H114" t="n" s="9">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O114" t="n" s="10">
+        <v>0.9298611111111111</v>
+      </c>
+      <c r="P114" t="n" s="10">
+        <v>0.9402777777777778</v>
+      </c>
+      <c r="R114" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="S114" t="s" s="10">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/ds.xlsx
+++ b/downloads/ds.xlsx
@@ -96,11 +96,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode=""/>
-    <numFmt numFmtId="165" formatCode="Numeric"/>
-    <numFmt numFmtId="166" formatCode="[mm]:ss"/>
-    <numFmt numFmtId="167" formatCode="[hh]:mm"/>
+    <numFmt numFmtId="165" formatCode="[mm]:ss"/>
+    <numFmt numFmtId="166" formatCode="[hh]:mm"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -158,7 +157,7 @@
       <sz val="11.0"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +202,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEECE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEECE1"/>
       </patternFill>
     </fill>
   </fills>
@@ -262,13 +271,13 @@
     <xf numFmtId="164" fontId="8" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="1" fontId="9" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="165" fontId="10" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="166" fontId="11" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>

--- a/downloads/ds.xlsx
+++ b/downloads/ds.xlsx
@@ -101,7 +101,7 @@
     <numFmt numFmtId="165" formatCode="[mm]:ss"/>
     <numFmt numFmtId="166" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -143,6 +143,10 @@
       <name val="Sylfaen"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Sylfaen"/>
@@ -245,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment textRotation="90" wrapText="true" horizontal="center" vertical="center"/>
@@ -274,10 +278,13 @@
     <xf numFmtId="1" fontId="9" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="165" fontId="11" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,19 +505,25 @@
       <c r="G5" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H5" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O5" t="n" s="11">
+      <c r="H5" t="n" s="11">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="I5" t="n" s="12">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="J5" t="n" s="10">
+        <v>71.0</v>
+      </c>
+      <c r="O5" t="n" s="12">
         <v>0.925</v>
       </c>
-      <c r="P5" t="n" s="11">
+      <c r="P5" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="R5" t="n" s="11">
+      <c r="R5" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="S5" t="n" s="11">
+      <c r="S5" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
     </row>
@@ -530,19 +543,25 @@
       <c r="G6" t="n" s="9">
         <v>11.0</v>
       </c>
-      <c r="H6" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O6" t="n" s="11">
+      <c r="H6" t="n" s="11">
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="I6" t="n" s="12">
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="J6" t="n" s="10">
+        <v>92.0</v>
+      </c>
+      <c r="O6" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="P6" t="n" s="11">
+      <c r="P6" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R6" t="n" s="11">
+      <c r="R6" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S6" t="n" s="11">
+      <c r="S6" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -562,19 +581,25 @@
       <c r="G7" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H7" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O7" t="n" s="11">
+      <c r="H7" t="n" s="11">
+        <v>0.011111111111111112</v>
+      </c>
+      <c r="I7" t="n" s="12">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="J7" t="n" s="10">
+        <v>55.0</v>
+      </c>
+      <c r="O7" t="n" s="12">
         <v>0.9180555555555555</v>
       </c>
-      <c r="P7" t="n" s="11">
+      <c r="P7" t="n" s="12">
         <v>0.9402777777777778</v>
       </c>
-      <c r="R7" t="n" s="11">
+      <c r="R7" t="n" s="12">
         <v>0.9180555555555555</v>
       </c>
-      <c r="S7" t="n" s="11">
+      <c r="S7" t="n" s="12">
         <v>0.9402777777777778</v>
       </c>
     </row>
@@ -594,19 +619,25 @@
       <c r="G8" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H8" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O8" t="n" s="11">
+      <c r="H8" t="n" s="11">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="I8" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J8" t="n" s="10">
+        <v>22.0</v>
+      </c>
+      <c r="O8" t="n" s="12">
         <v>0.9145833333333333</v>
       </c>
-      <c r="P8" t="n" s="11">
+      <c r="P8" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="R8" t="n" s="11">
+      <c r="R8" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="S8" t="n" s="11">
+      <c r="S8" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
     </row>
@@ -626,19 +657,25 @@
       <c r="G9" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H9" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O9" t="n" s="11">
+      <c r="H9" t="n" s="11">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="I9" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J9" t="n" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="O9" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="P9" t="n" s="11">
+      <c r="P9" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="R9" t="n" s="11">
+      <c r="R9" t="n" s="12">
         <v>0.8333333333333334</v>
       </c>
-      <c r="S9" t="n" s="11">
+      <c r="S9" t="n" s="12">
         <v>0.875</v>
       </c>
     </row>
@@ -658,19 +695,25 @@
       <c r="G10" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H10" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O10" t="n" s="11">
+      <c r="H10" t="n" s="11">
+        <v>0.013888888888888888</v>
+      </c>
+      <c r="I10" t="n" s="12">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="J10" t="n" s="10">
+        <v>44.0</v>
+      </c>
+      <c r="O10" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P10" t="n" s="11">
+      <c r="P10" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R10" t="n" s="11">
+      <c r="R10" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="S10" t="n" s="11">
+      <c r="S10" t="n" s="12">
         <v>0.9493055555555555</v>
       </c>
     </row>
@@ -690,19 +733,25 @@
       <c r="G11" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H11" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O11" t="n" s="11">
+      <c r="H11" t="n" s="11">
+        <v>0.013888888888888888</v>
+      </c>
+      <c r="I11" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J11" t="n" s="10">
+        <v>44.0</v>
+      </c>
+      <c r="O11" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="P11" t="n" s="11">
+      <c r="P11" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
-      <c r="R11" t="n" s="11">
+      <c r="R11" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="S11" t="n" s="11">
+      <c r="S11" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
     </row>
@@ -722,19 +771,25 @@
       <c r="G12" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H12" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O12" t="n" s="11">
+      <c r="H12" t="n" s="11">
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I12" t="n" s="12">
+        <v>0.052083333333333336</v>
+      </c>
+      <c r="J12" t="n" s="10">
+        <v>62.0</v>
+      </c>
+      <c r="O12" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="P12" t="n" s="11">
+      <c r="P12" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="R12" t="n" s="11">
+      <c r="R12" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="S12" t="n" s="11">
+      <c r="S12" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
     </row>
@@ -754,19 +809,25 @@
       <c r="G13" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H13" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O13" t="n" s="11">
+      <c r="H13" t="n" s="11">
+        <v>0.027083333333333334</v>
+      </c>
+      <c r="I13" t="n" s="12">
+        <v>0.10694444444444444</v>
+      </c>
+      <c r="J13" t="n" s="10">
+        <v>23.0</v>
+      </c>
+      <c r="O13" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
-      <c r="P13" t="n" s="11">
+      <c r="P13" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
-      <c r="R13" t="n" s="11">
+      <c r="R13" t="n" s="12">
         <v>0.8840277777777777</v>
       </c>
-      <c r="S13" t="n" s="11">
+      <c r="S13" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -786,19 +847,25 @@
       <c r="G14" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H14" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O14" t="n" s="11">
+      <c r="H14" t="n" s="11">
+        <v>0.0125</v>
+      </c>
+      <c r="I14" t="n" s="12">
+        <v>0.0875</v>
+      </c>
+      <c r="J14" t="n" s="10">
+        <v>49.0</v>
+      </c>
+      <c r="O14" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="P14" t="n" s="11">
+      <c r="P14" t="n" s="12">
         <v>0.9486111111111111</v>
       </c>
-      <c r="R14" t="n" s="11">
+      <c r="R14" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="S14" t="n" s="11">
+      <c r="S14" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
     </row>
@@ -818,19 +885,25 @@
       <c r="G15" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H15" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O15" t="n" s="11">
+      <c r="H15" t="n" s="11">
+        <v>0.01875</v>
+      </c>
+      <c r="I15" t="n" s="12">
+        <v>0.07361111111111111</v>
+      </c>
+      <c r="J15" t="n" s="10">
+        <v>34.0</v>
+      </c>
+      <c r="O15" t="n" s="12">
         <v>0.8986111111111111</v>
       </c>
-      <c r="P15" t="n" s="11">
+      <c r="P15" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="R15" t="n" s="11">
+      <c r="R15" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
-      <c r="S15" t="n" s="11">
+      <c r="S15" t="n" s="12">
         <v>0.9534722222222223</v>
       </c>
     </row>
@@ -850,19 +923,25 @@
       <c r="G16" t="n" s="9">
         <v>11.0</v>
       </c>
-      <c r="H16" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O16" t="n" s="11">
+      <c r="H16" t="n" s="11">
+        <v>0.009027777777777777</v>
+      </c>
+      <c r="I16" t="n" s="12">
+        <v>0.09930555555555555</v>
+      </c>
+      <c r="J16" t="n" s="10">
+        <v>67.0</v>
+      </c>
+      <c r="O16" t="n" s="12">
         <v>0.9055555555555556</v>
       </c>
-      <c r="P16" t="n" s="11">
+      <c r="P16" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R16" t="n" s="11">
+      <c r="R16" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
-      <c r="S16" t="n" s="11">
+      <c r="S16" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
     </row>
@@ -882,19 +961,25 @@
       <c r="G17" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H17" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O17" t="n" s="11">
+      <c r="H17" t="n" s="11">
+        <v>0.013888888888888888</v>
+      </c>
+      <c r="I17" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J17" t="n" s="10">
+        <v>43.0</v>
+      </c>
+      <c r="O17" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
-      <c r="P17" t="n" s="11">
+      <c r="P17" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R17" t="n" s="11">
+      <c r="R17" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="S17" t="n" s="11">
+      <c r="S17" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -914,19 +999,25 @@
       <c r="G18" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H18" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O18" t="n" s="11">
+      <c r="H18" t="n" s="11">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="I18" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J18" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="O18" t="n" s="12">
         <v>0.8125</v>
       </c>
-      <c r="P18" t="n" s="11">
+      <c r="P18" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="R18" t="n" s="11">
+      <c r="R18" t="n" s="12">
         <v>0.7708333333333334</v>
       </c>
-      <c r="S18" t="n" s="11">
+      <c r="S18" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
     </row>
@@ -946,19 +1037,25 @@
       <c r="G19" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H19" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O19" t="n" s="11">
+      <c r="H19" t="n" s="11">
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I19" t="n" s="12">
+        <v>0.07291666666666667</v>
+      </c>
+      <c r="J19" t="n" s="10">
+        <v>58.0</v>
+      </c>
+      <c r="O19" t="n" s="12">
         <v>0.90625</v>
       </c>
-      <c r="P19" t="n" s="11">
+      <c r="P19" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R19" t="n" s="11">
+      <c r="R19" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
-      <c r="S19" t="n" s="11">
+      <c r="S19" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
     </row>
@@ -978,19 +1075,25 @@
       <c r="G20" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H20" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O20" t="n" s="11">
+      <c r="H20" t="n" s="11">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="I20" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J20" t="n" s="10">
+        <v>23.0</v>
+      </c>
+      <c r="O20" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="P20" t="n" s="11">
+      <c r="P20" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="R20" t="n" s="11">
+      <c r="R20" t="n" s="12">
         <v>0.8888888888888888</v>
       </c>
-      <c r="S20" t="n" s="11">
+      <c r="S20" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -1010,19 +1113,25 @@
       <c r="G21" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H21" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O21" t="n" s="11">
+      <c r="H21" t="n" s="11">
+        <v>0.007638888888888889</v>
+      </c>
+      <c r="I21" t="n" s="12">
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="J21" t="n" s="10">
+        <v>82.0</v>
+      </c>
+      <c r="O21" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
-      <c r="P21" t="n" s="11">
+      <c r="P21" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R21" t="n" s="11">
+      <c r="R21" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
-      <c r="S21" t="n" s="11">
+      <c r="S21" t="n" s="12">
         <v>0.9486111111111111</v>
       </c>
     </row>
@@ -1042,19 +1151,25 @@
       <c r="G22" t="n" s="9">
         <v>11.0</v>
       </c>
-      <c r="H22" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O22" t="n" s="11">
+      <c r="H22" t="n" s="11">
+        <v>0.011805555555555555</v>
+      </c>
+      <c r="I22" t="n" s="12">
+        <v>0.12986111111111112</v>
+      </c>
+      <c r="J22" t="n" s="10">
+        <v>51.0</v>
+      </c>
+      <c r="O22" t="n" s="12">
         <v>0.89375</v>
       </c>
-      <c r="P22" t="n" s="11">
+      <c r="P22" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R22" t="n" s="11">
+      <c r="R22" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
-      <c r="S22" t="n" s="11">
+      <c r="S22" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
     </row>
@@ -1074,19 +1189,25 @@
       <c r="G23" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H23" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O23" t="n" s="11">
+      <c r="H23" t="n" s="11">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="I23" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J23" t="n" s="10">
+        <v>22.0</v>
+      </c>
+      <c r="O23" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="P23" t="n" s="11">
+      <c r="P23" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="R23" t="n" s="11">
+      <c r="R23" t="n" s="12">
         <v>0.9159722222222222</v>
       </c>
-      <c r="S23" t="n" s="11">
+      <c r="S23" t="n" s="12">
         <v>0.94375</v>
       </c>
     </row>
@@ -1106,19 +1227,25 @@
       <c r="G24" t="n" s="9">
         <v>9.0</v>
       </c>
-      <c r="H24" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O24" t="n" s="11">
+      <c r="H24" t="n" s="11">
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="I24" t="n" s="12">
+        <v>0.09027777777777778</v>
+      </c>
+      <c r="J24" t="n" s="10">
+        <v>59.0</v>
+      </c>
+      <c r="O24" t="n" s="12">
         <v>0.9152777777777777</v>
       </c>
-      <c r="P24" t="n" s="11">
+      <c r="P24" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
-      <c r="R24" t="n" s="11">
+      <c r="R24" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S24" t="n" s="11">
+      <c r="S24" t="n" s="12">
         <v>0.9402777777777778</v>
       </c>
     </row>
@@ -1138,19 +1265,25 @@
       <c r="G25" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H25" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O25" t="n" s="11">
+      <c r="H25" t="n" s="11">
+        <v>0.011111111111111112</v>
+      </c>
+      <c r="I25" t="n" s="12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J25" t="n" s="10">
+        <v>54.0</v>
+      </c>
+      <c r="O25" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
-      <c r="P25" t="n" s="11">
+      <c r="P25" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="R25" t="n" s="11">
+      <c r="R25" t="n" s="12">
         <v>0.9319444444444445</v>
       </c>
-      <c r="S25" t="n" s="11">
+      <c r="S25" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
     </row>
@@ -1170,19 +1303,25 @@
       <c r="G26" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H26" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O26" t="n" s="11">
+      <c r="H26" t="n" s="11">
+        <v>0.009027777777777777</v>
+      </c>
+      <c r="I26" t="n" s="12">
+        <v>0.07222222222222222</v>
+      </c>
+      <c r="J26" t="n" s="10">
+        <v>69.0</v>
+      </c>
+      <c r="O26" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
-      <c r="P26" t="n" s="11">
+      <c r="P26" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="R26" t="n" s="11">
+      <c r="R26" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
-      <c r="S26" t="n" s="11">
+      <c r="S26" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
     </row>
@@ -1202,19 +1341,25 @@
       <c r="G27" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H27" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O27" t="n" s="11">
+      <c r="H27" t="n" s="11">
+        <v>0.04861111111111111</v>
+      </c>
+      <c r="I27" t="n" s="12">
+        <v>0.04861111111111111</v>
+      </c>
+      <c r="J27" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="O27" t="n" s="12">
         <v>0.8402777777777778</v>
       </c>
-      <c r="P27" t="n" s="11">
+      <c r="P27" t="n" s="12">
         <v>0.8888888888888888</v>
       </c>
-      <c r="R27" t="n" s="11">
+      <c r="R27" t="n" s="12">
         <v>0.8159722222222222</v>
       </c>
-      <c r="S27" t="n" s="11">
+      <c r="S27" t="n" s="12">
         <v>0.8645833333333334</v>
       </c>
     </row>
@@ -1234,19 +1379,25 @@
       <c r="G28" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H28" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O28" t="n" s="11">
+      <c r="H28" t="n" s="11">
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="I28" t="n" s="12">
+        <v>0.06041666666666667</v>
+      </c>
+      <c r="J28" t="n" s="10">
+        <v>60.0</v>
+      </c>
+      <c r="O28" t="n" s="12">
         <v>0.9256944444444445</v>
       </c>
-      <c r="P28" t="n" s="11">
+      <c r="P28" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
-      <c r="R28" t="n" s="11">
+      <c r="R28" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
-      <c r="S28" t="n" s="11">
+      <c r="S28" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
     </row>
@@ -1266,19 +1417,25 @@
       <c r="G29" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H29" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O29" t="n" s="11">
+      <c r="H29" t="n" s="11">
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I29" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J29" t="n" s="10">
+        <v>59.0</v>
+      </c>
+      <c r="O29" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="P29" t="n" s="11">
+      <c r="P29" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="R29" t="n" s="11">
+      <c r="R29" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="S29" t="n" s="11">
+      <c r="S29" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
     </row>
@@ -1298,19 +1455,25 @@
       <c r="G30" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H30" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O30" t="n" s="11">
+      <c r="H30" t="n" s="11">
+        <v>0.022916666666666665</v>
+      </c>
+      <c r="I30" t="n" s="12">
+        <v>0.06875</v>
+      </c>
+      <c r="J30" t="n" s="10">
+        <v>27.0</v>
+      </c>
+      <c r="O30" t="n" s="12">
         <v>0.8986111111111111</v>
       </c>
-      <c r="P30" t="n" s="11">
+      <c r="P30" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R30" t="n" s="11">
+      <c r="R30" t="n" s="12">
         <v>0.9104166666666667</v>
       </c>
-      <c r="S30" t="n" s="11">
+      <c r="S30" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -1330,19 +1493,25 @@
       <c r="G31" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H31" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O31" t="n" s="11">
+      <c r="H31" t="n" s="11">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="I31" t="n" s="12">
+        <v>0.0625</v>
+      </c>
+      <c r="J31" t="n" s="10">
+        <v>29.0</v>
+      </c>
+      <c r="O31" t="n" s="12">
         <v>0.90625</v>
       </c>
-      <c r="P31" t="n" s="11">
+      <c r="P31" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R31" t="n" s="11">
+      <c r="R31" t="n" s="12">
         <v>0.9131944444444444</v>
       </c>
-      <c r="S31" t="n" s="11">
+      <c r="S31" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -1362,19 +1531,25 @@
       <c r="G32" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H32" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O32" t="n" s="11">
+      <c r="H32" t="n" s="11">
+        <v>0.013888888888888888</v>
+      </c>
+      <c r="I32" t="n" s="12">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="J32" t="n" s="10">
+        <v>43.0</v>
+      </c>
+      <c r="O32" t="n" s="12">
         <v>0.9138888888888889</v>
       </c>
-      <c r="P32" t="n" s="11">
+      <c r="P32" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R32" t="n" s="11">
+      <c r="R32" t="n" s="12">
         <v>0.91875</v>
       </c>
-      <c r="S32" t="n" s="11">
+      <c r="S32" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
     </row>
@@ -1394,19 +1569,25 @@
       <c r="G33" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H33" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O33" t="n" s="11">
+      <c r="H33" t="n" s="11">
+        <v>0.01597222222222222</v>
+      </c>
+      <c r="I33" t="n" s="12">
+        <v>0.0625</v>
+      </c>
+      <c r="J33" t="n" s="10">
+        <v>42.0</v>
+      </c>
+      <c r="O33" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="P33" t="n" s="11">
+      <c r="P33" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R33" t="n" s="11">
+      <c r="R33" t="n" s="12">
         <v>0.90625</v>
       </c>
-      <c r="S33" t="n" s="11">
+      <c r="S33" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -1426,19 +1607,25 @@
       <c r="G34" t="n" s="9">
         <v>9.0</v>
       </c>
-      <c r="H34" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O34" t="n" s="11">
+      <c r="H34" t="n" s="11">
+        <v>0.011111111111111112</v>
+      </c>
+      <c r="I34" t="n" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J34" t="n" s="10">
+        <v>53.0</v>
+      </c>
+      <c r="O34" t="n" s="12">
         <v>0.8951388888888889</v>
       </c>
-      <c r="P34" t="n" s="11">
+      <c r="P34" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
-      <c r="R34" t="n" s="11">
+      <c r="R34" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="S34" t="n" s="11">
+      <c r="S34" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
     </row>
@@ -1458,19 +1645,25 @@
       <c r="G35" t="n" s="9">
         <v>9.0</v>
       </c>
-      <c r="H35" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O35" t="n" s="11">
+      <c r="H35" t="n" s="11">
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="I35" t="n" s="12">
+        <v>0.09097222222222222</v>
+      </c>
+      <c r="J35" t="n" s="10">
+        <v>63.0</v>
+      </c>
+      <c r="O35" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="P35" t="n" s="11">
+      <c r="P35" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R35" t="n" s="11">
+      <c r="R35" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
-      <c r="S35" t="n" s="11">
+      <c r="S35" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
     </row>
@@ -1490,19 +1683,25 @@
       <c r="G36" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H36" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O36" t="n" s="11">
+      <c r="H36" t="n" s="11">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="I36" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J36" t="n" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="O36" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
-      <c r="P36" t="n" s="11">
+      <c r="P36" t="n" s="12">
         <v>0.8958333333333334</v>
       </c>
-      <c r="R36" t="n" s="11">
+      <c r="R36" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="S36" t="n" s="11">
+      <c r="S36" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
     </row>
@@ -1522,19 +1721,25 @@
       <c r="G37" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H37" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O37" t="n" s="11">
+      <c r="H37" t="n" s="11">
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="I37" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J37" t="n" s="10">
+        <v>87.0</v>
+      </c>
+      <c r="O37" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P37" t="n" s="11">
+      <c r="P37" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R37" t="n" s="11">
+      <c r="R37" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="S37" t="n" s="11">
+      <c r="S37" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -1554,19 +1759,25 @@
       <c r="G38" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H38" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O38" t="n" s="11">
+      <c r="H38" t="n" s="11">
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I38" t="n" s="12">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="J38" t="n" s="10">
+        <v>63.0</v>
+      </c>
+      <c r="O38" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P38" t="n" s="11">
+      <c r="P38" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R38" t="n" s="11">
+      <c r="R38" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
-      <c r="S38" t="n" s="11">
+      <c r="S38" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
     </row>
@@ -1586,19 +1797,25 @@
       <c r="G39" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H39" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O39" t="n" s="11">
+      <c r="H39" t="n" s="11">
+        <v>0.005555555555555556</v>
+      </c>
+      <c r="I39" t="n" s="12">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="J39" t="n" s="10">
+        <v>105.0</v>
+      </c>
+      <c r="O39" t="n" s="12">
         <v>0.925</v>
       </c>
-      <c r="P39" t="n" s="11">
+      <c r="P39" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R39" t="s" s="11">
+      <c r="R39" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="S39" t="s" s="11">
+      <c r="S39" t="s" s="12">
         <v>20</v>
       </c>
     </row>
@@ -1618,19 +1835,25 @@
       <c r="G40" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H40" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O40" t="n" s="11">
+      <c r="H40" t="n" s="11">
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="I40" t="n" s="12">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="J40" t="n" s="10">
+        <v>90.0</v>
+      </c>
+      <c r="O40" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P40" t="n" s="11">
+      <c r="P40" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R40" t="n" s="11">
+      <c r="R40" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
-      <c r="S40" t="n" s="11">
+      <c r="S40" t="n" s="12">
         <v>0.9381944444444444</v>
       </c>
     </row>
@@ -1650,19 +1873,25 @@
       <c r="G41" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H41" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O41" t="n" s="11">
+      <c r="H41" t="n" s="11">
+        <v>0.02013888888888889</v>
+      </c>
+      <c r="I41" t="n" s="12">
+        <v>0.06041666666666667</v>
+      </c>
+      <c r="J41" t="n" s="10">
+        <v>30.0</v>
+      </c>
+      <c r="O41" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
-      <c r="P41" t="n" s="11">
+      <c r="P41" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="R41" t="n" s="11">
+      <c r="R41" t="n" s="12">
         <v>0.9180555555555555</v>
       </c>
-      <c r="S41" t="n" s="11">
+      <c r="S41" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
     </row>
@@ -1682,19 +1911,25 @@
       <c r="G42" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H42" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O42" t="n" s="11">
+      <c r="H42" t="n" s="11">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="I42" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J42" t="n" s="10">
+        <v>23.0</v>
+      </c>
+      <c r="O42" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
-      <c r="P42" t="n" s="11">
+      <c r="P42" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R42" t="n" s="11">
+      <c r="R42" t="n" s="12">
         <v>0.9222222222222223</v>
       </c>
-      <c r="S42" t="n" s="11">
+      <c r="S42" t="n" s="12">
         <v>0.95</v>
       </c>
     </row>
@@ -1714,19 +1949,25 @@
       <c r="G43" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H43" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O43" t="n" s="11">
+      <c r="H43" t="n" s="11">
+        <v>0.0125</v>
+      </c>
+      <c r="I43" t="n" s="12">
+        <v>0.05138888888888889</v>
+      </c>
+      <c r="J43" t="n" s="10">
+        <v>48.0</v>
+      </c>
+      <c r="O43" t="n" s="12">
         <v>0.9208333333333333</v>
       </c>
-      <c r="P43" t="n" s="11">
+      <c r="P43" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
-      <c r="R43" t="n" s="11">
+      <c r="R43" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="S43" t="n" s="11">
+      <c r="S43" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
     </row>
@@ -1746,19 +1987,25 @@
       <c r="G44" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H44" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O44" t="n" s="11">
+      <c r="H44" t="n" s="11">
+        <v>0.013888888888888888</v>
+      </c>
+      <c r="I44" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J44" t="n" s="10">
+        <v>42.0</v>
+      </c>
+      <c r="O44" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="P44" t="n" s="11">
+      <c r="P44" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="R44" t="n" s="11">
+      <c r="R44" t="n" s="12">
         <v>0.90625</v>
       </c>
-      <c r="S44" t="n" s="11">
+      <c r="S44" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
     </row>
@@ -1778,19 +2025,25 @@
       <c r="G45" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H45" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O45" t="n" s="11">
+      <c r="H45" t="n" s="11">
+        <v>0.015277777777777777</v>
+      </c>
+      <c r="I45" t="n" s="12">
+        <v>0.03125</v>
+      </c>
+      <c r="J45" t="n" s="10">
+        <v>39.0</v>
+      </c>
+      <c r="O45" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P45" t="n" s="11">
+      <c r="P45" t="n" s="12">
         <v>0.9319444444444445</v>
       </c>
-      <c r="R45" t="n" s="11">
+      <c r="R45" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="S45" t="n" s="11">
+      <c r="S45" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -1810,19 +2063,25 @@
       <c r="G46" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H46" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O46" t="n" s="11">
+      <c r="H46" t="n" s="11">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="I46" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J46" t="n" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="O46" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="P46" t="n" s="11">
+      <c r="P46" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R46" t="n" s="11">
+      <c r="R46" t="n" s="12">
         <v>0.8819444444444444</v>
       </c>
-      <c r="S46" t="n" s="11">
+      <c r="S46" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
     </row>
@@ -1842,19 +2101,25 @@
       <c r="G47" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H47" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O47" t="n" s="11">
+      <c r="H47" t="n" s="11">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="I47" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J47" t="n" s="10">
+        <v>29.0</v>
+      </c>
+      <c r="O47" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="P47" t="n" s="11">
+      <c r="P47" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
-      <c r="R47" t="n" s="11">
+      <c r="R47" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S47" t="n" s="11">
+      <c r="S47" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
     </row>
@@ -1874,19 +2139,25 @@
       <c r="G48" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H48" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O48" t="n" s="11">
+      <c r="H48" t="n" s="11">
+        <v>0.011111111111111112</v>
+      </c>
+      <c r="I48" t="n" s="12">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="J48" t="n" s="10">
+        <v>54.0</v>
+      </c>
+      <c r="O48" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="P48" t="n" s="11">
+      <c r="P48" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
-      <c r="R48" t="n" s="11">
+      <c r="R48" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
-      <c r="S48" t="n" s="11">
+      <c r="S48" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
     </row>
@@ -1906,19 +2177,25 @@
       <c r="G49" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H49" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O49" t="n" s="11">
+      <c r="H49" t="n" s="11">
+        <v>0.017361111111111112</v>
+      </c>
+      <c r="I49" t="n" s="12">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="J49" t="n" s="10">
+        <v>34.0</v>
+      </c>
+      <c r="O49" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="P49" t="n" s="11">
+      <c r="P49" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R49" t="n" s="11">
+      <c r="R49" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
-      <c r="S49" t="n" s="11">
+      <c r="S49" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -1938,19 +2215,25 @@
       <c r="G50" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H50" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O50" t="n" s="11">
+      <c r="H50" t="n" s="11">
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I50" t="n" s="12">
+        <v>0.06458333333333334</v>
+      </c>
+      <c r="J50" t="n" s="10">
+        <v>55.0</v>
+      </c>
+      <c r="O50" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
-      <c r="P50" t="n" s="11">
+      <c r="P50" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="R50" t="n" s="11">
+      <c r="R50" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
-      <c r="S50" t="n" s="11">
+      <c r="S50" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -1970,19 +2253,25 @@
       <c r="G51" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H51" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O51" t="n" s="11">
+      <c r="H51" t="n" s="11">
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I51" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J51" t="n" s="10">
+        <v>59.0</v>
+      </c>
+      <c r="O51" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="P51" t="n" s="11">
+      <c r="P51" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R51" t="n" s="11">
+      <c r="R51" t="n" s="12">
         <v>0.9229166666666667</v>
       </c>
-      <c r="S51" t="n" s="11">
+      <c r="S51" t="n" s="12">
         <v>0.94375</v>
       </c>
     </row>
@@ -2002,19 +2291,25 @@
       <c r="G52" t="n" s="9">
         <v>13.0</v>
       </c>
-      <c r="H52" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O52" t="n" s="11">
+      <c r="H52" t="n" s="11">
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I52" t="n" s="12">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="J52" t="n" s="10">
+        <v>59.0</v>
+      </c>
+      <c r="O52" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="P52" t="n" s="11">
+      <c r="P52" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R52" t="n" s="11">
+      <c r="R52" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
-      <c r="S52" t="n" s="11">
+      <c r="S52" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
     </row>
@@ -2034,19 +2329,25 @@
       <c r="G53" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H53" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O53" t="n" s="11">
+      <c r="H53" t="n" s="11">
+        <v>0.013888888888888888</v>
+      </c>
+      <c r="I53" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J53" t="n" s="10">
+        <v>43.0</v>
+      </c>
+      <c r="O53" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="P53" t="n" s="11">
+      <c r="P53" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R53" t="n" s="11">
+      <c r="R53" t="n" s="12">
         <v>0.9208333333333333</v>
       </c>
-      <c r="S53" t="n" s="11">
+      <c r="S53" t="n" s="12">
         <v>0.9486111111111111</v>
       </c>
     </row>
@@ -2066,19 +2367,25 @@
       <c r="G54" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H54" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O54" t="n" s="11">
+      <c r="H54" t="n" s="11">
+        <v>0.01597222222222222</v>
+      </c>
+      <c r="I54" t="n" s="12">
+        <v>0.04791666666666667</v>
+      </c>
+      <c r="J54" t="n" s="10">
+        <v>37.0</v>
+      </c>
+      <c r="O54" t="n" s="12">
         <v>0.9194444444444444</v>
       </c>
-      <c r="P54" t="n" s="11">
+      <c r="P54" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
-      <c r="R54" t="n" s="11">
+      <c r="R54" t="n" s="12">
         <v>0.9277777777777778</v>
       </c>
-      <c r="S54" t="n" s="11">
+      <c r="S54" t="n" s="12">
         <v>0.94375</v>
       </c>
     </row>
@@ -2098,19 +2405,25 @@
       <c r="G55" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H55" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O55" t="n" s="11">
+      <c r="H55" t="n" s="11">
+        <v>0.01597222222222222</v>
+      </c>
+      <c r="I55" t="n" s="12">
+        <v>0.09583333333333334</v>
+      </c>
+      <c r="J55" t="n" s="10">
+        <v>37.0</v>
+      </c>
+      <c r="O55" t="n" s="12">
         <v>0.9020833333333333</v>
       </c>
-      <c r="P55" t="n" s="11">
+      <c r="P55" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="R55" t="n" s="11">
+      <c r="R55" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
-      <c r="S55" t="n" s="11">
+      <c r="S55" t="n" s="12">
         <v>0.9493055555555555</v>
       </c>
     </row>
@@ -2130,19 +2443,25 @@
       <c r="G56" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H56" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O56" t="n" s="11">
+      <c r="H56" t="n" s="11">
+        <v>0.0125</v>
+      </c>
+      <c r="I56" t="n" s="12">
+        <v>0.0625</v>
+      </c>
+      <c r="J56" t="n" s="10">
+        <v>49.0</v>
+      </c>
+      <c r="O56" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="P56" t="n" s="11">
+      <c r="P56" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="R56" t="n" s="11">
+      <c r="R56" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
-      <c r="S56" t="n" s="11">
+      <c r="S56" t="n" s="12">
         <v>0.9493055555555555</v>
       </c>
     </row>
@@ -2162,19 +2481,25 @@
       <c r="G57" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H57" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O57" t="n" s="11">
+      <c r="H57" t="n" s="11">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="I57" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J57" t="n" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="O57" t="n" s="12">
         <v>0.9131944444444444</v>
       </c>
-      <c r="P57" t="n" s="11">
+      <c r="P57" t="n" s="12">
         <v>0.9548611111111112</v>
       </c>
-      <c r="R57" t="n" s="11">
+      <c r="R57" t="n" s="12">
         <v>0.8923611111111112</v>
       </c>
-      <c r="S57" t="n" s="11">
+      <c r="S57" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
     </row>
@@ -2194,19 +2519,25 @@
       <c r="G58" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H58" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O58" t="n" s="11">
+      <c r="H58" t="n" s="11">
+        <v>0.017361111111111112</v>
+      </c>
+      <c r="I58" t="n" s="12">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="J58" t="n" s="10">
+        <v>32.0</v>
+      </c>
+      <c r="O58" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="P58" t="n" s="11">
+      <c r="P58" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R58" t="n" s="11">
+      <c r="R58" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="S58" t="n" s="11">
+      <c r="S58" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -2226,19 +2557,25 @@
       <c r="G59" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H59" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O59" t="n" s="11">
+      <c r="H59" t="n" s="11">
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="I59" t="n" s="12">
+        <v>0.06805555555555555</v>
+      </c>
+      <c r="J59" t="n" s="10">
+        <v>61.0</v>
+      </c>
+      <c r="O59" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
-      <c r="P59" t="n" s="11">
+      <c r="P59" t="n" s="12">
         <v>0.94375</v>
       </c>
-      <c r="R59" t="n" s="11">
+      <c r="R59" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
-      <c r="S59" t="n" s="11">
+      <c r="S59" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
     </row>
@@ -2258,19 +2595,25 @@
       <c r="G60" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H60" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O60" t="n" s="11">
+      <c r="H60" t="n" s="11">
+        <v>0.0125</v>
+      </c>
+      <c r="I60" t="n" s="12">
+        <v>0.075</v>
+      </c>
+      <c r="J60" t="n" s="10">
+        <v>51.0</v>
+      </c>
+      <c r="O60" t="n" s="12">
         <v>0.9083333333333333</v>
       </c>
-      <c r="P60" t="n" s="11">
+      <c r="P60" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
-      <c r="R60" t="n" s="11">
+      <c r="R60" t="n" s="12">
         <v>0.9208333333333333</v>
       </c>
-      <c r="S60" t="n" s="11">
+      <c r="S60" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
     </row>
@@ -2290,19 +2633,25 @@
       <c r="G61" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H61" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O61" t="n" s="11">
+      <c r="H61" t="n" s="11">
+        <v>0.011805555555555555</v>
+      </c>
+      <c r="I61" t="n" s="12">
+        <v>0.08263888888888889</v>
+      </c>
+      <c r="J61" t="n" s="10">
+        <v>52.0</v>
+      </c>
+      <c r="O61" t="n" s="12">
         <v>0.9055555555555556</v>
       </c>
-      <c r="P61" t="n" s="11">
+      <c r="P61" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R61" t="n" s="11">
+      <c r="R61" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
-      <c r="S61" t="n" s="11">
+      <c r="S61" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
     </row>
@@ -2322,19 +2671,25 @@
       <c r="G62" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H62" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O62" t="n" s="11">
+      <c r="H62" t="n" s="11">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="I62" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J62" t="n" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="O62" t="n" s="12">
         <v>0.8958333333333334</v>
       </c>
-      <c r="P62" t="n" s="11">
+      <c r="P62" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R62" t="n" s="11">
+      <c r="R62" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="S62" t="n" s="11">
+      <c r="S62" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
     </row>
@@ -2354,19 +2709,25 @@
       <c r="G63" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H63" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O63" t="n" s="11">
+      <c r="H63" t="n" s="11">
+        <v>0.016666666666666666</v>
+      </c>
+      <c r="I63" t="n" s="12">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="J63" t="n" s="10">
+        <v>35.0</v>
+      </c>
+      <c r="O63" t="n" s="12">
         <v>0.9125</v>
       </c>
-      <c r="P63" t="n" s="11">
+      <c r="P63" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
-      <c r="R63" t="n" s="11">
+      <c r="R63" t="n" s="12">
         <v>0.9125</v>
       </c>
-      <c r="S63" t="n" s="11">
+      <c r="S63" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
     </row>
@@ -2386,19 +2747,25 @@
       <c r="G64" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H64" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O64" t="n" s="11">
+      <c r="H64" t="n" s="11">
+        <v>0.03125</v>
+      </c>
+      <c r="I64" t="n" s="12">
+        <v>0.03125</v>
+      </c>
+      <c r="J64" t="n" s="10">
+        <v>18.0</v>
+      </c>
+      <c r="O64" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="P64" t="n" s="11">
+      <c r="P64" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="R64" t="n" s="11">
+      <c r="R64" t="n" s="12">
         <v>0.8701388888888889</v>
       </c>
-      <c r="S64" t="n" s="11">
+      <c r="S64" t="n" s="12">
         <v>0.9013888888888889</v>
       </c>
     </row>
@@ -2418,19 +2785,25 @@
       <c r="G65" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H65" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O65" t="n" s="11">
+      <c r="H65" t="n" s="11">
+        <v>0.011805555555555555</v>
+      </c>
+      <c r="I65" t="n" s="12">
+        <v>0.035416666666666666</v>
+      </c>
+      <c r="J65" t="n" s="10">
+        <v>50.0</v>
+      </c>
+      <c r="O65" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="P65" t="n" s="11">
+      <c r="P65" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
-      <c r="R65" t="n" s="11">
+      <c r="R65" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="S65" t="n" s="11">
+      <c r="S65" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
     </row>
@@ -2450,19 +2823,25 @@
       <c r="G66" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H66" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O66" t="n" s="11">
+      <c r="H66" t="n" s="11">
+        <v>0.0125</v>
+      </c>
+      <c r="I66" t="n" s="12">
+        <v>0.08472222222222223</v>
+      </c>
+      <c r="J66" t="n" s="10">
+        <v>51.0</v>
+      </c>
+      <c r="O66" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="P66" t="n" s="11">
+      <c r="P66" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="R66" t="n" s="11">
+      <c r="R66" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
-      <c r="S66" t="n" s="11">
+      <c r="S66" t="n" s="12">
         <v>0.9381944444444444</v>
       </c>
     </row>
@@ -2482,19 +2861,25 @@
       <c r="G67" t="n" s="9">
         <v>9.0</v>
       </c>
-      <c r="H67" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O67" t="n" s="11">
+      <c r="H67" t="n" s="11">
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="I67" t="n" s="12">
+        <v>0.0875</v>
+      </c>
+      <c r="J67" t="n" s="10">
+        <v>61.0</v>
+      </c>
+      <c r="O67" t="n" s="12">
         <v>0.9138888888888889</v>
       </c>
-      <c r="P67" t="n" s="11">
+      <c r="P67" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="R67" t="n" s="11">
+      <c r="R67" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
-      <c r="S67" t="n" s="11">
+      <c r="S67" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
     </row>
@@ -2514,19 +2899,25 @@
       <c r="G68" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H68" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O68" t="n" s="11">
+      <c r="H68" t="n" s="11">
+        <v>0.011111111111111112</v>
+      </c>
+      <c r="I68" t="n" s="12">
+        <v>0.06458333333333334</v>
+      </c>
+      <c r="J68" t="n" s="10">
+        <v>60.0</v>
+      </c>
+      <c r="O68" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P68" t="n" s="11">
+      <c r="P68" t="n" s="12">
         <v>0.9381944444444444</v>
       </c>
-      <c r="R68" t="n" s="11">
+      <c r="R68" t="n" s="12">
         <v>0.9277777777777778</v>
       </c>
-      <c r="S68" t="n" s="11">
+      <c r="S68" t="n" s="12">
         <v>0.9381944444444444</v>
       </c>
     </row>
@@ -2546,19 +2937,25 @@
       <c r="G69" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H69" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O69" t="n" s="11">
+      <c r="H69" t="n" s="11">
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="I69" t="n" s="12">
+        <v>0.029166666666666667</v>
+      </c>
+      <c r="J69" t="n" s="10">
+        <v>65.0</v>
+      </c>
+      <c r="O69" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
-      <c r="P69" t="n" s="11">
+      <c r="P69" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="R69" t="n" s="11">
+      <c r="R69" t="n" s="12">
         <v>0.9284722222222223</v>
       </c>
-      <c r="S69" t="n" s="11">
+      <c r="S69" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
     </row>
@@ -2578,19 +2975,25 @@
       <c r="G70" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H70" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O70" t="n" s="11">
+      <c r="H70" t="n" s="11">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="I70" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J70" t="n" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="O70" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
-      <c r="P70" t="n" s="11">
+      <c r="P70" t="n" s="12">
         <v>0.8958333333333334</v>
       </c>
-      <c r="R70" t="n" s="11">
+      <c r="R70" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="S70" t="n" s="11">
+      <c r="S70" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
     </row>
@@ -2610,19 +3013,25 @@
       <c r="G71" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H71" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O71" t="n" s="11">
+      <c r="H71" t="n" s="11">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="I71" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J71" t="n" s="10">
+        <v>31.0</v>
+      </c>
+      <c r="O71" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="P71" t="n" s="11">
+      <c r="P71" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
-      <c r="R71" t="n" s="11">
+      <c r="R71" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S71" t="n" s="11">
+      <c r="S71" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
     </row>
@@ -2642,19 +3051,25 @@
       <c r="G72" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H72" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O72" t="n" s="11">
+      <c r="H72" t="n" s="11">
+        <v>0.034722222222222224</v>
+      </c>
+      <c r="I72" t="n" s="12">
+        <v>0.034722222222222224</v>
+      </c>
+      <c r="J72" t="n" s="10">
+        <v>18.0</v>
+      </c>
+      <c r="O72" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
-      <c r="P72" t="n" s="11">
+      <c r="P72" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R72" t="n" s="11">
+      <c r="R72" t="n" s="12">
         <v>0.8923611111111112</v>
       </c>
-      <c r="S72" t="n" s="11">
+      <c r="S72" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
     </row>
@@ -2674,19 +3089,25 @@
       <c r="G73" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H73" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O73" t="n" s="11">
+      <c r="H73" t="n" s="11">
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I73" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J73" t="n" s="10">
+        <v>55.0</v>
+      </c>
+      <c r="O73" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P73" t="n" s="11">
+      <c r="P73" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R73" t="n" s="11">
+      <c r="R73" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="S73" t="n" s="11">
+      <c r="S73" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -2706,19 +3127,25 @@
       <c r="G74" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H74" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O74" t="n" s="11">
+      <c r="H74" t="n" s="11">
+        <v>0.011111111111111112</v>
+      </c>
+      <c r="I74" t="n" s="12">
+        <v>0.022222222222222223</v>
+      </c>
+      <c r="J74" t="n" s="10">
+        <v>57.0</v>
+      </c>
+      <c r="O74" t="n" s="12">
         <v>0.9361111111111111</v>
       </c>
-      <c r="P74" t="n" s="11">
+      <c r="P74" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
-      <c r="R74" t="n" s="11">
+      <c r="R74" t="n" s="12">
         <v>0.9361111111111111</v>
       </c>
-      <c r="S74" t="n" s="11">
+      <c r="S74" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
     </row>
@@ -2738,19 +3165,25 @@
       <c r="G75" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H75" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O75" t="n" s="11">
+      <c r="H75" t="n" s="11">
+        <v>0.04861111111111111</v>
+      </c>
+      <c r="I75" t="n" s="12">
+        <v>0.04861111111111111</v>
+      </c>
+      <c r="J75" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="O75" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="P75" t="n" s="11">
+      <c r="P75" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="R75" t="n" s="11">
+      <c r="R75" t="n" s="12">
         <v>0.8631944444444445</v>
       </c>
-      <c r="S75" t="n" s="11">
+      <c r="S75" t="n" s="12">
         <v>0.9118055555555555</v>
       </c>
     </row>
@@ -2770,19 +3203,25 @@
       <c r="G76" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H76" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O76" t="n" s="11">
+      <c r="H76" t="n" s="11">
+        <v>0.0625</v>
+      </c>
+      <c r="I76" t="n" s="12">
+        <v>0.0625</v>
+      </c>
+      <c r="J76" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="O76" t="n" s="12">
         <v>0.8118055555555556</v>
       </c>
-      <c r="P76" t="n" s="11">
+      <c r="P76" t="n" s="12">
         <v>0.8743055555555556</v>
       </c>
-      <c r="R76" t="n" s="11">
+      <c r="R76" t="n" s="12">
         <v>0.7805555555555556</v>
       </c>
-      <c r="S76" t="n" s="11">
+      <c r="S76" t="n" s="12">
         <v>0.8430555555555556</v>
       </c>
     </row>
@@ -2802,19 +3241,25 @@
       <c r="G77" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H77" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O77" t="n" s="11">
+      <c r="H77" t="n" s="11">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="I77" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J77" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="O77" t="n" s="12">
         <v>0.84375</v>
       </c>
-      <c r="P77" t="n" s="11">
+      <c r="P77" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="R77" t="n" s="11">
+      <c r="R77" t="n" s="12">
         <v>0.8020833333333334</v>
       </c>
-      <c r="S77" t="n" s="11">
+      <c r="S77" t="n" s="12">
         <v>0.84375</v>
       </c>
     </row>
@@ -2834,19 +3279,25 @@
       <c r="G78" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H78" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O78" t="n" s="11">
+      <c r="H78" t="n" s="11">
+        <v>0.01875</v>
+      </c>
+      <c r="I78" t="n" s="12">
+        <v>0.075</v>
+      </c>
+      <c r="J78" t="n" s="10">
+        <v>32.0</v>
+      </c>
+      <c r="O78" t="n" s="12">
         <v>0.9041666666666667</v>
       </c>
-      <c r="P78" t="n" s="11">
+      <c r="P78" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R78" t="n" s="11">
+      <c r="R78" t="n" s="12">
         <v>0.9090277777777778</v>
       </c>
-      <c r="S78" t="n" s="11">
+      <c r="S78" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
     </row>
@@ -2866,19 +3317,25 @@
       <c r="G79" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H79" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O79" t="n" s="11">
+      <c r="H79" t="n" s="11">
+        <v>0.011111111111111112</v>
+      </c>
+      <c r="I79" t="n" s="12">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="J79" t="n" s="10">
+        <v>52.0</v>
+      </c>
+      <c r="O79" t="n" s="12">
         <v>0.8951388888888889</v>
       </c>
-      <c r="P79" t="n" s="11">
+      <c r="P79" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
-      <c r="R79" t="n" s="11">
+      <c r="R79" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="S79" t="n" s="11">
+      <c r="S79" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
     </row>
@@ -2898,19 +3355,25 @@
       <c r="G80" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H80" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O80" t="n" s="11">
+      <c r="H80" t="n" s="11">
+        <v>0.014583333333333334</v>
+      </c>
+      <c r="I80" t="n" s="12">
+        <v>0.04375</v>
+      </c>
+      <c r="J80" t="n" s="10">
+        <v>43.0</v>
+      </c>
+      <c r="O80" t="n" s="12">
         <v>0.9083333333333333</v>
       </c>
-      <c r="P80" t="n" s="11">
+      <c r="P80" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R80" t="s" s="11">
+      <c r="R80" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="S80" t="s" s="11">
+      <c r="S80" t="s" s="12">
         <v>20</v>
       </c>
     </row>
@@ -2930,19 +3393,25 @@
       <c r="G81" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H81" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O81" t="n" s="11">
+      <c r="H81" t="n" s="11">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="I81" t="n" s="12">
+        <v>0.08680555555555555</v>
+      </c>
+      <c r="J81" t="n" s="10">
+        <v>71.0</v>
+      </c>
+      <c r="O81" t="n" s="12">
         <v>0.9111111111111111</v>
       </c>
-      <c r="P81" t="n" s="11">
+      <c r="P81" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R81" t="n" s="11">
+      <c r="R81" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
-      <c r="S81" t="n" s="11">
+      <c r="S81" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -2962,19 +3431,25 @@
       <c r="G82" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H82" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O82" t="n" s="11">
+      <c r="H82" t="n" s="11">
+        <v>0.022916666666666665</v>
+      </c>
+      <c r="I82" t="n" s="12">
+        <v>0.04583333333333333</v>
+      </c>
+      <c r="J82" t="n" s="10">
+        <v>26.0</v>
+      </c>
+      <c r="O82" t="n" s="12">
         <v>0.9090277777777778</v>
       </c>
-      <c r="P82" t="n" s="11">
+      <c r="P82" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R82" t="n" s="11">
+      <c r="R82" t="n" s="12">
         <v>0.9083333333333333</v>
       </c>
-      <c r="S82" t="n" s="11">
+      <c r="S82" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -2994,19 +3469,25 @@
       <c r="G83" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H83" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O83" t="n" s="11">
+      <c r="H83" t="n" s="11">
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I83" t="n" s="12">
+        <v>0.052083333333333336</v>
+      </c>
+      <c r="J83" t="n" s="10">
+        <v>58.0</v>
+      </c>
+      <c r="O83" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P83" t="n" s="11">
+      <c r="P83" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="R83" t="n" s="11">
+      <c r="R83" t="n" s="12">
         <v>0.9229166666666667</v>
       </c>
-      <c r="S83" t="n" s="11">
+      <c r="S83" t="n" s="12">
         <v>0.94375</v>
       </c>
     </row>
@@ -3026,19 +3507,25 @@
       <c r="G84" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H84" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O84" t="n" s="11">
+      <c r="H84" t="n" s="11">
+        <v>0.01875</v>
+      </c>
+      <c r="I84" t="n" s="12">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="J84" t="n" s="10">
+        <v>33.0</v>
+      </c>
+      <c r="O84" t="n" s="12">
         <v>0.9020833333333333</v>
       </c>
-      <c r="P84" t="n" s="11">
+      <c r="P84" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
-      <c r="R84" t="n" s="11">
+      <c r="R84" t="n" s="12">
         <v>0.9111111111111111</v>
       </c>
-      <c r="S84" t="n" s="11">
+      <c r="S84" t="n" s="12">
         <v>0.9298611111111111</v>
       </c>
     </row>
@@ -3058,19 +3545,25 @@
       <c r="G85" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H85" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O85" t="n" s="11">
+      <c r="H85" t="n" s="11">
+        <v>0.0125</v>
+      </c>
+      <c r="I85" t="n" s="12">
+        <v>0.0625</v>
+      </c>
+      <c r="J85" t="n" s="10">
+        <v>49.0</v>
+      </c>
+      <c r="O85" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P85" t="n" s="11">
+      <c r="P85" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R85" t="n" s="11">
+      <c r="R85" t="n" s="12">
         <v>0.9229166666666667</v>
       </c>
-      <c r="S85" t="n" s="11">
+      <c r="S85" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
     </row>
@@ -3090,19 +3583,25 @@
       <c r="G86" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H86" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O86" t="n" s="11">
+      <c r="H86" t="n" s="11">
+        <v>0.011805555555555555</v>
+      </c>
+      <c r="I86" t="n" s="12">
+        <v>0.04722222222222222</v>
+      </c>
+      <c r="J86" t="n" s="10">
+        <v>51.0</v>
+      </c>
+      <c r="O86" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="P86" t="n" s="11">
+      <c r="P86" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R86" t="n" s="11">
+      <c r="R86" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="S86" t="n" s="11">
+      <c r="S86" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
     </row>
@@ -3122,19 +3621,25 @@
       <c r="G87" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H87" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O87" t="n" s="11">
+      <c r="H87" t="n" s="11">
+        <v>0.013888888888888888</v>
+      </c>
+      <c r="I87" t="n" s="12">
+        <v>0.09930555555555555</v>
+      </c>
+      <c r="J87" t="n" s="10">
+        <v>40.0</v>
+      </c>
+      <c r="O87" t="n" s="12">
         <v>0.8965277777777778</v>
       </c>
-      <c r="P87" t="n" s="11">
+      <c r="P87" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
-      <c r="R87" t="n" s="11">
+      <c r="R87" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="S87" t="n" s="11">
+      <c r="S87" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
     </row>
@@ -3154,19 +3659,25 @@
       <c r="G88" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H88" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O88" t="n" s="11">
+      <c r="H88" t="n" s="11">
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I88" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J88" t="n" s="10">
+        <v>57.0</v>
+      </c>
+      <c r="O88" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="P88" t="n" s="11">
+      <c r="P88" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R88" t="n" s="11">
+      <c r="R88" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="S88" t="n" s="11">
+      <c r="S88" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -3186,19 +3697,25 @@
       <c r="G89" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H89" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O89" t="n" s="11">
+      <c r="H89" t="n" s="11">
+        <v>0.01875</v>
+      </c>
+      <c r="I89" t="n" s="12">
+        <v>0.09375</v>
+      </c>
+      <c r="J89" t="n" s="10">
+        <v>33.0</v>
+      </c>
+      <c r="O89" t="n" s="12">
         <v>0.9159722222222222</v>
       </c>
-      <c r="P89" t="n" s="11">
+      <c r="P89" t="n" s="12">
         <v>0.9534722222222223</v>
       </c>
-      <c r="R89" t="n" s="11">
+      <c r="R89" t="n" s="12">
         <v>0.9069444444444444</v>
       </c>
-      <c r="S89" t="n" s="11">
+      <c r="S89" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -3218,19 +3735,25 @@
       <c r="G90" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H90" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O90" t="n" s="11">
+      <c r="H90" t="n" s="11">
+        <v>0.018055555555555554</v>
+      </c>
+      <c r="I90" t="n" s="12">
+        <v>0.09027777777777778</v>
+      </c>
+      <c r="J90" t="n" s="10">
+        <v>34.0</v>
+      </c>
+      <c r="O90" t="n" s="12">
         <v>0.9055555555555556</v>
       </c>
-      <c r="P90" t="n" s="11">
+      <c r="P90" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R90" t="n" s="11">
+      <c r="R90" t="n" s="12">
         <v>0.9145833333333333</v>
       </c>
-      <c r="S90" t="n" s="11">
+      <c r="S90" t="n" s="12">
         <v>0.9506944444444444</v>
       </c>
     </row>
@@ -3250,19 +3773,25 @@
       <c r="G91" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H91" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O91" t="n" s="11">
+      <c r="H91" t="n" s="11">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="I91" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J91" t="n" s="10">
+        <v>22.0</v>
+      </c>
+      <c r="O91" t="n" s="12">
         <v>0.9020833333333333</v>
       </c>
-      <c r="P91" t="n" s="11">
+      <c r="P91" t="n" s="12">
         <v>0.9298611111111111</v>
       </c>
-      <c r="R91" t="n" s="11">
+      <c r="R91" t="n" s="12">
         <v>0.8611111111111112</v>
       </c>
-      <c r="S91" t="n" s="11">
+      <c r="S91" t="n" s="12">
         <v>0.8888888888888888</v>
       </c>
     </row>
@@ -3282,19 +3811,25 @@
       <c r="G92" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H92" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O92" t="n" s="11">
+      <c r="H92" t="n" s="11">
+        <v>0.024305555555555556</v>
+      </c>
+      <c r="I92" t="n" s="12">
+        <v>0.04861111111111111</v>
+      </c>
+      <c r="J92" t="n" s="10">
+        <v>25.0</v>
+      </c>
+      <c r="O92" t="n" s="12">
         <v>0.8993055555555556</v>
       </c>
-      <c r="P92" t="n" s="11">
+      <c r="P92" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="R92" t="n" s="11">
+      <c r="R92" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="S92" t="n" s="11">
+      <c r="S92" t="n" s="12">
         <v>0.8993055555555556</v>
       </c>
     </row>
@@ -3314,19 +3849,25 @@
       <c r="G93" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H93" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O93" t="n" s="11">
+      <c r="H93" t="n" s="11">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="I93" t="n" s="12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J93" t="n" s="10">
+        <v>22.0</v>
+      </c>
+      <c r="O93" t="n" s="12">
         <v>0.8756944444444444</v>
       </c>
-      <c r="P93" t="n" s="11">
+      <c r="P93" t="n" s="12">
         <v>0.9104166666666667</v>
       </c>
-      <c r="R93" t="n" s="11">
+      <c r="R93" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="S93" t="n" s="11">
+      <c r="S93" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
     </row>
@@ -3346,19 +3887,25 @@
       <c r="G94" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H94" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O94" t="n" s="11">
+      <c r="H94" t="n" s="11">
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="I94" t="n" s="12">
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="J94" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="O94" t="n" s="12">
         <v>0.8680555555555556</v>
       </c>
-      <c r="P94" t="n" s="11">
+      <c r="P94" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R94" t="n" s="11">
+      <c r="R94" t="n" s="12">
         <v>0.8298611111111112</v>
       </c>
-      <c r="S94" t="n" s="11">
+      <c r="S94" t="n" s="12">
         <v>0.90625</v>
       </c>
     </row>
@@ -3378,19 +3925,25 @@
       <c r="G95" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H95" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O95" t="n" s="11">
+      <c r="H95" t="n" s="11">
+        <v>0.017361111111111112</v>
+      </c>
+      <c r="I95" t="n" s="12">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="J95" t="n" s="10">
+        <v>36.0</v>
+      </c>
+      <c r="O95" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P95" t="n" s="11">
+      <c r="P95" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="R95" t="n" s="11">
+      <c r="R95" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="S95" t="n" s="11">
+      <c r="S95" t="n" s="12">
         <v>0.9520833333333333</v>
       </c>
     </row>
@@ -3410,19 +3963,25 @@
       <c r="G96" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H96" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O96" t="n" s="11">
+      <c r="H96" t="n" s="11">
+        <v>0.04861111111111111</v>
+      </c>
+      <c r="I96" t="n" s="12">
+        <v>0.04861111111111111</v>
+      </c>
+      <c r="J96" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="O96" t="n" s="12">
         <v>0.8958333333333334</v>
       </c>
-      <c r="P96" t="n" s="11">
+      <c r="P96" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R96" t="n" s="11">
+      <c r="R96" t="n" s="12">
         <v>0.8694444444444445</v>
       </c>
-      <c r="S96" t="n" s="11">
+      <c r="S96" t="n" s="12">
         <v>0.9180555555555555</v>
       </c>
     </row>
@@ -3442,19 +4001,25 @@
       <c r="G97" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H97" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O97" t="n" s="11">
+      <c r="H97" t="n" s="11">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="I97" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J97" t="n" s="10">
+        <v>30.0</v>
+      </c>
+      <c r="O97" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P97" t="n" s="11">
+      <c r="P97" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R97" t="n" s="11">
+      <c r="R97" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="S97" t="n" s="11">
+      <c r="S97" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -3474,19 +4039,25 @@
       <c r="G98" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H98" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O98" t="n" s="11">
+      <c r="H98" t="n" s="11">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="I98" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J98" t="n" s="10">
+        <v>21.0</v>
+      </c>
+      <c r="O98" t="n" s="12">
         <v>0.89375</v>
       </c>
-      <c r="P98" t="n" s="11">
+      <c r="P98" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="R98" t="n" s="11">
+      <c r="R98" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
-      <c r="S98" t="n" s="11">
+      <c r="S98" t="n" s="12">
         <v>0.8819444444444444</v>
       </c>
     </row>
@@ -3506,19 +4077,25 @@
       <c r="G99" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H99" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O99" t="n" s="11">
+      <c r="H99" t="n" s="11">
+        <v>0.011111111111111112</v>
+      </c>
+      <c r="I99" t="n" s="12">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="J99" t="n" s="10">
+        <v>56.0</v>
+      </c>
+      <c r="O99" t="n" s="12">
         <v>0.925</v>
       </c>
-      <c r="P99" t="n" s="11">
+      <c r="P99" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
-      <c r="R99" t="n" s="11">
+      <c r="R99" t="n" s="12">
         <v>0.93125</v>
       </c>
-      <c r="S99" t="n" s="11">
+      <c r="S99" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
     </row>
@@ -3538,19 +4115,25 @@
       <c r="G100" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H100" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O100" t="n" s="11">
+      <c r="H100" t="n" s="11">
+        <v>0.024305555555555556</v>
+      </c>
+      <c r="I100" t="n" s="12">
+        <v>0.04861111111111111</v>
+      </c>
+      <c r="J100" t="n" s="10">
+        <v>25.0</v>
+      </c>
+      <c r="O100" t="n" s="12">
         <v>0.8993055555555556</v>
       </c>
-      <c r="P100" t="n" s="11">
+      <c r="P100" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="R100" t="n" s="11">
+      <c r="R100" t="n" s="12">
         <v>0.8986111111111111</v>
       </c>
-      <c r="S100" t="n" s="11">
+      <c r="S100" t="n" s="12">
         <v>0.9229166666666667</v>
       </c>
     </row>
@@ -3570,19 +4153,25 @@
       <c r="G101" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H101" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O101" t="n" s="11">
+      <c r="H101" t="n" s="11">
+        <v>0.01597222222222222</v>
+      </c>
+      <c r="I101" t="n" s="12">
+        <v>0.04791666666666667</v>
+      </c>
+      <c r="J101" t="n" s="10">
+        <v>36.0</v>
+      </c>
+      <c r="O101" t="n" s="12">
         <v>0.9131944444444444</v>
       </c>
-      <c r="P101" t="n" s="11">
+      <c r="P101" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
-      <c r="R101" t="n" s="11">
+      <c r="R101" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
-      <c r="S101" t="n" s="11">
+      <c r="S101" t="n" s="12">
         <v>0.9527777777777777</v>
       </c>
     </row>
@@ -3602,19 +4191,25 @@
       <c r="G102" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H102" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O102" t="n" s="11">
+      <c r="H102" t="n" s="11">
+        <v>0.007638888888888889</v>
+      </c>
+      <c r="I102" t="n" s="12">
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="J102" t="n" s="10">
+        <v>82.0</v>
+      </c>
+      <c r="O102" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="P102" t="n" s="11">
+      <c r="P102" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
-      <c r="R102" t="n" s="11">
+      <c r="R102" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="S102" t="n" s="11">
+      <c r="S102" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -3634,19 +4229,25 @@
       <c r="G103" t="n" s="9">
         <v>16.0</v>
       </c>
-      <c r="H103" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O103" t="n" s="11">
+      <c r="H103" t="n" s="11">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="I103" t="n" s="12">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J103" t="n" s="10">
+        <v>75.0</v>
+      </c>
+      <c r="O103" t="n" s="12">
         <v>0.9354166666666667</v>
       </c>
-      <c r="P103" t="n" s="11">
+      <c r="P103" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
-      <c r="R103" t="n" s="11">
+      <c r="R103" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S103" t="n" s="11">
+      <c r="S103" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
     </row>
@@ -3666,19 +4267,25 @@
       <c r="G104" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H104" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O104" t="n" s="11">
+      <c r="H104" t="n" s="11">
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I104" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J104" t="n" s="10">
+        <v>59.0</v>
+      </c>
+      <c r="O104" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="P104" t="n" s="11">
+      <c r="P104" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R104" t="n" s="11">
+      <c r="R104" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="S104" t="n" s="11">
+      <c r="S104" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -3698,19 +4305,25 @@
       <c r="G105" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H105" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O105" t="n" s="11">
+      <c r="H105" t="n" s="11">
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I105" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J105" t="n" s="10">
+        <v>60.0</v>
+      </c>
+      <c r="O105" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="P105" t="n" s="11">
+      <c r="P105" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R105" t="n" s="11">
+      <c r="R105" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S105" t="n" s="11">
+      <c r="S105" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -3730,19 +4343,25 @@
       <c r="G106" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H106" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O106" t="n" s="11">
+      <c r="H106" t="n" s="11">
+        <v>0.009027777777777777</v>
+      </c>
+      <c r="I106" t="n" s="12">
+        <v>0.07222222222222222</v>
+      </c>
+      <c r="J106" t="n" s="10">
+        <v>69.0</v>
+      </c>
+      <c r="O106" t="n" s="12">
         <v>0.9256944444444445</v>
       </c>
-      <c r="P106" t="n" s="11">
+      <c r="P106" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R106" t="n" s="11">
+      <c r="R106" t="n" s="12">
         <v>0.9256944444444445</v>
       </c>
-      <c r="S106" t="n" s="11">
+      <c r="S106" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -3762,19 +4381,25 @@
       <c r="G107" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H107" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O107" t="n" s="11">
+      <c r="H107" t="n" s="11">
+        <v>0.004861111111111111</v>
+      </c>
+      <c r="I107" t="n" s="12">
+        <v>0.019444444444444445</v>
+      </c>
+      <c r="J107" t="n" s="10">
+        <v>136.0</v>
+      </c>
+      <c r="O107" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="P107" t="n" s="11">
+      <c r="P107" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="R107" t="s" s="11">
+      <c r="R107" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="S107" t="s" s="11">
+      <c r="S107" t="s" s="12">
         <v>20</v>
       </c>
     </row>
@@ -3794,19 +4419,25 @@
       <c r="G108" t="n" s="9">
         <v>9.0</v>
       </c>
-      <c r="H108" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O108" t="n" s="11">
+      <c r="H108" t="n" s="11">
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I108" t="n" s="12">
+        <v>0.09375</v>
+      </c>
+      <c r="J108" t="n" s="10">
+        <v>61.0</v>
+      </c>
+      <c r="O108" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
-      <c r="P108" t="n" s="11">
+      <c r="P108" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
-      <c r="R108" t="n" s="11">
+      <c r="R108" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="S108" t="n" s="11">
+      <c r="S108" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -3826,19 +4457,25 @@
       <c r="G109" t="n" s="9">
         <v>9.0</v>
       </c>
-      <c r="H109" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O109" t="n" s="11">
+      <c r="H109" t="n" s="11">
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="I109" t="n" s="12">
+        <v>0.0625</v>
+      </c>
+      <c r="J109" t="n" s="10">
+        <v>92.0</v>
+      </c>
+      <c r="O109" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
-      <c r="P109" t="n" s="11">
+      <c r="P109" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R109" t="n" s="11">
+      <c r="R109" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S109" t="n" s="11">
+      <c r="S109" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -3858,19 +4495,25 @@
       <c r="G110" t="n" s="9">
         <v>15.0</v>
       </c>
-      <c r="H110" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O110" t="n" s="11">
+      <c r="H110" t="n" s="11">
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="I110" t="n" s="12">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="J110" t="n" s="10">
+        <v>89.0</v>
+      </c>
+      <c r="O110" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="P110" t="n" s="11">
+      <c r="P110" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R110" t="n" s="11">
+      <c r="R110" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S110" t="n" s="11">
+      <c r="S110" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
     </row>
@@ -3890,19 +4533,25 @@
       <c r="G111" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H111" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O111" t="n" s="11">
+      <c r="H111" t="n" s="11">
+        <v>0.009027777777777777</v>
+      </c>
+      <c r="I111" t="n" s="12">
+        <v>0.09027777777777778</v>
+      </c>
+      <c r="J111" t="n" s="10">
+        <v>71.0</v>
+      </c>
+      <c r="O111" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
-      <c r="P111" t="n" s="11">
+      <c r="P111" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R111" t="n" s="11">
+      <c r="R111" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
-      <c r="S111" t="n" s="11">
+      <c r="S111" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
     </row>
@@ -3922,19 +4571,25 @@
       <c r="G112" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H112" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O112" t="n" s="11">
+      <c r="H112" t="n" s="11">
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="I112" t="n" s="12">
+        <v>0.07777777777777778</v>
+      </c>
+      <c r="J112" t="n" s="10">
+        <v>64.0</v>
+      </c>
+      <c r="O112" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
-      <c r="P112" t="n" s="11">
+      <c r="P112" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
-      <c r="R112" t="n" s="11">
+      <c r="R112" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
-      <c r="S112" t="n" s="11">
+      <c r="S112" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
     </row>
@@ -3954,19 +4609,25 @@
       <c r="G113" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H113" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O113" t="n" s="11">
+      <c r="H113" t="n" s="11">
+        <v>0.009027777777777777</v>
+      </c>
+      <c r="I113" t="n" s="12">
+        <v>0.07222222222222222</v>
+      </c>
+      <c r="J113" t="n" s="10">
+        <v>71.0</v>
+      </c>
+      <c r="O113" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
-      <c r="P113" t="n" s="11">
+      <c r="P113" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="R113" t="n" s="11">
+      <c r="R113" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
-      <c r="S113" t="n" s="11">
+      <c r="S113" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
     </row>
@@ -3986,19 +4647,25 @@
       <c r="G114" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H114" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O114" t="n" s="11">
+      <c r="H114" t="n" s="11">
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="I114" t="n" s="12">
+        <v>0.029166666666666667</v>
+      </c>
+      <c r="J114" t="n" s="10">
+        <v>68.0</v>
+      </c>
+      <c r="O114" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
-      <c r="P114" t="n" s="11">
+      <c r="P114" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="R114" t="s" s="11">
+      <c r="R114" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="S114" t="s" s="11">
+      <c r="S114" t="s" s="12">
         <v>20</v>
       </c>
     </row>
@@ -4018,19 +4685,25 @@
       <c r="G115" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H115" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
-      </c>
-      <c r="O115" t="n" s="11">
+      <c r="H115" t="n" s="11">
+        <v>0.007638888888888889</v>
+      </c>
+      <c r="I115" t="n" s="12">
+        <v>0.030555555555555555</v>
+      </c>
+      <c r="J115" t="n" s="10">
+        <v>84.0</v>
+      </c>
+      <c r="O115" t="n" s="12">
         <v>0.9298611111111111</v>
       </c>
-      <c r="P115" t="n" s="11">
+      <c r="P115" t="n" s="12">
         <v>0.9402777777777778</v>
       </c>
-      <c r="R115" t="s" s="11">
+      <c r="R115" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="S115" t="s" s="11">
+      <c r="S115" t="s" s="12">
         <v>20</v>
       </c>
     </row>

--- a/downloads/ds.xlsx
+++ b/downloads/ds.xlsx
@@ -514,6 +514,15 @@
       <c r="J5" t="n" s="10">
         <v>71.0</v>
       </c>
+      <c r="K5" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L5" t="n" s="12">
+        <v>0.9770833333333333</v>
+      </c>
+      <c r="M5" t="n" s="12">
+        <v>0.9770833333333333</v>
+      </c>
       <c r="O5" t="n" s="12">
         <v>0.925</v>
       </c>
@@ -552,6 +561,15 @@
       <c r="J6" t="n" s="10">
         <v>92.0</v>
       </c>
+      <c r="K6" t="n" s="12">
+        <v>0.28125</v>
+      </c>
+      <c r="L6" t="n" s="12">
+        <v>0.9826388888888888</v>
+      </c>
+      <c r="M6" t="n" s="12">
+        <v>0.9826388888888888</v>
+      </c>
       <c r="O6" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
@@ -588,7 +606,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="J7" t="n" s="10">
-        <v>55.0</v>
+        <v>55.5</v>
+      </c>
+      <c r="K7" t="n" s="12">
+        <v>0.2847222222222222</v>
+      </c>
+      <c r="L7" t="n" s="12">
+        <v>0.9736111111111111</v>
+      </c>
+      <c r="M7" t="n" s="12">
+        <v>0.9736111111111111</v>
       </c>
       <c r="O7" t="n" s="12">
         <v>0.9180555555555555</v>
@@ -626,7 +653,16 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="J8" t="n" s="10">
-        <v>22.0</v>
+        <v>22.5</v>
+      </c>
+      <c r="K8" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L8" t="n" s="12">
+        <v>0.9840277777777777</v>
+      </c>
+      <c r="M8" t="n" s="12">
+        <v>0.9840277777777777</v>
       </c>
       <c r="O8" t="n" s="12">
         <v>0.9145833333333333</v>
@@ -666,6 +702,15 @@
       <c r="J9" t="n" s="10">
         <v>14.0</v>
       </c>
+      <c r="K9" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L9" t="n" s="12">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="M9" t="n" s="12">
+        <v>0.9583333333333334</v>
+      </c>
       <c r="O9" t="n" s="12">
         <v>0.875</v>
       </c>
@@ -702,7 +747,16 @@
         <v>0.09722222222222222</v>
       </c>
       <c r="J10" t="n" s="10">
-        <v>44.0</v>
+        <v>44.5</v>
+      </c>
+      <c r="K10" t="n" s="12">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L10" t="n" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="M10" t="n" s="12">
+        <v>1.0</v>
       </c>
       <c r="O10" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -740,7 +794,16 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J11" t="n" s="10">
-        <v>44.0</v>
+        <v>44.5</v>
+      </c>
+      <c r="K11" t="n" s="12">
+        <v>0.2847222222222222</v>
+      </c>
+      <c r="L11" t="n" s="12">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="M11" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O11" t="n" s="12">
         <v>0.9375</v>
@@ -780,6 +843,15 @@
       <c r="J12" t="n" s="10">
         <v>62.0</v>
       </c>
+      <c r="K12" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L12" t="n" s="12">
+        <v>0.9736111111111111</v>
+      </c>
+      <c r="M12" t="n" s="12">
+        <v>0.9736111111111111</v>
+      </c>
       <c r="O12" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
@@ -816,7 +888,16 @@
         <v>0.10694444444444444</v>
       </c>
       <c r="J13" t="n" s="10">
-        <v>23.0</v>
+        <v>23.5</v>
+      </c>
+      <c r="K13" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L13" t="n" s="12">
+        <v>0.9902777777777778</v>
+      </c>
+      <c r="M13" t="n" s="12">
+        <v>0.9902777777777778</v>
       </c>
       <c r="O13" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -856,6 +937,15 @@
       <c r="J14" t="n" s="10">
         <v>49.0</v>
       </c>
+      <c r="K14" t="n" s="12">
+        <v>0.2861111111111111</v>
+      </c>
+      <c r="L14" t="n" s="12">
+        <v>0.9923611111111111</v>
+      </c>
+      <c r="M14" t="n" s="12">
+        <v>0.9923611111111111</v>
+      </c>
       <c r="O14" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
@@ -894,6 +984,15 @@
       <c r="J15" t="n" s="10">
         <v>34.0</v>
       </c>
+      <c r="K15" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L15" t="n" s="12">
+        <v>0.9909722222222223</v>
+      </c>
+      <c r="M15" t="n" s="12">
+        <v>0.9909722222222223</v>
+      </c>
       <c r="O15" t="n" s="12">
         <v>0.8986111111111111</v>
       </c>
@@ -930,7 +1029,16 @@
         <v>0.09930555555555555</v>
       </c>
       <c r="J16" t="n" s="10">
-        <v>67.0</v>
+        <v>67.5</v>
+      </c>
+      <c r="K16" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L16" t="n" s="12">
+        <v>0.9958333333333333</v>
+      </c>
+      <c r="M16" t="n" s="12">
+        <v>0.9958333333333333</v>
       </c>
       <c r="O16" t="n" s="12">
         <v>0.9055555555555556</v>
@@ -968,7 +1076,16 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="J17" t="n" s="10">
-        <v>43.0</v>
+        <v>43.5</v>
+      </c>
+      <c r="K17" t="n" s="12">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="L17" t="n" s="12">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="M17" t="n" s="12">
+        <v>0.9791666666666666</v>
       </c>
       <c r="O17" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -1006,7 +1123,16 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="J18" t="n" s="10">
-        <v>6.0</v>
+        <v>6.5</v>
+      </c>
+      <c r="K18" t="n" s="12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L18" t="n" s="12">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="M18" t="n" s="12">
+        <v>0.9166666666666666</v>
       </c>
       <c r="O18" t="n" s="12">
         <v>0.8125</v>
@@ -1046,6 +1172,15 @@
       <c r="J19" t="n" s="10">
         <v>58.0</v>
       </c>
+      <c r="K19" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L19" t="n" s="12">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="M19" t="n" s="12">
+        <v>0.9791666666666666</v>
+      </c>
       <c r="O19" t="n" s="12">
         <v>0.90625</v>
       </c>
@@ -1084,6 +1219,15 @@
       <c r="J20" t="n" s="10">
         <v>23.0</v>
       </c>
+      <c r="K20" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L20" t="n" s="12">
+        <v>0.9861111111111112</v>
+      </c>
+      <c r="M20" t="n" s="12">
+        <v>0.9861111111111112</v>
+      </c>
       <c r="O20" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
@@ -1120,7 +1264,16 @@
         <v>0.0763888888888889</v>
       </c>
       <c r="J21" t="n" s="10">
-        <v>82.0</v>
+        <v>82.5</v>
+      </c>
+      <c r="K21" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L21" t="n" s="12">
+        <v>0.9868055555555556</v>
+      </c>
+      <c r="M21" t="n" s="12">
+        <v>0.9868055555555556</v>
       </c>
       <c r="O21" t="n" s="12">
         <v>0.9333333333333333</v>
@@ -1158,7 +1311,16 @@
         <v>0.12986111111111112</v>
       </c>
       <c r="J22" t="n" s="10">
-        <v>51.0</v>
+        <v>51.5</v>
+      </c>
+      <c r="K22" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L22" t="n" s="12">
+        <v>1.0118055555555556</v>
+      </c>
+      <c r="M22" t="n" s="12">
+        <v>1.0118055555555556</v>
       </c>
       <c r="O22" t="n" s="12">
         <v>0.89375</v>
@@ -1196,7 +1358,16 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="J23" t="n" s="10">
-        <v>22.0</v>
+        <v>22.5</v>
+      </c>
+      <c r="K23" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L23" t="n" s="12">
+        <v>0.9861111111111112</v>
+      </c>
+      <c r="M23" t="n" s="12">
+        <v>0.9861111111111112</v>
       </c>
       <c r="O23" t="n" s="12">
         <v>0.875</v>
@@ -1234,7 +1405,16 @@
         <v>0.09027777777777778</v>
       </c>
       <c r="J24" t="n" s="10">
-        <v>59.0</v>
+        <v>59.5</v>
+      </c>
+      <c r="K24" t="n" s="12">
+        <v>0.3013888888888889</v>
+      </c>
+      <c r="L24" t="n" s="12">
+        <v>0.9909722222222223</v>
+      </c>
+      <c r="M24" t="n" s="12">
+        <v>0.9909722222222223</v>
       </c>
       <c r="O24" t="n" s="12">
         <v>0.9152777777777777</v>
@@ -1274,6 +1454,15 @@
       <c r="J25" t="n" s="10">
         <v>54.0</v>
       </c>
+      <c r="K25" t="n" s="12">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="L25" t="n" s="12">
+        <v>0.9986111111111111</v>
+      </c>
+      <c r="M25" t="n" s="12">
+        <v>0.9986111111111111</v>
+      </c>
       <c r="O25" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
@@ -1312,6 +1501,15 @@
       <c r="J26" t="n" s="10">
         <v>69.0</v>
       </c>
+      <c r="K26" t="n" s="12">
+        <v>0.2743055555555556</v>
+      </c>
+      <c r="L26" t="n" s="12">
+        <v>0.9784722222222222</v>
+      </c>
+      <c r="M26" t="n" s="12">
+        <v>0.9784722222222222</v>
+      </c>
       <c r="O26" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
@@ -1348,7 +1546,16 @@
         <v>0.04861111111111111</v>
       </c>
       <c r="J27" t="n" s="10">
-        <v>11.0</v>
+        <v>11.5</v>
+      </c>
+      <c r="K27" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L27" t="n" s="12">
+        <v>0.9131944444444444</v>
+      </c>
+      <c r="M27" t="n" s="12">
+        <v>0.9131944444444444</v>
       </c>
       <c r="O27" t="n" s="12">
         <v>0.8402777777777778</v>
@@ -1388,6 +1595,15 @@
       <c r="J28" t="n" s="10">
         <v>60.0</v>
       </c>
+      <c r="K28" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L28" t="n" s="12">
+        <v>0.9763888888888889</v>
+      </c>
+      <c r="M28" t="n" s="12">
+        <v>0.9763888888888889</v>
+      </c>
       <c r="O28" t="n" s="12">
         <v>0.9256944444444445</v>
       </c>
@@ -1424,7 +1640,16 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J29" t="n" s="10">
-        <v>59.0</v>
+        <v>59.5</v>
+      </c>
+      <c r="K29" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L29" t="n" s="12">
+        <v>0.96875</v>
+      </c>
+      <c r="M29" t="n" s="12">
+        <v>0.96875</v>
       </c>
       <c r="O29" t="n" s="12">
         <v>0.9270833333333334</v>
@@ -1462,7 +1687,16 @@
         <v>0.06875</v>
       </c>
       <c r="J30" t="n" s="10">
-        <v>27.0</v>
+        <v>27.5</v>
+      </c>
+      <c r="K30" t="n" s="12">
+        <v>0.29375</v>
+      </c>
+      <c r="L30" t="n" s="12">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="M30" t="n" s="12">
+        <v>0.9791666666666666</v>
       </c>
       <c r="O30" t="n" s="12">
         <v>0.8986111111111111</v>
@@ -1500,7 +1734,16 @@
         <v>0.0625</v>
       </c>
       <c r="J31" t="n" s="10">
-        <v>29.0</v>
+        <v>29.5</v>
+      </c>
+      <c r="K31" t="n" s="12">
+        <v>0.28125</v>
+      </c>
+      <c r="L31" t="n" s="12">
+        <v>0.9756944444444444</v>
+      </c>
+      <c r="M31" t="n" s="12">
+        <v>0.9756944444444444</v>
       </c>
       <c r="O31" t="n" s="12">
         <v>0.90625</v>
@@ -1538,7 +1781,16 @@
         <v>0.06944444444444445</v>
       </c>
       <c r="J32" t="n" s="10">
-        <v>43.0</v>
+        <v>43.5</v>
+      </c>
+      <c r="K32" t="n" s="12">
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="L32" t="n" s="12">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="M32" t="n" s="12">
+        <v>0.9833333333333333</v>
       </c>
       <c r="O32" t="n" s="12">
         <v>0.9138888888888889</v>
@@ -1576,7 +1828,16 @@
         <v>0.0625</v>
       </c>
       <c r="J33" t="n" s="10">
-        <v>42.0</v>
+        <v>42.5</v>
+      </c>
+      <c r="K33" t="n" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="L33" t="n" s="12">
+        <v>0.96875</v>
+      </c>
+      <c r="M33" t="n" s="12">
+        <v>0.96875</v>
       </c>
       <c r="O33" t="n" s="12">
         <v>0.9215277777777777</v>
@@ -1614,7 +1875,16 @@
         <v>0.1</v>
       </c>
       <c r="J34" t="n" s="10">
-        <v>53.0</v>
+        <v>53.5</v>
+      </c>
+      <c r="K34" t="n" s="12">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="L34" t="n" s="12">
+        <v>0.9951388888888889</v>
+      </c>
+      <c r="M34" t="n" s="12">
+        <v>0.9951388888888889</v>
       </c>
       <c r="O34" t="n" s="12">
         <v>0.8951388888888889</v>
@@ -1652,7 +1922,16 @@
         <v>0.09097222222222222</v>
       </c>
       <c r="J35" t="n" s="10">
-        <v>63.0</v>
+        <v>63.5</v>
+      </c>
+      <c r="K35" t="n" s="12">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="L35" t="n" s="12">
+        <v>0.9923611111111111</v>
+      </c>
+      <c r="M35" t="n" s="12">
+        <v>0.9923611111111111</v>
       </c>
       <c r="O35" t="n" s="12">
         <v>0.9215277777777777</v>
@@ -1692,6 +1971,15 @@
       <c r="J36" t="n" s="10">
         <v>15.0</v>
       </c>
+      <c r="K36" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L36" t="n" s="12">
+        <v>0.9375</v>
+      </c>
+      <c r="M36" t="n" s="12">
+        <v>0.9375</v>
+      </c>
       <c r="O36" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
@@ -1728,7 +2016,16 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J37" t="n" s="10">
-        <v>87.0</v>
+        <v>87.5</v>
+      </c>
+      <c r="K37" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L37" t="n" s="12">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="M37" t="n" s="12">
+        <v>0.9583333333333334</v>
       </c>
       <c r="O37" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -1768,6 +2065,15 @@
       <c r="J38" t="n" s="10">
         <v>63.0</v>
       </c>
+      <c r="K38" t="n" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="L38" t="n" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="M38" t="n" s="12">
+        <v>1.0</v>
+      </c>
       <c r="O38" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
@@ -1806,6 +2112,15 @@
       <c r="J39" t="n" s="10">
         <v>105.0</v>
       </c>
+      <c r="K39" t="n" s="12">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="L39" t="n" s="12">
+        <v>0.975</v>
+      </c>
+      <c r="M39" t="n" s="12">
+        <v>0.975</v>
+      </c>
       <c r="O39" t="n" s="12">
         <v>0.925</v>
       </c>
@@ -1844,6 +2159,15 @@
       <c r="J40" t="n" s="10">
         <v>90.0</v>
       </c>
+      <c r="K40" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L40" t="n" s="12">
+        <v>0.9729166666666667</v>
+      </c>
+      <c r="M40" t="n" s="12">
+        <v>0.9729166666666667</v>
+      </c>
       <c r="O40" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
@@ -1880,7 +2204,16 @@
         <v>0.06041666666666667</v>
       </c>
       <c r="J41" t="n" s="10">
-        <v>30.0</v>
+        <v>30.5</v>
+      </c>
+      <c r="K41" t="n" s="12">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L41" t="n" s="12">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="M41" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O41" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -1920,6 +2253,15 @@
       <c r="J42" t="n" s="10">
         <v>23.0</v>
       </c>
+      <c r="K42" t="n" s="12">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L42" t="n" s="12">
+        <v>0.9930555555555556</v>
+      </c>
+      <c r="M42" t="n" s="12">
+        <v>0.9930555555555556</v>
+      </c>
       <c r="O42" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
@@ -1956,7 +2298,16 @@
         <v>0.05138888888888889</v>
       </c>
       <c r="J43" t="n" s="10">
-        <v>48.0</v>
+        <v>48.5</v>
+      </c>
+      <c r="K43" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L43" t="n" s="12">
+        <v>0.9729166666666667</v>
+      </c>
+      <c r="M43" t="n" s="12">
+        <v>0.9729166666666667</v>
       </c>
       <c r="O43" t="n" s="12">
         <v>0.9208333333333333</v>
@@ -1996,6 +2347,15 @@
       <c r="J44" t="n" s="10">
         <v>42.0</v>
       </c>
+      <c r="K44" t="n" s="12">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="L44" t="n" s="12">
+        <v>0.96875</v>
+      </c>
+      <c r="M44" t="n" s="12">
+        <v>0.96875</v>
+      </c>
       <c r="O44" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
@@ -2032,7 +2392,16 @@
         <v>0.03125</v>
       </c>
       <c r="J45" t="n" s="10">
-        <v>39.0</v>
+        <v>39.5</v>
+      </c>
+      <c r="K45" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L45" t="n" s="12">
+        <v>0.9527777777777777</v>
+      </c>
+      <c r="M45" t="n" s="12">
+        <v>0.9527777777777777</v>
       </c>
       <c r="O45" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -2070,7 +2439,16 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J46" t="n" s="10">
-        <v>14.0</v>
+        <v>14.5</v>
+      </c>
+      <c r="K46" t="n" s="12">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="L46" t="n" s="12">
+        <v>0.9652777777777778</v>
+      </c>
+      <c r="M46" t="n" s="12">
+        <v>0.9652777777777778</v>
       </c>
       <c r="O46" t="n" s="12">
         <v>0.9027777777777778</v>
@@ -2108,7 +2486,16 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J47" t="n" s="10">
-        <v>29.0</v>
+        <v>29.5</v>
+      </c>
+      <c r="K47" t="n" s="12">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L47" t="n" s="12">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="M47" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O47" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -2148,6 +2535,15 @@
       <c r="J48" t="n" s="10">
         <v>54.0</v>
       </c>
+      <c r="K48" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L48" t="n" s="12">
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="M48" t="n" s="12">
+        <v>0.9916666666666667</v>
+      </c>
       <c r="O48" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
@@ -2184,7 +2580,16 @@
         <v>0.06944444444444445</v>
       </c>
       <c r="J49" t="n" s="10">
-        <v>34.0</v>
+        <v>34.5</v>
+      </c>
+      <c r="K49" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L49" t="n" s="12">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="M49" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O49" t="n" s="12">
         <v>0.9027777777777778</v>
@@ -2222,7 +2627,16 @@
         <v>0.06458333333333334</v>
       </c>
       <c r="J50" t="n" s="10">
-        <v>55.0</v>
+        <v>55.5</v>
+      </c>
+      <c r="K50" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L50" t="n" s="12">
+        <v>0.9805555555555555</v>
+      </c>
+      <c r="M50" t="n" s="12">
+        <v>0.9805555555555555</v>
       </c>
       <c r="O50" t="n" s="12">
         <v>0.9263888888888889</v>
@@ -2262,6 +2676,15 @@
       <c r="J51" t="n" s="10">
         <v>59.0</v>
       </c>
+      <c r="K51" t="n" s="12">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L51" t="n" s="12">
+        <v>0.9861111111111112</v>
+      </c>
+      <c r="M51" t="n" s="12">
+        <v>0.9861111111111112</v>
+      </c>
       <c r="O51" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
@@ -2298,7 +2721,16 @@
         <v>0.13541666666666666</v>
       </c>
       <c r="J52" t="n" s="10">
-        <v>59.0</v>
+        <v>59.5</v>
+      </c>
+      <c r="K52" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L52" t="n" s="12">
+        <v>1.0104166666666667</v>
+      </c>
+      <c r="M52" t="n" s="12">
+        <v>1.0104166666666667</v>
       </c>
       <c r="O52" t="n" s="12">
         <v>0.8854166666666666</v>
@@ -2336,7 +2768,16 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J53" t="n" s="10">
-        <v>43.0</v>
+        <v>43.5</v>
+      </c>
+      <c r="K53" t="n" s="12">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="L53" t="n" s="12">
+        <v>0.96875</v>
+      </c>
+      <c r="M53" t="n" s="12">
+        <v>0.96875</v>
       </c>
       <c r="O53" t="n" s="12">
         <v>0.9270833333333334</v>
@@ -2376,6 +2817,15 @@
       <c r="J54" t="n" s="10">
         <v>37.0</v>
       </c>
+      <c r="K54" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L54" t="n" s="12">
+        <v>0.9756944444444444</v>
+      </c>
+      <c r="M54" t="n" s="12">
+        <v>0.9756944444444444</v>
+      </c>
       <c r="O54" t="n" s="12">
         <v>0.9194444444444444</v>
       </c>
@@ -2412,7 +2862,16 @@
         <v>0.09583333333333334</v>
       </c>
       <c r="J55" t="n" s="10">
-        <v>37.0</v>
+        <v>37.5</v>
+      </c>
+      <c r="K55" t="n" s="12">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="L55" t="n" s="12">
+        <v>0.9979166666666667</v>
+      </c>
+      <c r="M55" t="n" s="12">
+        <v>0.9979166666666667</v>
       </c>
       <c r="O55" t="n" s="12">
         <v>0.9020833333333333</v>
@@ -2450,7 +2909,16 @@
         <v>0.0625</v>
       </c>
       <c r="J56" t="n" s="10">
-        <v>49.0</v>
+        <v>49.5</v>
+      </c>
+      <c r="K56" t="n" s="12">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L56" t="n" s="12">
+        <v>0.9805555555555555</v>
+      </c>
+      <c r="M56" t="n" s="12">
+        <v>0.9805555555555555</v>
       </c>
       <c r="O56" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -2488,7 +2956,16 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J57" t="n" s="10">
-        <v>14.0</v>
+        <v>14.5</v>
+      </c>
+      <c r="K57" t="n" s="12">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="L57" t="n" s="12">
+        <v>0.9756944444444444</v>
+      </c>
+      <c r="M57" t="n" s="12">
+        <v>0.9756944444444444</v>
       </c>
       <c r="O57" t="n" s="12">
         <v>0.9131944444444444</v>
@@ -2526,7 +3003,16 @@
         <v>0.06944444444444445</v>
       </c>
       <c r="J58" t="n" s="10">
-        <v>32.0</v>
+        <v>32.5</v>
+      </c>
+      <c r="K58" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L58" t="n" s="12">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="M58" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O58" t="n" s="12">
         <v>0.9027777777777778</v>
@@ -2566,6 +3052,15 @@
       <c r="J59" t="n" s="10">
         <v>61.0</v>
       </c>
+      <c r="K59" t="n" s="12">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="L59" t="n" s="12">
+        <v>0.9784722222222222</v>
+      </c>
+      <c r="M59" t="n" s="12">
+        <v>0.9784722222222222</v>
+      </c>
       <c r="O59" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
@@ -2604,6 +3099,15 @@
       <c r="J60" t="n" s="10">
         <v>51.0</v>
       </c>
+      <c r="K60" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L60" t="n" s="12">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="M60" t="n" s="12">
+        <v>0.9833333333333333</v>
+      </c>
       <c r="O60" t="n" s="12">
         <v>0.9083333333333333</v>
       </c>
@@ -2642,6 +3146,15 @@
       <c r="J61" t="n" s="10">
         <v>52.0</v>
       </c>
+      <c r="K61" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L61" t="n" s="12">
+        <v>0.9881944444444445</v>
+      </c>
+      <c r="M61" t="n" s="12">
+        <v>0.9881944444444445</v>
+      </c>
       <c r="O61" t="n" s="12">
         <v>0.9055555555555556</v>
       </c>
@@ -2678,7 +3191,16 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J62" t="n" s="10">
-        <v>14.0</v>
+        <v>14.5</v>
+      </c>
+      <c r="K62" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L62" t="n" s="12">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="M62" t="n" s="12">
+        <v>0.9583333333333334</v>
       </c>
       <c r="O62" t="n" s="12">
         <v>0.8958333333333334</v>
@@ -2716,7 +3238,16 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="J63" t="n" s="10">
-        <v>35.0</v>
+        <v>35.5</v>
+      </c>
+      <c r="K63" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L63" t="n" s="12">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="M63" t="n" s="12">
+        <v>0.9458333333333333</v>
       </c>
       <c r="O63" t="n" s="12">
         <v>0.9125</v>
@@ -2754,7 +3285,16 @@
         <v>0.03125</v>
       </c>
       <c r="J64" t="n" s="10">
-        <v>18.0</v>
+        <v>18.5</v>
+      </c>
+      <c r="K64" t="n" s="12">
+        <v>0.3229166666666667</v>
+      </c>
+      <c r="L64" t="n" s="12">
+        <v>0.9326388888888889</v>
+      </c>
+      <c r="M64" t="n" s="12">
+        <v>0.9326388888888889</v>
       </c>
       <c r="O64" t="n" s="12">
         <v>0.8854166666666666</v>
@@ -2794,6 +3334,15 @@
       <c r="J65" t="n" s="10">
         <v>50.0</v>
       </c>
+      <c r="K65" t="n" s="12">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="L65" t="n" s="12">
+        <v>0.9625</v>
+      </c>
+      <c r="M65" t="n" s="12">
+        <v>0.9625</v>
+      </c>
       <c r="O65" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
@@ -2832,6 +3381,15 @@
       <c r="J66" t="n" s="10">
         <v>51.0</v>
       </c>
+      <c r="K66" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L66" t="n" s="12">
+        <v>0.9868055555555556</v>
+      </c>
+      <c r="M66" t="n" s="12">
+        <v>0.9868055555555556</v>
+      </c>
       <c r="O66" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
@@ -2870,6 +3428,15 @@
       <c r="J67" t="n" s="10">
         <v>61.0</v>
       </c>
+      <c r="K67" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L67" t="n" s="12">
+        <v>0.9881944444444445</v>
+      </c>
+      <c r="M67" t="n" s="12">
+        <v>0.9881944444444445</v>
+      </c>
       <c r="O67" t="n" s="12">
         <v>0.9138888888888889</v>
       </c>
@@ -2906,7 +3473,16 @@
         <v>0.06458333333333334</v>
       </c>
       <c r="J68" t="n" s="10">
-        <v>60.0</v>
+        <v>60.5</v>
+      </c>
+      <c r="K68" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L68" t="n" s="12">
+        <v>0.9708333333333333</v>
+      </c>
+      <c r="M68" t="n" s="12">
+        <v>0.9708333333333333</v>
       </c>
       <c r="O68" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -2944,7 +3520,16 @@
         <v>0.029166666666666667</v>
       </c>
       <c r="J69" t="n" s="10">
-        <v>65.0</v>
+        <v>65.5</v>
+      </c>
+      <c r="K69" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L69" t="n" s="12">
+        <v>0.9625</v>
+      </c>
+      <c r="M69" t="n" s="12">
+        <v>0.9625</v>
       </c>
       <c r="O69" t="n" s="12">
         <v>0.9333333333333333</v>
@@ -2984,6 +3569,15 @@
       <c r="J70" t="n" s="10">
         <v>15.0</v>
       </c>
+      <c r="K70" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L70" t="n" s="12">
+        <v>0.9375</v>
+      </c>
+      <c r="M70" t="n" s="12">
+        <v>0.9375</v>
+      </c>
       <c r="O70" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
@@ -3020,7 +3614,16 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J71" t="n" s="10">
-        <v>31.0</v>
+        <v>31.5</v>
+      </c>
+      <c r="K71" t="n" s="12">
+        <v>0.2847222222222222</v>
+      </c>
+      <c r="L71" t="n" s="12">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="M71" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O71" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -3058,7 +3661,16 @@
         <v>0.034722222222222224</v>
       </c>
       <c r="J72" t="n" s="10">
-        <v>18.0</v>
+        <v>18.5</v>
+      </c>
+      <c r="K72" t="n" s="12">
+        <v>0.2881944444444444</v>
+      </c>
+      <c r="L72" t="n" s="12">
+        <v>0.9618055555555556</v>
+      </c>
+      <c r="M72" t="n" s="12">
+        <v>0.9618055555555556</v>
       </c>
       <c r="O72" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -3098,6 +3710,15 @@
       <c r="J73" t="n" s="10">
         <v>55.0</v>
       </c>
+      <c r="K73" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L73" t="n" s="12">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="M73" t="n" s="12">
+        <v>0.9583333333333334</v>
+      </c>
       <c r="O73" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
@@ -3134,7 +3755,16 @@
         <v>0.022222222222222223</v>
       </c>
       <c r="J74" t="n" s="10">
-        <v>57.0</v>
+        <v>57.5</v>
+      </c>
+      <c r="K74" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L74" t="n" s="12">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="M74" t="n" s="12">
+        <v>0.9583333333333334</v>
       </c>
       <c r="O74" t="n" s="12">
         <v>0.9361111111111111</v>
@@ -3172,7 +3802,16 @@
         <v>0.04861111111111111</v>
       </c>
       <c r="J75" t="n" s="10">
-        <v>12.0</v>
+        <v>12.5</v>
+      </c>
+      <c r="K75" t="n" s="12">
+        <v>0.3090277777777778</v>
+      </c>
+      <c r="L75" t="n" s="12">
+        <v>0.9604166666666667</v>
+      </c>
+      <c r="M75" t="n" s="12">
+        <v>0.9604166666666667</v>
       </c>
       <c r="O75" t="n" s="12">
         <v>0.8854166666666666</v>
@@ -3210,7 +3849,16 @@
         <v>0.0625</v>
       </c>
       <c r="J76" t="n" s="10">
-        <v>8.0</v>
+        <v>8.5</v>
+      </c>
+      <c r="K76" t="n" s="12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L76" t="n" s="12">
+        <v>0.9055555555555556</v>
+      </c>
+      <c r="M76" t="n" s="12">
+        <v>0.9055555555555556</v>
       </c>
       <c r="O76" t="n" s="12">
         <v>0.8118055555555556</v>
@@ -3250,6 +3898,15 @@
       <c r="J77" t="n" s="10">
         <v>13.0</v>
       </c>
+      <c r="K77" t="n" s="12">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="L77" t="n" s="12">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="M77" t="n" s="12">
+        <v>0.9270833333333334</v>
+      </c>
       <c r="O77" t="n" s="12">
         <v>0.84375</v>
       </c>
@@ -3286,7 +3943,16 @@
         <v>0.075</v>
       </c>
       <c r="J78" t="n" s="10">
-        <v>32.0</v>
+        <v>32.5</v>
+      </c>
+      <c r="K78" t="n" s="12">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="L78" t="n" s="12">
+        <v>0.9840277777777777</v>
+      </c>
+      <c r="M78" t="n" s="12">
+        <v>0.9840277777777777</v>
       </c>
       <c r="O78" t="n" s="12">
         <v>0.9041666666666667</v>
@@ -3326,6 +3992,15 @@
       <c r="J79" t="n" s="10">
         <v>52.0</v>
       </c>
+      <c r="K79" t="n" s="12">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="L79" t="n" s="12">
+        <v>0.9840277777777777</v>
+      </c>
+      <c r="M79" t="n" s="12">
+        <v>0.9840277777777777</v>
+      </c>
       <c r="O79" t="n" s="12">
         <v>0.8951388888888889</v>
       </c>
@@ -3364,6 +4039,15 @@
       <c r="J80" t="n" s="10">
         <v>43.0</v>
       </c>
+      <c r="K80" t="n" s="12">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="L80" t="n" s="12">
+        <v>0.98125</v>
+      </c>
+      <c r="M80" t="n" s="12">
+        <v>0.98125</v>
+      </c>
       <c r="O80" t="n" s="12">
         <v>0.9083333333333333</v>
       </c>
@@ -3402,6 +4086,15 @@
       <c r="J81" t="n" s="10">
         <v>71.0</v>
       </c>
+      <c r="K81" t="n" s="12">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L81" t="n" s="12">
+        <v>0.9805555555555555</v>
+      </c>
+      <c r="M81" t="n" s="12">
+        <v>0.9805555555555555</v>
+      </c>
       <c r="O81" t="n" s="12">
         <v>0.9111111111111111</v>
       </c>
@@ -3438,7 +4131,16 @@
         <v>0.04583333333333333</v>
       </c>
       <c r="J82" t="n" s="10">
-        <v>26.0</v>
+        <v>26.5</v>
+      </c>
+      <c r="K82" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L82" t="n" s="12">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="M82" t="n" s="12">
+        <v>0.9583333333333334</v>
       </c>
       <c r="O82" t="n" s="12">
         <v>0.9090277777777778</v>
@@ -3478,6 +4180,15 @@
       <c r="J83" t="n" s="10">
         <v>58.0</v>
       </c>
+      <c r="K83" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L83" t="n" s="12">
+        <v>0.9729166666666667</v>
+      </c>
+      <c r="M83" t="n" s="12">
+        <v>0.9729166666666667</v>
+      </c>
       <c r="O83" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
@@ -3516,6 +4227,15 @@
       <c r="J84" t="n" s="10">
         <v>33.0</v>
       </c>
+      <c r="K84" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L84" t="n" s="12">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="M84" t="n" s="12">
+        <v>0.9666666666666667</v>
+      </c>
       <c r="O84" t="n" s="12">
         <v>0.9020833333333333</v>
       </c>
@@ -3552,7 +4272,16 @@
         <v>0.0625</v>
       </c>
       <c r="J85" t="n" s="10">
-        <v>49.0</v>
+        <v>49.5</v>
+      </c>
+      <c r="K85" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L85" t="n" s="12">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="M85" t="n" s="12">
+        <v>0.9791666666666666</v>
       </c>
       <c r="O85" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -3590,7 +4319,16 @@
         <v>0.04722222222222222</v>
       </c>
       <c r="J86" t="n" s="10">
-        <v>51.0</v>
+        <v>51.5</v>
+      </c>
+      <c r="K86" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L86" t="n" s="12">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="M86" t="n" s="12">
+        <v>0.9645833333333333</v>
       </c>
       <c r="O86" t="n" s="12">
         <v>0.9173611111111111</v>
@@ -3628,7 +4366,16 @@
         <v>0.09930555555555555</v>
       </c>
       <c r="J87" t="n" s="10">
-        <v>40.0</v>
+        <v>40.5</v>
+      </c>
+      <c r="K87" t="n" s="12">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="L87" t="n" s="12">
+        <v>0.9958333333333333</v>
+      </c>
+      <c r="M87" t="n" s="12">
+        <v>0.9958333333333333</v>
       </c>
       <c r="O87" t="n" s="12">
         <v>0.8965277777777778</v>
@@ -3666,7 +4413,16 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J88" t="n" s="10">
-        <v>57.0</v>
+        <v>57.5</v>
+      </c>
+      <c r="K88" t="n" s="12">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="L88" t="n" s="12">
+        <v>0.9652777777777778</v>
+      </c>
+      <c r="M88" t="n" s="12">
+        <v>0.9652777777777778</v>
       </c>
       <c r="O88" t="n" s="12">
         <v>0.9236111111111112</v>
@@ -3706,6 +4462,15 @@
       <c r="J89" t="n" s="10">
         <v>33.0</v>
       </c>
+      <c r="K89" t="n" s="12">
+        <v>0.2972222222222222</v>
+      </c>
+      <c r="L89" t="n" s="12">
+        <v>1.0006944444444446</v>
+      </c>
+      <c r="M89" t="n" s="12">
+        <v>1.0006944444444446</v>
+      </c>
       <c r="O89" t="n" s="12">
         <v>0.9159722222222222</v>
       </c>
@@ -3744,6 +4509,15 @@
       <c r="J90" t="n" s="10">
         <v>34.0</v>
       </c>
+      <c r="K90" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L90" t="n" s="12">
+        <v>0.9958333333333333</v>
+      </c>
+      <c r="M90" t="n" s="12">
+        <v>0.9958333333333333</v>
+      </c>
       <c r="O90" t="n" s="12">
         <v>0.9055555555555556</v>
       </c>
@@ -3780,7 +4554,16 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="J91" t="n" s="10">
-        <v>22.0</v>
+        <v>22.5</v>
+      </c>
+      <c r="K91" t="n" s="12">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L91" t="n" s="12">
+        <v>0.9701388888888889</v>
+      </c>
+      <c r="M91" t="n" s="12">
+        <v>0.9701388888888889</v>
       </c>
       <c r="O91" t="n" s="12">
         <v>0.9020833333333333</v>
@@ -3820,6 +4603,15 @@
       <c r="J92" t="n" s="10">
         <v>25.0</v>
       </c>
+      <c r="K92" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L92" t="n" s="12">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="M92" t="n" s="12">
+        <v>0.9479166666666666</v>
+      </c>
       <c r="O92" t="n" s="12">
         <v>0.8993055555555556</v>
       </c>
@@ -3856,7 +4648,16 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="J93" t="n" s="10">
-        <v>22.0</v>
+        <v>22.5</v>
+      </c>
+      <c r="K93" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L93" t="n" s="12">
+        <v>0.9861111111111112</v>
+      </c>
+      <c r="M93" t="n" s="12">
+        <v>0.9861111111111112</v>
       </c>
       <c r="O93" t="n" s="12">
         <v>0.8756944444444444</v>
@@ -3894,7 +4695,16 @@
         <v>0.0763888888888889</v>
       </c>
       <c r="J94" t="n" s="10">
-        <v>8.0</v>
+        <v>8.5</v>
+      </c>
+      <c r="K94" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L94" t="n" s="12">
+        <v>0.9826388888888888</v>
+      </c>
+      <c r="M94" t="n" s="12">
+        <v>0.9826388888888888</v>
       </c>
       <c r="O94" t="n" s="12">
         <v>0.8680555555555556</v>
@@ -3934,6 +4744,15 @@
       <c r="J95" t="n" s="10">
         <v>36.0</v>
       </c>
+      <c r="K95" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L95" t="n" s="12">
+        <v>0.9861111111111112</v>
+      </c>
+      <c r="M95" t="n" s="12">
+        <v>0.9861111111111112</v>
+      </c>
       <c r="O95" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
@@ -3970,7 +4789,16 @@
         <v>0.04861111111111111</v>
       </c>
       <c r="J96" t="n" s="10">
-        <v>12.0</v>
+        <v>12.5</v>
+      </c>
+      <c r="K96" t="n" s="12">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="L96" t="n" s="12">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="M96" t="n" s="12">
+        <v>0.9666666666666667</v>
       </c>
       <c r="O96" t="n" s="12">
         <v>0.8958333333333334</v>
@@ -4010,6 +4838,15 @@
       <c r="J97" t="n" s="10">
         <v>30.0</v>
       </c>
+      <c r="K97" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L97" t="n" s="12">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="M97" t="n" s="12">
+        <v>0.9583333333333334</v>
+      </c>
       <c r="O97" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
@@ -4046,7 +4883,16 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="J98" t="n" s="10">
-        <v>21.0</v>
+        <v>21.5</v>
+      </c>
+      <c r="K98" t="n" s="12">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="L98" t="n" s="12">
+        <v>0.9631944444444445</v>
+      </c>
+      <c r="M98" t="n" s="12">
+        <v>0.9631944444444445</v>
       </c>
       <c r="O98" t="n" s="12">
         <v>0.89375</v>
@@ -4086,6 +4932,15 @@
       <c r="J99" t="n" s="10">
         <v>56.0</v>
       </c>
+      <c r="K99" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L99" t="n" s="12">
+        <v>0.9756944444444444</v>
+      </c>
+      <c r="M99" t="n" s="12">
+        <v>0.9756944444444444</v>
+      </c>
       <c r="O99" t="n" s="12">
         <v>0.925</v>
       </c>
@@ -4122,7 +4977,16 @@
         <v>0.04861111111111111</v>
       </c>
       <c r="J100" t="n" s="10">
-        <v>25.0</v>
+        <v>25.5</v>
+      </c>
+      <c r="K100" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L100" t="n" s="12">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="M100" t="n" s="12">
+        <v>0.9479166666666666</v>
       </c>
       <c r="O100" t="n" s="12">
         <v>0.8993055555555556</v>
@@ -4162,6 +5026,15 @@
       <c r="J101" t="n" s="10">
         <v>36.0</v>
       </c>
+      <c r="K101" t="n" s="12">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="L101" t="n" s="12">
+        <v>0.9770833333333333</v>
+      </c>
+      <c r="M101" t="n" s="12">
+        <v>0.9770833333333333</v>
+      </c>
       <c r="O101" t="n" s="12">
         <v>0.9131944444444444</v>
       </c>
@@ -4200,6 +5073,15 @@
       <c r="J102" t="n" s="10">
         <v>82.0</v>
       </c>
+      <c r="K102" t="n" s="12">
+        <v>0.2881944444444444</v>
+      </c>
+      <c r="L102" t="n" s="12">
+        <v>0.9826388888888888</v>
+      </c>
+      <c r="M102" t="n" s="12">
+        <v>0.9826388888888888</v>
+      </c>
       <c r="O102" t="n" s="12">
         <v>0.9375</v>
       </c>
@@ -4236,7 +5118,16 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="J103" t="n" s="10">
-        <v>75.0</v>
+        <v>75.5</v>
+      </c>
+      <c r="K103" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L103" t="n" s="12">
+        <v>1.011111111111111</v>
+      </c>
+      <c r="M103" t="n" s="12">
+        <v>1.011111111111111</v>
       </c>
       <c r="O103" t="n" s="12">
         <v>0.9354166666666667</v>
@@ -4274,7 +5165,16 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J104" t="n" s="10">
-        <v>59.0</v>
+        <v>59.5</v>
+      </c>
+      <c r="K104" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L104" t="n" s="12">
+        <v>0.9652777777777778</v>
+      </c>
+      <c r="M104" t="n" s="12">
+        <v>0.9652777777777778</v>
       </c>
       <c r="O104" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -4314,6 +5214,15 @@
       <c r="J105" t="n" s="10">
         <v>60.0</v>
       </c>
+      <c r="K105" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L105" t="n" s="12">
+        <v>0.9861111111111112</v>
+      </c>
+      <c r="M105" t="n" s="12">
+        <v>0.9861111111111112</v>
+      </c>
       <c r="O105" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
@@ -4352,6 +5261,15 @@
       <c r="J106" t="n" s="10">
         <v>69.0</v>
       </c>
+      <c r="K106" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L106" t="n" s="12">
+        <v>0.9729166666666667</v>
+      </c>
+      <c r="M106" t="n" s="12">
+        <v>0.9729166666666667</v>
+      </c>
       <c r="O106" t="n" s="12">
         <v>0.9256944444444445</v>
       </c>
@@ -4390,6 +5308,15 @@
       <c r="J107" t="n" s="10">
         <v>136.0</v>
       </c>
+      <c r="K107" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L107" t="n" s="12">
+        <v>0.9673611111111111</v>
+      </c>
+      <c r="M107" t="n" s="12">
+        <v>0.9673611111111111</v>
+      </c>
       <c r="O107" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
@@ -4426,7 +5353,16 @@
         <v>0.09375</v>
       </c>
       <c r="J108" t="n" s="10">
-        <v>61.0</v>
+        <v>61.5</v>
+      </c>
+      <c r="K108" t="n" s="12">
+        <v>0.2881944444444444</v>
+      </c>
+      <c r="L108" t="n" s="12">
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="M108" t="n" s="12">
+        <v>0.9916666666666667</v>
       </c>
       <c r="O108" t="n" s="12">
         <v>0.9291666666666667</v>
@@ -4466,6 +5402,15 @@
       <c r="J109" t="n" s="10">
         <v>92.0</v>
       </c>
+      <c r="K109" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L109" t="n" s="12">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="M109" t="n" s="12">
+        <v>0.9722222222222222</v>
+      </c>
       <c r="O109" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
@@ -4502,7 +5447,16 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="J110" t="n" s="10">
-        <v>89.0</v>
+        <v>89.5</v>
+      </c>
+      <c r="K110" t="n" s="12">
+        <v>0.2881944444444444</v>
+      </c>
+      <c r="L110" t="n" s="12">
+        <v>0.9930555555555556</v>
+      </c>
+      <c r="M110" t="n" s="12">
+        <v>0.9930555555555556</v>
       </c>
       <c r="O110" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -4542,6 +5496,15 @@
       <c r="J111" t="n" s="10">
         <v>71.0</v>
       </c>
+      <c r="K111" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L111" t="n" s="12">
+        <v>0.9868055555555556</v>
+      </c>
+      <c r="M111" t="n" s="12">
+        <v>0.9868055555555556</v>
+      </c>
       <c r="O111" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
@@ -4580,6 +5543,15 @@
       <c r="J112" t="n" s="10">
         <v>64.0</v>
       </c>
+      <c r="K112" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L112" t="n" s="12">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="M112" t="n" s="12">
+        <v>0.9777777777777777</v>
+      </c>
       <c r="O112" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
@@ -4618,6 +5590,15 @@
       <c r="J113" t="n" s="10">
         <v>71.0</v>
       </c>
+      <c r="K113" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L113" t="n" s="12">
+        <v>0.9784722222222222</v>
+      </c>
+      <c r="M113" t="n" s="12">
+        <v>0.9784722222222222</v>
+      </c>
       <c r="O113" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
@@ -4656,6 +5637,15 @@
       <c r="J114" t="n" s="10">
         <v>68.0</v>
       </c>
+      <c r="K114" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L114" t="n" s="12">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="M114" t="n" s="12">
+        <v>0.9722222222222222</v>
+      </c>
       <c r="O114" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
@@ -4693,6 +5683,15 @@
       </c>
       <c r="J115" t="n" s="10">
         <v>84.0</v>
+      </c>
+      <c r="K115" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L115" t="n" s="12">
+        <v>0.9701388888888889</v>
+      </c>
+      <c r="M115" t="n" s="12">
+        <v>0.9701388888888889</v>
       </c>
       <c r="O115" t="n" s="12">
         <v>0.9298611111111111</v>

--- a/downloads/ds.xlsx
+++ b/downloads/ds.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="231">
   <si>
     <t xml:space="preserve">მარშრუტის. № </t>
   </si>
@@ -390,14 +390,6 @@
     <t>სოფელი გლდანი</t>
   </si>
   <si>
-    <t>სოფელ გლდანი (ბორის პაიჭაძის ქ. #18 სახლის მიმდებარედ) - სოფელი გლდანი (ბორის პაიჭაძის ქ. - ვიტალი დარასელიას ქ. - ვახტანგ გორგასალის ქ. – 26 მაისის ქ.).   - ლიბანის შესახვევი - ლიბანის ქუჩა - იპოლიტე-ივანოვის ქუჩა ქერჩის ქუჩა - აკაკი ვასაძის ქუჩა - ომარ ხიხანიშვილის ქ. - მ/ს 'ახმეტელის თეატრი' (მიმდებარე ტერიტორია).
-უკუ მიმართულებით: მ/ს 'ახმეტელის თეატრი' (მიმდებარე ტერიტორია) - ილია ვეკუას ქ.  - აკაკი ვასაძის ქ. - შემდეგ იგივე სქემით.</t>
-  </si>
-  <si>
-    <t>სოფელ გლდანი (26 მაისის ქ. #83- 26 მაისის ქუჩა).   - ლიბანის შესახვევი - ლიბანის ქუჩა - იპოლიტე-ივანოვის ქუჩა -  ქერჩის ქუჩა - აკაკი ვასაძის ქუჩა - ომარ ხიხანიშვილის ქ. - მ/ს 'ახმეტელის თეატრი' (მიმდებარე ტერიტორია).
-უკუ მიმართულებით: მ/ს 'ახმეტელის თეატრი' (მიმდებარე ტერიტორია) - ილია ვეკუას ქ. - აკაკი ვასაძის ქ. - შემდეგ იგივე სქემით.</t>
-  </si>
-  <si>
     <t xml:space="preserve">აკაკი ბელიაშვილის ქ. (#40-ის მიმდებარედ) - აკაკი ბელიაშვილის ქ. - სანდრო ახმეტელის ქ - რობერტ ბარძიმაშვილის ქ. - პაიჭაძის ქ. (მობრუნება პაიჭაძის ქ. #5'ა'-სთან) - ევგენი მიქელაძის ქ. - აკაკი ბელიაშვილის ქ. - აკაკი ბაქრაძის ქ. - გრიგოლ რობაქიძის გამზირი - შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - გიორგი ცაბაძის ქ. - დავით აღმაშენებლის გამზირი - თამარ მეფის გამზირი - გმირთა მოედანი - ვარაზისხევის ქ. - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. - ნიკოლოზ ბარათაშვილის ქ. - ნიკოლოზ ბარათაშვილის ხიდი - ნიკოლოზ ბარათაშვილის აღმართი - მ/ს ,,ავლაბარი' (მიმდებარედ).
 უკუმიმართულებით: მ/ს ,,ავლაბარი' (მიმდებარედ) - ნიკოლოზ ბარათაშვილის აღმართი - ნიკოლოზ ბარათაშვილის ხიდი - მარჯვენა სანაპირო - მიხეილ ჯავახიშვილის ქუჩა - რუსთაველის გამზირი - მერაბ კოსტავას ქ. - გმირთა მოედანი - თამარ მეფის გამზირი - მიხეილ წინამძღვრიშვილის ქ. - აკაკი წერეთლის გამზირი - შალიკაშვილის ხიდი  - აკაკი ბელიაშვილის ქ. (მობრუნება ჯორჯ ბალანჩინის ქუჩაზე, 'Mcdonald's'-ის მიმდებარედ) - აკაკი ბელიაშვილის ქ. (#40-ის მიმდებარედ).
 </t>
@@ -665,13 +657,6 @@
     <t>ნუცუბიძის V მ/რ</t>
   </si>
   <si>
-    <t>საქართველოს სასჯელაღსრულების, პრობაციისა და იურიდიული დახმარების საკითხთა სამინისტროს სასჯელაღსრულების დეპარტამეტის დაქვემდებარებაში არსებული N6 დაწესებულება - სოფელი კრწანისი - კრწანისის სასწავლო ცენტრი - შსს-ოს აგარაკები - გიგანტის დასახლება - ზოოვეტერინარული ინსტიტუტის დასახლება - სოფ. სოღანლუღი - ქვემო ფონიჭალის დასახლება - რუსთავის გზატკეცილი - გორგასლის ქ. - მეტეხის ხიდი - რიყე - მარცხენა სანაპირო - ბარათაშვილის ქ. (მობრუნება ბარათაშვილისა და პუშკინის ქუჩების გადაკვეთასთან, გაჩერება 'კონკის' მხარეს)
-უკუ მიმართულებით: ბარათაშვილის ქ. ('კონკის' მხარეს) - მარჯვენა სანაპირო - გორგასალის ქ. - შემდეგ იგივე სქემით</t>
-  </si>
-  <si>
-    <t>№6-ე სასჯელ-აღსრულების დაწესებულება</t>
-  </si>
-  <si>
     <t xml:space="preserve">სოფელი ტაბახმელა (#7 და #6 სახლების გზაგამყოფის მიმდებარედ ) - თბილისი-კოჯრის ქ. (სოფ. შინდისის, სოფელი წავკისის, წავკისის ველის გავლით) - კოჯრის გზატკეცილი - მარო მაყაშვილის აღმართი - მარო მაყაშვილის ქ. - ამაღლების ქ. - ლადო ასათიანის შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).                                             უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – გიორგი ლეონიძის ქ. – მიხეილ ლერმონტოვის ქ. - პაოლო იაშვილის ქ. - ამაღლების ქ. -  მარო მაყაშვილის ქ. - მარო მაყაშვილის აღმართი - კოჯრის გზატკეცილი - თბილისი-კოჯრის ქ. ( წავკისის ველის, სოფელი წავკისის, სოფ. შინდისის გავლით) - სოფელი ტაბახმელა (კვირაცხოვლის ქ. - საცხოვრებელი კორპუსი - იაშაღაშვილის ქ. - #7,11,12,13,14 სახლი - #6,5,4,3,2,1 სახლი - #7 და #6 სახლების გზაგამყოფის მიმდებარედ). </t>
   </si>
   <si>
@@ -682,6 +667,13 @@
   </si>
   <si>
     <t>სოფელი დიღომი</t>
+  </si>
+  <si>
+    <t>დაბა კიკეთი - თბილისი-კოჯრის გზა (სოფ. დიდება, დაბა კოჯორი, სოფ. ტაბახმელა, სოფ. შინდისი, სოფ. წავკისი, წავკისის ველის გავლით) - კოჯრის გზატკეცილი - მარო მაყაშვილის აღმართი - მარო მაყაშვილის ქ. - ამაღლების ქ. - ლადო ასათიანის შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი -ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ)
+უკუმიმართულებით:  ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – გიორგი ლეონიძის ქ. – მიხეილ ლერმონტოვის ქ. – პაოლო იაშვილის ქ. – ამაღლების ქ. – მარო მაყაშვილის ქ. – მარო მაყაშვილის აღმართი – კოჯრის გზატკეცილი – შემდეგ არსებული სქემით.</t>
+  </si>
+  <si>
+    <t>კიკეთი</t>
   </si>
   <si>
     <t>სოფ. ლისი - სოფ. თხინვალი - ახალი იპოდრომი -  ნუცუბიძის IV-II მ/რ - ჟღენტის ქ. - ნუცუბიძის ქ. - თავაძის ქ. - ზაქარიაძის ქ. - ვაჟა ფშაველას ჩიხი - მ/ს 'დელისი' (მიმდებარედ) 
@@ -2638,6 +2630,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s" s="3">
+        <f>SUM(F5:F114)</f>
         <v>5</v>
       </c>
       <c r="G1" t="s" s="1">
@@ -5457,9 +5450,7 @@
       <c r="B46" t="n" s="6">
         <v>3.0</v>
       </c>
-      <c r="C46" t="s" s="6">
-        <v>114</v>
-      </c>
+      <c r="C46" s="6"/>
       <c r="D46" t="s" s="6">
         <v>21</v>
       </c>
@@ -5493,9 +5484,7 @@
       <c r="N46" t="n" s="11">
         <v>0.96875</v>
       </c>
-      <c r="O46" t="s" s="9">
-        <v>28</v>
-      </c>
+      <c r="O46" s="9"/>
       <c r="P46" t="n" s="11">
         <v>0.9027777777777778</v>
       </c>
@@ -5520,9 +5509,7 @@
       <c r="B47" t="n" s="6">
         <v>3.0</v>
       </c>
-      <c r="C47" t="s" s="6">
-        <v>115</v>
-      </c>
+      <c r="C47" s="6"/>
       <c r="D47" t="s" s="6">
         <v>21</v>
       </c>
@@ -5556,9 +5543,7 @@
       <c r="N47" t="n" s="11">
         <v>0.9791666666666666</v>
       </c>
-      <c r="O47" t="s" s="9">
-        <v>28</v>
-      </c>
+      <c r="O47" s="9"/>
       <c r="P47" t="n" s="11">
         <v>0.9305555555555556</v>
       </c>
@@ -5584,7 +5569,7 @@
         <v>2.0</v>
       </c>
       <c r="C48" t="s" s="6">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s" s="6">
         <v>21</v>
@@ -5620,7 +5605,7 @@
         <v>1.0097222222222222</v>
       </c>
       <c r="O48" t="s" s="9">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P48" t="n" s="11">
         <v>0.9027777777777778</v>
@@ -5629,7 +5614,7 @@
         <v>0.9472222222222222</v>
       </c>
       <c r="R48" t="s" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S48" t="n" s="11">
         <v>0.9243055555555556</v>
@@ -5649,7 +5634,7 @@
         <v>3.0</v>
       </c>
       <c r="C49" t="s" s="6">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s" s="6">
         <v>21</v>
@@ -5685,7 +5670,7 @@
         <v>0.9875</v>
       </c>
       <c r="O49" t="s" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P49" t="n" s="11">
         <v>0.9027777777777778</v>
@@ -5714,7 +5699,7 @@
         <v>3.0</v>
       </c>
       <c r="C50" t="s" s="6">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s" s="6">
         <v>21</v>
@@ -5750,7 +5735,7 @@
         <v>0.9909722222222223</v>
       </c>
       <c r="O50" t="s" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P50" t="n" s="11">
         <v>0.9263888888888889</v>
@@ -5779,7 +5764,7 @@
         <v>1.0</v>
       </c>
       <c r="C51" t="s" s="6">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D51" t="s" s="6">
         <v>21</v>
@@ -5815,7 +5800,7 @@
         <v>0.9951388888888889</v>
       </c>
       <c r="O51" t="s" s="9">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P51" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -5844,7 +5829,7 @@
         <v>2.0</v>
       </c>
       <c r="C52" t="s" s="6">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s" s="6">
         <v>21</v>
@@ -5880,7 +5865,7 @@
         <v>1.0229166666666667</v>
       </c>
       <c r="O52" t="s" s="9">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P52" t="n" s="11">
         <v>0.8854166666666666</v>
@@ -5909,7 +5894,7 @@
         <v>3.0</v>
       </c>
       <c r="C53" t="s" s="6">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D53" t="s" s="6">
         <v>21</v>
@@ -5945,7 +5930,7 @@
         <v>0.98125</v>
       </c>
       <c r="O53" t="s" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P53" t="n" s="11">
         <v>0.9270833333333334</v>
@@ -5974,7 +5959,7 @@
         <v>3.0</v>
       </c>
       <c r="C54" t="s" s="6">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s" s="6">
         <v>21</v>
@@ -6010,7 +5995,7 @@
         <v>0.9875</v>
       </c>
       <c r="O54" t="s" s="9">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P54" t="n" s="11">
         <v>0.9194444444444444</v>
@@ -6039,7 +6024,7 @@
         <v>2.0</v>
       </c>
       <c r="C55" t="s" s="6">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D55" t="s" s="6">
         <v>21</v>
@@ -6104,7 +6089,7 @@
         <v>1.0</v>
       </c>
       <c r="C56" t="s" s="6">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D56" t="s" s="6">
         <v>21</v>
@@ -6140,7 +6125,7 @@
         <v>0.9909722222222223</v>
       </c>
       <c r="O56" t="s" s="9">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P56" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -6169,7 +6154,7 @@
         <v>1.0</v>
       </c>
       <c r="C57" t="s" s="6">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D57" t="s" s="6">
         <v>21</v>
@@ -6214,7 +6199,7 @@
         <v>0.9548611111111112</v>
       </c>
       <c r="R57" t="s" s="9">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="S57" t="n" s="11">
         <v>0.8923611111111112</v>
@@ -6234,7 +6219,7 @@
         <v>1.0</v>
       </c>
       <c r="C58" t="s" s="6">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D58" t="s" s="6">
         <v>21</v>
@@ -6270,7 +6255,7 @@
         <v>0.9895833333333334</v>
       </c>
       <c r="O58" t="s" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P58" t="n" s="11">
         <v>0.9027777777777778</v>
@@ -6299,7 +6284,7 @@
         <v>1.0</v>
       </c>
       <c r="C59" t="s" s="6">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D59" t="s" s="6">
         <v>21</v>
@@ -6364,7 +6349,7 @@
         <v>3.0</v>
       </c>
       <c r="C60" t="s" s="6">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D60" t="s" s="6">
         <v>21</v>
@@ -6400,7 +6385,7 @@
         <v>0.9916666666666667</v>
       </c>
       <c r="O60" t="s" s="9">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P60" t="n" s="11">
         <v>0.9083333333333333</v>
@@ -6429,7 +6414,7 @@
         <v>3.0</v>
       </c>
       <c r="C61" t="s" s="6">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D61" t="s" s="6">
         <v>21</v>
@@ -6465,7 +6450,7 @@
         <v>0.99375</v>
       </c>
       <c r="O61" t="s" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P61" t="n" s="11">
         <v>0.9055555555555556</v>
@@ -6494,7 +6479,7 @@
         <v>1.0</v>
       </c>
       <c r="C62" t="s" s="6">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s" s="6">
         <v>21</v>
@@ -6530,7 +6515,7 @@
         <v>0.9659722222222222</v>
       </c>
       <c r="O62" t="s" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P62" t="n" s="11">
         <v>0.8958333333333334</v>
@@ -6539,7 +6524,7 @@
         <v>0.9375</v>
       </c>
       <c r="R62" t="s" s="9">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S62" t="n" s="11">
         <v>0.875</v>
@@ -6559,7 +6544,7 @@
         <v>3.0</v>
       </c>
       <c r="C63" t="s" s="6">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D63" t="s" s="6">
         <v>21</v>
@@ -6595,7 +6580,7 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="O63" t="s" s="9">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P63" t="n" s="11">
         <v>0.9125</v>
@@ -6624,7 +6609,7 @@
         <v>1.0</v>
       </c>
       <c r="C64" t="s" s="6">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D64" t="s" s="6">
         <v>21</v>
@@ -6660,7 +6645,7 @@
         <v>0.9368055555555556</v>
       </c>
       <c r="O64" t="s" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P64" t="n" s="11">
         <v>0.8854166666666666</v>
@@ -6669,7 +6654,7 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="R64" t="s" s="9">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="S64" t="n" s="11">
         <v>0.8701388888888889</v>
@@ -6689,7 +6674,7 @@
         <v>3.0</v>
       </c>
       <c r="C65" t="s" s="6">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s" s="6">
         <v>21</v>
@@ -6725,7 +6710,7 @@
         <v>0.9729166666666667</v>
       </c>
       <c r="O65" t="s" s="9">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P65" t="n" s="11">
         <v>0.9215277777777777</v>
@@ -6754,7 +6739,7 @@
         <v>2.0</v>
       </c>
       <c r="C66" t="s" s="6">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D66" t="s" s="6">
         <v>21</v>
@@ -6790,7 +6775,7 @@
         <v>1.0027777777777778</v>
       </c>
       <c r="O66" t="s" s="9">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P66" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -6819,7 +6804,7 @@
         <v>1.0</v>
       </c>
       <c r="C67" t="s" s="6">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D67" t="s" s="6">
         <v>21</v>
@@ -6884,7 +6869,7 @@
         <v>1.0</v>
       </c>
       <c r="C68" t="s" s="6">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D68" t="s" s="6">
         <v>21</v>
@@ -6920,7 +6905,7 @@
         <v>0.9791666666666666</v>
       </c>
       <c r="O68" t="s" s="9">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P68" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -6929,7 +6914,7 @@
         <v>0.9381944444444444</v>
       </c>
       <c r="R68" t="s" s="9">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S68" t="n" s="11">
         <v>0.9277777777777778</v>
@@ -6949,7 +6934,7 @@
         <v>3.0</v>
       </c>
       <c r="C69" t="s" s="6">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D69" t="s" s="6">
         <v>21</v>
@@ -6985,7 +6970,7 @@
         <v>0.9680555555555556</v>
       </c>
       <c r="O69" t="s" s="9">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P69" t="n" s="11">
         <v>0.9333333333333333</v>
@@ -7014,7 +6999,7 @@
         <v>3.0</v>
       </c>
       <c r="C70" t="s" s="6">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D70" t="s" s="6">
         <v>21</v>
@@ -7050,7 +7035,7 @@
         <v>0.9395833333333333</v>
       </c>
       <c r="O70" t="s" s="9">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P70" t="n" s="11">
         <v>0.8541666666666666</v>
@@ -7059,7 +7044,7 @@
         <v>0.8958333333333334</v>
       </c>
       <c r="R70" t="s" s="9">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S70" t="n" s="11">
         <v>0.875</v>
@@ -7079,7 +7064,7 @@
         <v>3.0</v>
       </c>
       <c r="C71" t="s" s="6">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D71" t="s" s="6">
         <v>21</v>
@@ -7115,7 +7100,7 @@
         <v>0.9777777777777777</v>
       </c>
       <c r="O71" t="s" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P71" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -7124,7 +7109,7 @@
         <v>0.9513888888888888</v>
       </c>
       <c r="R71" t="s" s="9">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S71" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -7144,7 +7129,7 @@
         <v>3.0</v>
       </c>
       <c r="C72" t="s" s="6">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D72" t="s" s="6">
         <v>21</v>
@@ -7180,7 +7165,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="O72" t="s" s="9">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P72" t="n" s="11">
         <v>0.9097222222222222</v>
@@ -7209,7 +7194,7 @@
         <v>3.0</v>
       </c>
       <c r="C73" t="s" s="6">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D73" t="s" s="6">
         <v>21</v>
@@ -7245,7 +7230,7 @@
         <v>0.9715277777777778</v>
       </c>
       <c r="O73" t="s" s="9">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P73" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -7274,7 +7259,7 @@
         <v>2.0</v>
       </c>
       <c r="C74" t="s" s="6">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D74" t="s" s="6">
         <v>21</v>
@@ -7310,7 +7295,7 @@
         <v>0.9673611111111111</v>
       </c>
       <c r="O74" t="s" s="9">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P74" t="n" s="11">
         <v>0.9361111111111111</v>
@@ -7339,7 +7324,7 @@
         <v>1.0</v>
       </c>
       <c r="C75" t="s" s="6">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D75" t="s" s="6">
         <v>21</v>
@@ -7404,7 +7389,7 @@
         <v>1.0</v>
       </c>
       <c r="C76" t="s" s="6">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D76" t="s" s="6">
         <v>21</v>
@@ -7440,7 +7425,7 @@
         <v>0.9319444444444445</v>
       </c>
       <c r="O76" t="s" s="9">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P76" t="n" s="11">
         <v>0.8118055555555556</v>
@@ -7449,7 +7434,7 @@
         <v>0.8743055555555556</v>
       </c>
       <c r="R76" t="s" s="9">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="S76" t="n" s="11">
         <v>0.7805555555555556</v>
@@ -7469,7 +7454,7 @@
         <v>1.0</v>
       </c>
       <c r="C77" t="s" s="6">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D77" t="s" s="6">
         <v>21</v>
@@ -7534,7 +7519,7 @@
         <v>3.0</v>
       </c>
       <c r="C78" t="s" s="6">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D78" t="s" s="6">
         <v>21</v>
@@ -7570,7 +7555,7 @@
         <v>0.9944444444444445</v>
       </c>
       <c r="O78" t="s" s="9">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P78" t="n" s="11">
         <v>0.9041666666666667</v>
@@ -7599,7 +7584,7 @@
         <v>2.0</v>
       </c>
       <c r="C79" t="s" s="6">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D79" t="s" s="6">
         <v>21</v>
@@ -7635,7 +7620,7 @@
         <v>0.9993055555555556</v>
       </c>
       <c r="O79" t="s" s="9">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P79" t="n" s="11">
         <v>0.8951388888888889</v>
@@ -7664,7 +7649,7 @@
         <v>2.0</v>
       </c>
       <c r="C80" t="s" s="6">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D80" t="s" s="6">
         <v>21</v>
@@ -7729,7 +7714,7 @@
         <v>2.0</v>
       </c>
       <c r="C81" t="s" s="6">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s" s="6">
         <v>21</v>
@@ -7765,7 +7750,7 @@
         <v>0.9972222222222222</v>
       </c>
       <c r="O81" t="s" s="9">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P81" t="n" s="11">
         <v>0.9111111111111111</v>
@@ -7794,7 +7779,7 @@
         <v>3.0</v>
       </c>
       <c r="C82" t="s" s="6">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D82" t="s" s="6">
         <v>21</v>
@@ -7830,7 +7815,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="O82" t="s" s="9">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P82" t="n" s="11">
         <v>0.9090277777777778</v>
@@ -7839,7 +7824,7 @@
         <v>0.9375</v>
       </c>
       <c r="R82" t="s" s="9">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S82" t="n" s="11">
         <v>0.9083333333333333</v>
@@ -7859,7 +7844,7 @@
         <v>3.0</v>
       </c>
       <c r="C83" t="s" s="6">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D83" t="s" s="6">
         <v>21</v>
@@ -7895,7 +7880,7 @@
         <v>0.9930555555555556</v>
       </c>
       <c r="O83" t="s" s="9">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P83" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -7924,7 +7909,7 @@
         <v>1.0</v>
       </c>
       <c r="C84" t="s" s="6">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D84" t="s" s="6">
         <v>21</v>
@@ -7960,7 +7945,7 @@
         <v>0.9826388888888888</v>
       </c>
       <c r="O84" t="s" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P84" t="n" s="11">
         <v>0.9020833333333333</v>
@@ -7969,7 +7954,7 @@
         <v>0.9388888888888889</v>
       </c>
       <c r="R84" t="s" s="9">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S84" t="n" s="11">
         <v>0.9111111111111111</v>
@@ -7989,7 +7974,7 @@
         <v>1.0</v>
       </c>
       <c r="C85" t="s" s="6">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D85" t="s" s="6">
         <v>21</v>
@@ -8054,7 +8039,7 @@
         <v>2.0</v>
       </c>
       <c r="C86" t="s" s="6">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D86" t="s" s="6">
         <v>21</v>
@@ -8090,7 +8075,7 @@
         <v>0.975</v>
       </c>
       <c r="O86" t="s" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P86" t="n" s="11">
         <v>0.9173611111111111</v>
@@ -8099,7 +8084,7 @@
         <v>0.9409722222222222</v>
       </c>
       <c r="R86" t="s" s="9">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="S86" t="n" s="11">
         <v>0.9173611111111111</v>
@@ -8119,7 +8104,7 @@
         <v>2.0</v>
       </c>
       <c r="C87" t="s" s="6">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D87" t="s" s="6">
         <v>21</v>
@@ -8155,7 +8140,7 @@
         <v>1.0055555555555555</v>
       </c>
       <c r="O87" t="s" s="9">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P87" t="n" s="11">
         <v>0.8965277777777778</v>
@@ -8184,7 +8169,7 @@
         <v>3.0</v>
       </c>
       <c r="C88" t="s" s="6">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D88" t="s" s="6">
         <v>21</v>
@@ -8220,7 +8205,7 @@
         <v>0.9784722222222222</v>
       </c>
       <c r="O88" t="s" s="9">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P88" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -8307,9 +8292,7 @@
       <c r="B90" t="n" s="6">
         <v>1.0</v>
       </c>
-      <c r="C90" t="s" s="6">
-        <v>193</v>
-      </c>
+      <c r="C90" s="6"/>
       <c r="D90" t="s" s="6">
         <v>21</v>
       </c>
@@ -8343,18 +8326,14 @@
       <c r="N90" t="n" s="11">
         <v>1.0215277777777778</v>
       </c>
-      <c r="O90" t="s" s="9">
-        <v>194</v>
-      </c>
+      <c r="O90" s="9"/>
       <c r="P90" t="n" s="11">
         <v>0.9055555555555556</v>
       </c>
       <c r="Q90" t="n" s="11">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R90" t="s" s="9">
-        <v>26</v>
-      </c>
+      <c r="R90" s="9"/>
       <c r="S90" t="n" s="11">
         <v>0.9145833333333333</v>
       </c>
@@ -8373,7 +8352,7 @@
         <v>1.0</v>
       </c>
       <c r="C91" t="s" s="6">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D91" t="s" s="6">
         <v>21</v>
@@ -8409,7 +8388,7 @@
         <v>0.98125</v>
       </c>
       <c r="O91" t="s" s="9">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P91" t="n" s="11">
         <v>0.9020833333333333</v>
@@ -8438,7 +8417,7 @@
         <v>3.0</v>
       </c>
       <c r="C92" t="s" s="6">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D92" t="s" s="6">
         <v>21</v>
@@ -8474,7 +8453,7 @@
         <v>0.9527777777777777</v>
       </c>
       <c r="O92" t="s" s="9">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P92" t="n" s="11">
         <v>0.8993055555555556</v>
@@ -8502,7 +8481,9 @@
       <c r="B93" t="n" s="6">
         <v>3.0</v>
       </c>
-      <c r="C93" s="6"/>
+      <c r="C93" t="s" s="6">
+        <v>195</v>
+      </c>
       <c r="D93" t="s" s="6">
         <v>21</v>
       </c>
@@ -8536,14 +8517,18 @@
       <c r="N93" t="n" s="11">
         <v>1.0034722222222223</v>
       </c>
-      <c r="O93" s="9"/>
+      <c r="O93" t="s" s="9">
+        <v>26</v>
+      </c>
       <c r="P93" t="n" s="11">
         <v>0.8756944444444444</v>
       </c>
       <c r="Q93" t="n" s="11">
         <v>0.9104166666666667</v>
       </c>
-      <c r="R93" s="9"/>
+      <c r="R93" t="s" s="9">
+        <v>196</v>
+      </c>
       <c r="S93" t="n" s="11">
         <v>0.9027777777777778</v>
       </c>
@@ -8562,7 +8547,7 @@
         <v>3.0</v>
       </c>
       <c r="C94" t="s" s="6">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D94" t="s" s="6">
         <v>21</v>
@@ -8627,7 +8612,7 @@
         <v>3.0</v>
       </c>
       <c r="C95" t="s" s="6">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D95" t="s" s="6">
         <v>21</v>
@@ -8663,7 +8648,7 @@
         <v>0.9930555555555556</v>
       </c>
       <c r="O95" t="s" s="9">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P95" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -8692,7 +8677,7 @@
         <v>3.0</v>
       </c>
       <c r="C96" t="s" s="6">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D96" t="s" s="6">
         <v>21</v>
@@ -8757,7 +8742,7 @@
         <v>3.0</v>
       </c>
       <c r="C97" t="s" s="6">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D97" t="s" s="6">
         <v>21</v>
@@ -8793,7 +8778,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="O97" t="s" s="9">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P97" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -8822,7 +8807,7 @@
         <v>1.0</v>
       </c>
       <c r="C98" t="s" s="6">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D98" t="s" s="6">
         <v>21</v>
@@ -8858,7 +8843,7 @@
         <v>0.9743055555555555</v>
       </c>
       <c r="O98" t="s" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P98" t="n" s="11">
         <v>0.89375</v>
@@ -8887,7 +8872,7 @@
         <v>3.0</v>
       </c>
       <c r="C99" t="s" s="6">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D99" t="s" s="6">
         <v>21</v>
@@ -8952,7 +8937,7 @@
         <v>1.0</v>
       </c>
       <c r="C100" t="s" s="6">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D100" t="s" s="6">
         <v>21</v>
@@ -8988,7 +8973,7 @@
         <v>0.9618055555555556</v>
       </c>
       <c r="O100" t="s" s="9">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P100" t="n" s="11">
         <v>0.8993055555555556</v>
@@ -9017,7 +9002,7 @@
         <v>3.0</v>
       </c>
       <c r="C101" t="s" s="6">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D101" t="s" s="6">
         <v>21</v>
@@ -9053,7 +9038,7 @@
         <v>0.9902777777777778</v>
       </c>
       <c r="O101" t="s" s="9">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P101" t="n" s="11">
         <v>0.9131944444444444</v>
@@ -9062,7 +9047,7 @@
         <v>0.9291666666666667</v>
       </c>
       <c r="R101" t="s" s="9">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S101" t="n" s="11">
         <v>0.9368055555555556</v>
@@ -9082,7 +9067,7 @@
         <v>2.0</v>
       </c>
       <c r="C102" t="s" s="6">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D102" t="s" s="6">
         <v>21</v>
@@ -9147,7 +9132,7 @@
         <v>2.0</v>
       </c>
       <c r="C103" t="s" s="6">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D103" t="s" s="6">
         <v>21</v>
@@ -9183,7 +9168,7 @@
         <v>1.0347222222222223</v>
       </c>
       <c r="O103" t="s" s="9">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P103" t="n" s="11">
         <v>0.9354166666666667</v>
@@ -9212,7 +9197,7 @@
         <v>2.0</v>
       </c>
       <c r="C104" t="s" s="6">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D104" t="s" s="6">
         <v>21</v>
@@ -9257,7 +9242,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="R104" t="s" s="9">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S104" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -9277,7 +9262,7 @@
         <v>2.0</v>
       </c>
       <c r="C105" t="s" s="6">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D105" t="s" s="6">
         <v>21</v>
@@ -9313,7 +9298,7 @@
         <v>1.0048611111111112</v>
       </c>
       <c r="O105" t="s" s="9">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P105" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -9342,7 +9327,7 @@
         <v>1.0</v>
       </c>
       <c r="C106" t="s" s="6">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D106" t="s" s="6">
         <v>21</v>
@@ -9407,7 +9392,7 @@
         <v>2.0</v>
       </c>
       <c r="C107" t="s" s="6">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D107" t="s" s="6">
         <v>21</v>
@@ -9470,7 +9455,7 @@
         <v>2.0</v>
       </c>
       <c r="C108" t="s" s="6">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D108" t="s" s="6">
         <v>21</v>
@@ -9515,7 +9500,7 @@
         <v>0.9395833333333333</v>
       </c>
       <c r="R108" t="s" s="9">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S108" t="n" s="11">
         <v>0.9340277777777778</v>
@@ -9535,7 +9520,7 @@
         <v>2.0</v>
       </c>
       <c r="C109" t="s" s="6">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D109" t="s" s="6">
         <v>21</v>
@@ -9580,7 +9565,7 @@
         <v>0.9416666666666667</v>
       </c>
       <c r="R109" t="s" s="9">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S109" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -9600,7 +9585,7 @@
         <v>2.0</v>
       </c>
       <c r="C110" t="s" s="6">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D110" t="s" s="6">
         <v>21</v>
@@ -9636,7 +9621,7 @@
         <v>1.0256944444444445</v>
       </c>
       <c r="O110" t="s" s="9">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P110" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -9665,7 +9650,7 @@
         <v>2.0</v>
       </c>
       <c r="C111" t="s" s="6">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D111" t="s" s="6">
         <v>21</v>
@@ -9701,7 +9686,7 @@
         <v>1.0208333333333333</v>
       </c>
       <c r="O111" t="s" s="9">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P111" t="n" s="11">
         <v>0.9326388888888889</v>
@@ -9710,7 +9695,7 @@
         <v>0.9416666666666667</v>
       </c>
       <c r="R111" t="s" s="9">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S111" t="n" s="11">
         <v>0.9326388888888889</v>
@@ -9730,7 +9715,7 @@
         <v>3.0</v>
       </c>
       <c r="C112" t="s" s="6">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D112" t="s" s="6">
         <v>21</v>
@@ -9766,7 +9751,7 @@
         <v>0.99375</v>
       </c>
       <c r="O112" t="s" s="9">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P112" t="n" s="11">
         <v>0.9263888888888889</v>
@@ -9795,7 +9780,7 @@
         <v>1.0</v>
       </c>
       <c r="C113" t="s" s="6">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D113" t="s" s="6">
         <v>21</v>
@@ -9831,7 +9816,7 @@
         <v>0.9986111111111111</v>
       </c>
       <c r="O113" t="s" s="9">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P113" t="n" s="11">
         <v>0.9333333333333333</v>
@@ -9860,7 +9845,7 @@
         <v>2.0</v>
       </c>
       <c r="C114" t="s" s="6">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D114" t="s" s="6">
         <v>21</v>
@@ -9894,7 +9879,7 @@
         <v>0.9875</v>
       </c>
       <c r="O114" t="s" s="9">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P114" t="n" s="11">
         <v>0.9333333333333333</v>
@@ -9923,7 +9908,7 @@
         <v>2.0</v>
       </c>
       <c r="C115" t="s" s="6">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D115" t="s" s="6">
         <v>21</v>
@@ -9957,7 +9942,7 @@
         <v>0.9861111111111112</v>
       </c>
       <c r="O115" t="s" s="9">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P115" t="n" s="11">
         <v>0.9298611111111111</v>
